--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R433"/>
+  <dimension ref="A1:R439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E269" t="n">
         <v>15</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K269" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L269" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M269" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E270" t="n">
         <v>15</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="K270" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L270" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M270" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E271" t="n">
         <v>15</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L271" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M271" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E272" t="n">
         <v>15</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K272" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L272" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M272" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>403</v>
+        <v>181</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E273" t="n">
         <v>15</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K273" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L273" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M273" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E274" t="n">
         <v>15</v>
@@ -20088,13 +20088,13 @@
         <v>300</v>
       </c>
       <c r="K274" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L274" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M274" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E275" t="n">
         <v>15</v>
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K275" t="n">
         <v>5500</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E276" t="n">
         <v>15</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="K276" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L276" t="n">
         <v>5000</v>
       </c>
       <c r="M276" t="n">
-        <v>4487</v>
+        <v>4750</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="Q276" t="n">
         <v>18</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="E277" t="n">
         <v>15</v>
@@ -20292,25 +20292,25 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K277" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L277" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M277" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q277" t="n">
         <v>18</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E278" t="n">
         <v>15</v>
@@ -20364,25 +20364,25 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K278" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L278" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M278" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="Q278" t="n">
         <v>18</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E279" t="n">
         <v>15</v>
@@ -20436,25 +20436,25 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="K279" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L279" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M279" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q279" t="n">
         <v>18</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E280" t="n">
         <v>15</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K280" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L280" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M280" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q280" t="n">
         <v>18</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44330</v>
+        <v>44209</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K281" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L281" t="n">
         <v>6000</v>
       </c>
-      <c r="L281" t="n">
-        <v>6500</v>
-      </c>
       <c r="M281" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q281" t="n">
         <v>18</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44330</v>
+        <v>44209</v>
       </c>
       <c r="E282" t="n">
         <v>15</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>700</v>
+        <v>570</v>
       </c>
       <c r="K282" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L282" t="n">
         <v>5000</v>
       </c>
-      <c r="L282" t="n">
-        <v>5500</v>
-      </c>
       <c r="M282" t="n">
-        <v>5250</v>
+        <v>4487</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="Q282" t="n">
         <v>18</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E283" t="n">
         <v>15</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K283" t="n">
         <v>6500</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E284" t="n">
         <v>15</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K284" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L284" t="n">
         <v>6000</v>
       </c>
-      <c r="L284" t="n">
-        <v>6500</v>
-      </c>
       <c r="M284" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q284" t="n">
         <v>18</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K285" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L285" t="n">
         <v>5000</v>
       </c>
-      <c r="L285" t="n">
-        <v>5500</v>
-      </c>
       <c r="M285" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q285" t="n">
         <v>18</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K286" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L286" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M286" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="Q286" t="n">
         <v>18</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E287" t="n">
         <v>15</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="K287" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L287" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M287" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q287" t="n">
         <v>18</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E288" t="n">
         <v>15</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K288" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L288" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M288" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q288" t="n">
         <v>18</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E289" t="n">
         <v>15</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21168,13 +21168,13 @@
         <v>250</v>
       </c>
       <c r="K289" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L289" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M289" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q289" t="n">
         <v>18</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E290" t="n">
         <v>15</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K290" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L290" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M290" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q290" t="n">
         <v>18</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E291" t="n">
         <v>15</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K291" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L291" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M291" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q291" t="n">
         <v>18</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K292" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L292" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M292" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q292" t="n">
         <v>18</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E293" t="n">
         <v>15</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>270</v>
+        <v>700</v>
       </c>
       <c r="K293" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L293" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M293" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q293" t="n">
         <v>18</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K294" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L294" t="n">
         <v>4500</v>
       </c>
-      <c r="L294" t="n">
-        <v>5000</v>
-      </c>
       <c r="M294" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q294" t="n">
         <v>18</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E295" t="n">
         <v>15</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K295" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L295" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M295" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q295" t="n">
         <v>18</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E296" t="n">
         <v>15</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K296" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L296" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M296" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q296" t="n">
         <v>18</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K297" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L297" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M297" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q297" t="n">
         <v>18</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21816,13 +21816,13 @@
         <v>250</v>
       </c>
       <c r="K298" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L298" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M298" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q298" t="n">
         <v>18</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K299" t="n">
         <v>5500</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E300" t="n">
         <v>15</v>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K300" t="n">
         <v>4500</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K301" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L301" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M301" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="Q301" t="n">
         <v>18</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E302" t="n">
         <v>15</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K302" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L302" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M302" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q302" t="n">
         <v>18</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22176,13 +22176,13 @@
         <v>450</v>
       </c>
       <c r="K303" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L303" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M303" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q303" t="n">
         <v>18</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,13 +22248,13 @@
         <v>250</v>
       </c>
       <c r="K304" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L304" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M304" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q304" t="n">
         <v>18</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22320,13 +22320,13 @@
         <v>300</v>
       </c>
       <c r="K305" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L305" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M305" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q305" t="n">
         <v>18</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K306" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L306" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M306" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q306" t="n">
         <v>18</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K307" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L307" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M307" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>375</v>
+        <v>217</v>
       </c>
       <c r="Q307" t="n">
         <v>18</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K308" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L308" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M308" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="Q308" t="n">
         <v>18</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K309" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L309" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M309" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q309" t="n">
         <v>18</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22680,13 +22680,13 @@
         <v>250</v>
       </c>
       <c r="K310" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L310" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q310" t="n">
         <v>18</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22752,13 +22752,13 @@
         <v>300</v>
       </c>
       <c r="K311" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L311" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M311" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q311" t="n">
         <v>18</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K312" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L312" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M312" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q312" t="n">
         <v>18</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K313" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L313" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M313" t="n">
-        <v>5650</v>
+        <v>6750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="Q313" t="n">
         <v>18</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K314" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L314" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M314" t="n">
-        <v>5250</v>
+        <v>6000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="Q314" t="n">
         <v>18</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K315" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L315" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M315" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q315" t="n">
         <v>18</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="K316" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L316" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M316" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q316" t="n">
         <v>18</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K317" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L317" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M317" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q317" t="n">
         <v>18</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="K318" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L318" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M318" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q318" t="n">
         <v>18</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44419</v>
+        <v>44305</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K319" t="n">
         <v>5500</v>
       </c>
       <c r="L319" t="n">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="M319" t="n">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q319" t="n">
         <v>18</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44419</v>
+        <v>44305</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K320" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L320" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M320" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q320" t="n">
         <v>18</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44419</v>
+        <v>44305</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K321" t="n">
         <v>4000</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44202</v>
+        <v>44417</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K322" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L322" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M322" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q322" t="n">
         <v>18</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44202</v>
+        <v>44417</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K323" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L323" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M323" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q323" t="n">
         <v>18</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44202</v>
+        <v>44417</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>270</v>
+        <v>750</v>
       </c>
       <c r="K324" t="n">
         <v>3500</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K327" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L327" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M327" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q327" t="n">
         <v>18</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44333</v>
+        <v>44202</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K328" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L328" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M328" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q328" t="n">
         <v>18</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44333</v>
+        <v>44202</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="K329" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L329" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M329" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q329" t="n">
         <v>18</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44333</v>
+        <v>44202</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K330" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L330" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M330" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q330" t="n">
         <v>18</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K331" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L331" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M331" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q331" t="n">
         <v>18</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K332" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L332" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M332" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q332" t="n">
         <v>18</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K333" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L333" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M333" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q333" t="n">
         <v>18</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K334" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L334" t="n">
         <v>7000</v>
       </c>
       <c r="M334" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q334" t="n">
         <v>18</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="K335" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L335" t="n">
         <v>6000</v>
       </c>
       <c r="M335" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q335" t="n">
         <v>18</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K336" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L336" t="n">
         <v>5000</v>
       </c>
       <c r="M336" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q336" t="n">
         <v>18</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K337" t="n">
         <v>6500</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K338" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L338" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M338" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q338" t="n">
         <v>18</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K339" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L339" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M339" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q339" t="n">
         <v>18</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="K340" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L340" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M340" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="Q340" t="n">
         <v>18</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K341" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L341" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M341" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="Q341" t="n">
         <v>18</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K342" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L342" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M342" t="n">
-        <v>2750</v>
+        <v>4500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="Q342" t="n">
         <v>18</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K343" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L343" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M343" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q343" t="n">
         <v>18</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K344" t="n">
         <v>5500</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,7 +25197,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K345" t="n">
         <v>4500</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K346" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L346" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M346" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q346" t="n">
         <v>18</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K347" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L347" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M347" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q347" t="n">
         <v>18</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K348" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L348" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M348" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q348" t="n">
         <v>18</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K349" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L349" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M349" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q349" t="n">
         <v>18</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K350" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L350" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M350" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q350" t="n">
         <v>18</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K351" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L351" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M351" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q351" t="n">
         <v>18</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K352" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L352" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M352" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q352" t="n">
         <v>18</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="K353" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L353" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M353" t="n">
-        <v>5808</v>
+        <v>4750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="Q353" t="n">
         <v>18</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="K354" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L354" t="n">
         <v>4500</v>
       </c>
-      <c r="L354" t="n">
-        <v>5000</v>
-      </c>
       <c r="M354" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q354" t="n">
         <v>18</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25917,7 +25917,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K355" t="n">
         <v>5000</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,7 +25989,7 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K356" t="n">
         <v>4500</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K357" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L357" t="n">
         <v>4000</v>
       </c>
-      <c r="L357" t="n">
-        <v>4500</v>
-      </c>
       <c r="M357" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q357" t="n">
         <v>18</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K358" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L358" t="n">
         <v>6500</v>
       </c>
-      <c r="L358" t="n">
-        <v>7000</v>
-      </c>
       <c r="M358" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q358" t="n">
         <v>18</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26205,7 +26205,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="K359" t="n">
         <v>5500</v>
@@ -26214,7 +26214,7 @@
         <v>6000</v>
       </c>
       <c r="M359" t="n">
-        <v>5750</v>
+        <v>5808</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q359" t="n">
         <v>18</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K360" t="n">
         <v>4500</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K361" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L361" t="n">
         <v>5500</v>
       </c>
-      <c r="L361" t="n">
-        <v>6000</v>
-      </c>
       <c r="M361" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q361" t="n">
         <v>18</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K362" t="n">
         <v>4500</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26493,7 +26493,7 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K363" t="n">
         <v>4000</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K364" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L364" t="n">
         <v>7000</v>
       </c>
-      <c r="L364" t="n">
-        <v>7500</v>
-      </c>
       <c r="M364" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q364" t="n">
         <v>18</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K365" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L365" t="n">
         <v>6000</v>
       </c>
-      <c r="L365" t="n">
-        <v>6500</v>
-      </c>
       <c r="M365" t="n">
-        <v>6286</v>
+        <v>5750</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="Q365" t="n">
         <v>18</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K366" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L366" t="n">
         <v>5000</v>
       </c>
-      <c r="L366" t="n">
-        <v>5500</v>
-      </c>
       <c r="M366" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q366" t="n">
         <v>18</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K367" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L367" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M367" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q367" t="n">
         <v>18</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K368" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L368" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M368" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="K369" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L369" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M369" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="K370" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L370" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M370" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K371" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L371" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M371" t="n">
-        <v>5750</v>
+        <v>6286</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K372" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L372" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M372" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K373" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L373" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M373" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K374" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L374" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M374" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K375" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L375" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M375" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K376" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L376" t="n">
         <v>7000</v>
       </c>
-      <c r="L376" t="n">
-        <v>8000</v>
-      </c>
       <c r="M376" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27492,16 +27492,16 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K377" t="n">
         <v>5500</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,25 +27564,25 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K378" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L378" t="n">
         <v>5000</v>
       </c>
-      <c r="L378" t="n">
-        <v>5500</v>
-      </c>
       <c r="M378" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K379" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L379" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M379" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K380" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L380" t="n">
         <v>5500</v>
       </c>
       <c r="M380" t="n">
-        <v>5250</v>
+        <v>5500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27785,11 +27785,11 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K381" t="n">
         <v>4500</v>
@@ -27807,7 +27807,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P381" t="n">
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27852,25 +27852,25 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K382" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L382" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M382" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K383" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L383" t="n">
         <v>6000</v>
       </c>
-      <c r="L383" t="n">
-        <v>7000</v>
-      </c>
       <c r="M383" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q383" t="n">
         <v>18</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28008,13 +28008,13 @@
         <v>500</v>
       </c>
       <c r="K384" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L384" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M384" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K385" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L385" t="n">
         <v>5000</v>
       </c>
-      <c r="L385" t="n">
-        <v>6000</v>
-      </c>
       <c r="M385" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K386" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L386" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M386" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28167,11 +28167,11 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J387" t="n">
         <v>300</v>
       </c>
       <c r="K387" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L387" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M387" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K388" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L388" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M388" t="n">
-        <v>3800</v>
+        <v>6250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28368,13 +28368,13 @@
         <v>250</v>
       </c>
       <c r="K389" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L389" t="n">
         <v>7000</v>
       </c>
       <c r="M389" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K390" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L390" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M390" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28455,11 +28455,11 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,25 +28500,25 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K391" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M391" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K392" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L392" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M392" t="n">
-        <v>7250</v>
+        <v>4500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K393" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L393" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M393" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K394" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L394" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M394" t="n">
-        <v>5250</v>
+        <v>3800</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K395" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L395" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M395" t="n">
-        <v>6312</v>
+        <v>6750</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28869,7 +28869,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K396" t="n">
         <v>5500</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K397" t="n">
         <v>4500</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K398" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L398" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M398" t="n">
-        <v>4800</v>
+        <v>7250</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K399" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L399" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M399" t="n">
-        <v>4222</v>
+        <v>6250</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K400" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L400" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M400" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K401" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L401" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M401" t="n">
-        <v>4400</v>
+        <v>6312</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K402" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L402" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M402" t="n">
-        <v>3833</v>
+        <v>5750</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29364,16 +29364,16 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K403" t="n">
         <v>4500</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K404" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L404" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M404" t="n">
-        <v>4250</v>
+        <v>4800</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="K405" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L405" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M405" t="n">
-        <v>3750</v>
+        <v>4222</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29585,11 +29585,11 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K406" t="n">
         <v>3500</v>
@@ -29607,7 +29607,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P406" t="n">
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K407" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L407" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M407" t="n">
-        <v>3250</v>
+        <v>4400</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29724,25 +29724,25 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K408" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L408" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M408" t="n">
-        <v>7500</v>
+        <v>3833</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>417</v>
+        <v>213</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29796,25 +29796,25 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K409" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L409" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M409" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K410" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L410" t="n">
         <v>4500</v>
       </c>
-      <c r="L410" t="n">
-        <v>5000</v>
-      </c>
       <c r="M410" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K411" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L411" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M411" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K412" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L412" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M412" t="n">
-        <v>5778</v>
+        <v>3750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K413" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L413" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M413" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44244</v>
+        <v>44270</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K414" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L414" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M414" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44244</v>
+        <v>44270</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K415" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L415" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M415" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44244</v>
+        <v>44270</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K416" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L416" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M416" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44223</v>
+        <v>44270</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K417" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L417" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M417" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44223</v>
+        <v>44270</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K418" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L418" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M418" t="n">
-        <v>4750</v>
+        <v>5778</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44223</v>
+        <v>44270</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K419" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L419" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M419" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K420" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L420" t="n">
         <v>5500</v>
       </c>
-      <c r="L420" t="n">
-        <v>6000</v>
-      </c>
       <c r="M420" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K421" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L421" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M421" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K422" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L422" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M422" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44179</v>
+        <v>44223</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30816,13 +30816,13 @@
         <v>200</v>
       </c>
       <c r="K423" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M423" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44179</v>
+        <v>44223</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30888,13 +30888,13 @@
         <v>250</v>
       </c>
       <c r="K424" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L424" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M424" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44179</v>
+        <v>44223</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K425" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L425" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M425" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K426" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L426" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M426" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="K427" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L427" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M427" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>750</v>
+        <v>480</v>
       </c>
       <c r="K428" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L428" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M428" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K429" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L429" t="n">
         <v>7000</v>
       </c>
-      <c r="L429" t="n">
-        <v>7500</v>
-      </c>
       <c r="M429" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K430" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L430" t="n">
         <v>6500</v>
       </c>
-      <c r="L430" t="n">
-        <v>7000</v>
-      </c>
       <c r="M430" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,7 +31389,7 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K431" t="n">
         <v>5500</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K432" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L432" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M432" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,58 +31509,490 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E433" t="n">
+        <v>15</v>
+      </c>
+      <c r="F433" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>650</v>
+      </c>
+      <c r="K433" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L433" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M433" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P433" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>18</v>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D434" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E434" t="n">
+        <v>15</v>
+      </c>
+      <c r="F434" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
+        <v>750</v>
+      </c>
+      <c r="K434" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L434" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M434" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P434" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>18</v>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E435" t="n">
+        <v>15</v>
+      </c>
+      <c r="F435" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J435" t="n">
+        <v>250</v>
+      </c>
+      <c r="K435" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L435" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M435" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P435" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>18</v>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D436" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E436" t="n">
+        <v>15</v>
+      </c>
+      <c r="F436" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J436" t="n">
+        <v>300</v>
+      </c>
+      <c r="K436" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L436" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M436" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P436" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>18</v>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D437" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E437" t="n">
+        <v>15</v>
+      </c>
+      <c r="F437" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>450</v>
+      </c>
+      <c r="K437" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L437" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M437" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P437" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>18</v>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D438" s="2" t="n">
         <v>44334</v>
       </c>
-      <c r="E433" t="n">
-        <v>15</v>
-      </c>
-      <c r="F433" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G433" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H433" t="inlineStr">
+      <c r="E438" t="n">
+        <v>15</v>
+      </c>
+      <c r="F438" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I433" t="inlineStr">
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>200</v>
+      </c>
+      <c r="K438" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L438" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M438" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P438" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>18</v>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D439" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E439" t="n">
+        <v>15</v>
+      </c>
+      <c r="F439" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J433" t="n">
+      <c r="J439" t="n">
         <v>275</v>
       </c>
-      <c r="K433" t="n">
+      <c r="K439" t="n">
         <v>5500</v>
       </c>
-      <c r="L433" t="n">
+      <c r="L439" t="n">
         <v>6000</v>
       </c>
-      <c r="M433" t="n">
+      <c r="M439" t="n">
         <v>5727</v>
       </c>
-      <c r="N433" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O433" t="inlineStr">
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P433" t="n">
+      <c r="P439" t="n">
         <v>318</v>
       </c>
-      <c r="Q433" t="n">
-        <v>18</v>
-      </c>
-      <c r="R433" t="inlineStr">
+      <c r="Q439" t="n">
+        <v>18</v>
+      </c>
+      <c r="R439" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R442"/>
+  <dimension ref="A1:R445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E237" t="n">
         <v>15</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K237" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L237" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M237" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E238" t="n">
         <v>15</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K238" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L238" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M238" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E239" t="n">
         <v>15</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K239" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L239" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M239" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K240" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L240" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M240" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K241" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L241" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M241" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K242" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L242" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M242" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E243" t="n">
         <v>15</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K243" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L243" t="n">
         <v>7000</v>
       </c>
       <c r="M243" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E244" t="n">
         <v>15</v>
@@ -17925,17 +17925,17 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K244" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L244" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M244" t="n">
         <v>5500</v>
       </c>
-      <c r="L244" t="n">
-        <v>6500</v>
-      </c>
-      <c r="M244" t="n">
-        <v>6000</v>
-      </c>
       <c r="N244" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E245" t="n">
         <v>15</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K245" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L245" t="n">
         <v>5000</v>
       </c>
       <c r="M245" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44277</v>
+        <v>44292</v>
       </c>
       <c r="E246" t="n">
         <v>15</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K246" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L246" t="n">
         <v>7000</v>
       </c>
       <c r="M246" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44277</v>
+        <v>44292</v>
       </c>
       <c r="E247" t="n">
         <v>15</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,17 +18141,17 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K247" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L247" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M247" t="n">
         <v>6000</v>
       </c>
-      <c r="M247" t="n">
-        <v>5500</v>
-      </c>
       <c r="N247" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44277</v>
+        <v>44292</v>
       </c>
       <c r="E248" t="n">
         <v>15</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K248" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L248" t="n">
         <v>5000</v>
       </c>
       <c r="M248" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q248" t="n">
         <v>18</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K249" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L249" t="n">
         <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q249" t="n">
         <v>18</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K250" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L250" t="n">
         <v>6000</v>
       </c>
       <c r="M250" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K251" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L251" t="n">
         <v>5000</v>
       </c>
       <c r="M251" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44295</v>
+        <v>44277</v>
       </c>
       <c r="E252" t="n">
         <v>15</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K252" t="n">
         <v>6500</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44295</v>
+        <v>44277</v>
       </c>
       <c r="E253" t="n">
         <v>15</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K253" t="n">
         <v>5500</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44295</v>
+        <v>44277</v>
       </c>
       <c r="E254" t="n">
         <v>15</v>
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K254" t="n">
         <v>4500</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E255" t="n">
         <v>15</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K255" t="n">
         <v>6500</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E256" t="n">
         <v>15</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K256" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L256" t="n">
         <v>6000</v>
       </c>
-      <c r="L256" t="n">
-        <v>6500</v>
-      </c>
       <c r="M256" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E257" t="n">
         <v>15</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K257" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L257" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M257" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="K258" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L258" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M258" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K259" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L259" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M259" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K260" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L260" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M260" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="E261" t="n">
         <v>15</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>335</v>
+        <v>560</v>
       </c>
       <c r="K261" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L261" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M261" t="n">
-        <v>3948</v>
+        <v>4750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="E262" t="n">
         <v>15</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>385</v>
+        <v>650</v>
       </c>
       <c r="K262" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L262" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M262" t="n">
-        <v>3487</v>
+        <v>4250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44309</v>
+        <v>44179</v>
       </c>
       <c r="E263" t="n">
         <v>15</v>
@@ -19284,25 +19284,25 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K263" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L263" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M263" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E264" t="n">
         <v>15</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="K264" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L264" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M264" t="n">
-        <v>5750</v>
+        <v>3948</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="Q264" t="n">
         <v>18</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E265" t="n">
         <v>15</v>
@@ -19428,25 +19428,25 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="K265" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L265" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M265" t="n">
-        <v>4750</v>
+        <v>3487</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="Q265" t="n">
         <v>18</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K266" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L266" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M266" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K267" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L267" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M267" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q267" t="n">
         <v>18</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K268" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L268" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M268" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q268" t="n">
         <v>18</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44272</v>
+        <v>44309</v>
       </c>
       <c r="E269" t="n">
         <v>15</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L269" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M269" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44272</v>
+        <v>44309</v>
       </c>
       <c r="E270" t="n">
         <v>15</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K270" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L270" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M270" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>361</v>
+        <v>264</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44272</v>
+        <v>44309</v>
       </c>
       <c r="E271" t="n">
         <v>15</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K271" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L271" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M271" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="K272" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L272" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M272" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K273" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L273" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M273" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E274" t="n">
         <v>15</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K274" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L274" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M274" t="n">
-        <v>4781</v>
+        <v>6250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E275" t="n">
         <v>15</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K275" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L275" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M275" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="Q275" t="n">
         <v>18</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44235</v>
+        <v>44272</v>
       </c>
       <c r="E276" t="n">
         <v>15</v>
@@ -20225,33 +20225,33 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J276" t="n">
+        <v>300</v>
+      </c>
+      <c r="K276" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L276" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M276" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
         <v>250</v>
-      </c>
-      <c r="K276" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L276" t="n">
-        <v>5500</v>
-      </c>
-      <c r="M276" t="n">
-        <v>5250</v>
-      </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>292</v>
       </c>
       <c r="Q276" t="n">
         <v>18</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E277" t="n">
         <v>15</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K277" t="n">
         <v>4000</v>
       </c>
       <c r="L277" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M277" t="n">
-        <v>4250</v>
+        <v>4781</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="Q277" t="n">
         <v>18</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E278" t="n">
         <v>15</v>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J278" t="n">
@@ -20379,11 +20379,11 @@
         <v>3500</v>
       </c>
       <c r="L278" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M278" t="n">
         <v>4000</v>
       </c>
-      <c r="M278" t="n">
-        <v>3750</v>
-      </c>
       <c r="N278" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="Q278" t="n">
         <v>18</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E279" t="n">
         <v>15</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,13 +20448,13 @@
         <v>250</v>
       </c>
       <c r="K279" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L279" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M279" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q279" t="n">
         <v>18</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E280" t="n">
         <v>15</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K280" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L280" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M280" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q280" t="n">
         <v>18</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20592,13 +20592,13 @@
         <v>300</v>
       </c>
       <c r="K281" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L281" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M281" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q281" t="n">
         <v>18</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K282" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L282" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M282" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q282" t="n">
         <v>18</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K283" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L283" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M283" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q283" t="n">
         <v>18</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K284" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L284" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M284" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q284" t="n">
         <v>18</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K285" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L285" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M285" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q285" t="n">
         <v>18</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L286" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M286" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="Q286" t="n">
         <v>18</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E287" t="n">
         <v>15</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K287" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L287" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M287" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="Q287" t="n">
         <v>18</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>850</v>
+        <v>270</v>
       </c>
       <c r="K288" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L288" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M288" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q288" t="n">
         <v>18</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>920</v>
+        <v>300</v>
       </c>
       <c r="K289" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L289" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M289" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Q289" t="n">
         <v>18</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="K290" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L290" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M290" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="Q290" t="n">
         <v>18</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E291" t="n">
         <v>15</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>270</v>
+        <v>850</v>
       </c>
       <c r="K291" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L291" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M291" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q291" t="n">
         <v>18</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>300</v>
+        <v>920</v>
       </c>
       <c r="K292" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L292" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M292" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q292" t="n">
         <v>18</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E293" t="n">
         <v>15</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K293" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L293" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M293" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q293" t="n">
         <v>18</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K294" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L294" t="n">
         <v>4000</v>
       </c>
-      <c r="L294" t="n">
-        <v>4500</v>
-      </c>
       <c r="M294" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q294" t="n">
         <v>18</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E295" t="n">
         <v>15</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="K295" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L295" t="n">
         <v>3500</v>
       </c>
-      <c r="L295" t="n">
-        <v>4000</v>
-      </c>
       <c r="M295" t="n">
-        <v>3778</v>
+        <v>3250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="Q295" t="n">
         <v>18</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E296" t="n">
         <v>15</v>
@@ -21672,13 +21672,13 @@
         <v>300</v>
       </c>
       <c r="K296" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L296" t="n">
         <v>3000</v>
       </c>
-      <c r="L296" t="n">
-        <v>3500</v>
-      </c>
       <c r="M296" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q296" t="n">
         <v>18</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L297" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M297" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="Q297" t="n">
         <v>18</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="K298" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L298" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M298" t="n">
-        <v>5500</v>
+        <v>3778</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="Q298" t="n">
         <v>18</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K299" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L299" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M299" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="Q299" t="n">
         <v>18</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E300" t="n">
         <v>15</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K300" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M300" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="Q300" t="n">
         <v>18</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K301" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L301" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M301" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q301" t="n">
         <v>18</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E302" t="n">
         <v>15</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,17 +22101,17 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K302" t="n">
         <v>4000</v>
       </c>
       <c r="L302" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M302" t="n">
         <v>4500</v>
       </c>
-      <c r="M302" t="n">
-        <v>4250</v>
-      </c>
       <c r="N302" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q302" t="n">
         <v>18</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K303" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L303" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M303" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q303" t="n">
         <v>18</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K304" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L304" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M304" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q304" t="n">
         <v>18</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K305" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L305" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M305" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q305" t="n">
         <v>18</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K306" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L306" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M306" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q306" t="n">
         <v>18</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="K307" t="n">
         <v>6000</v>
@@ -22470,7 +22470,7 @@
         <v>6500</v>
       </c>
       <c r="M307" t="n">
-        <v>6250</v>
+        <v>6273</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q307" t="n">
         <v>18</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K308" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L308" t="n">
         <v>5500</v>
       </c>
-      <c r="L308" t="n">
-        <v>6000</v>
-      </c>
       <c r="M308" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q308" t="n">
         <v>18</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J309" t="n">
         <v>300</v>
       </c>
       <c r="K309" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L309" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M309" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q309" t="n">
         <v>18</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K310" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L310" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M310" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q310" t="n">
         <v>18</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22740,16 +22740,16 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K311" t="n">
         <v>5500</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22812,25 +22812,25 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K312" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L312" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M312" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q312" t="n">
         <v>18</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22884,25 +22884,25 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K313" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L313" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M313" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q313" t="n">
         <v>18</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K314" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L314" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M314" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q314" t="n">
         <v>18</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K315" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L315" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M315" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q315" t="n">
         <v>18</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K316" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L316" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M316" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q316" t="n">
         <v>18</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K317" t="n">
         <v>5000</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K318" t="n">
         <v>4500</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>350</v>
+        <v>760</v>
       </c>
       <c r="K319" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L319" t="n">
         <v>4000</v>
       </c>
-      <c r="L319" t="n">
-        <v>4500</v>
-      </c>
       <c r="M319" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q319" t="n">
         <v>18</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="K320" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L320" t="n">
         <v>5500</v>
       </c>
-      <c r="L320" t="n">
-        <v>6000</v>
-      </c>
       <c r="M320" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q320" t="n">
         <v>18</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K321" t="n">
         <v>4500</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="K322" t="n">
         <v>4000</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K323" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L323" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M323" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q323" t="n">
         <v>18</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K324" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L324" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M324" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q324" t="n">
         <v>18</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44264</v>
+        <v>44222</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K325" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L325" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M325" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="Q325" t="n">
         <v>18</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44264</v>
+        <v>44398</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K326" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L326" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M326" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q326" t="n">
         <v>18</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44348</v>
+        <v>44398</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K327" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L327" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M327" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q327" t="n">
         <v>18</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K328" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L328" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M328" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q328" t="n">
         <v>18</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K329" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L329" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M329" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q329" t="n">
         <v>18</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K330" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L330" t="n">
         <v>6000</v>
       </c>
-      <c r="L330" t="n">
-        <v>6500</v>
-      </c>
       <c r="M330" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q330" t="n">
         <v>18</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K331" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L331" t="n">
         <v>5000</v>
       </c>
-      <c r="L331" t="n">
-        <v>5500</v>
-      </c>
       <c r="M331" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q331" t="n">
         <v>18</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K332" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L332" t="n">
         <v>4000</v>
       </c>
-      <c r="L332" t="n">
-        <v>4500</v>
-      </c>
       <c r="M332" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q332" t="n">
         <v>18</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K333" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L333" t="n">
         <v>6500</v>
       </c>
-      <c r="L333" t="n">
-        <v>7000</v>
-      </c>
       <c r="M333" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q333" t="n">
         <v>18</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K334" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L334" t="n">
         <v>5500</v>
       </c>
-      <c r="L334" t="n">
-        <v>6000</v>
-      </c>
       <c r="M334" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q334" t="n">
         <v>18</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K335" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L335" t="n">
         <v>4500</v>
       </c>
-      <c r="L335" t="n">
-        <v>5000</v>
-      </c>
       <c r="M335" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q335" t="n">
         <v>18</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,13 +24552,13 @@
         <v>250</v>
       </c>
       <c r="K336" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L336" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M336" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q336" t="n">
         <v>18</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>300</v>
       </c>
       <c r="K337" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L337" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M337" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q337" t="n">
         <v>18</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K338" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L338" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M338" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q338" t="n">
         <v>18</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K339" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L339" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M339" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="Q339" t="n">
         <v>18</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K340" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L340" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M340" t="n">
-        <v>6286</v>
+        <v>4750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="Q340" t="n">
         <v>18</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K341" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L341" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M341" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q341" t="n">
         <v>18</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="K342" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L342" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M342" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="Q342" t="n">
         <v>18</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K343" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L343" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M343" t="n">
-        <v>4250</v>
+        <v>6286</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="Q343" t="n">
         <v>18</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>650</v>
+        <v>280</v>
       </c>
       <c r="K344" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L344" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M344" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q344" t="n">
         <v>18</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K345" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L345" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M345" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q345" t="n">
         <v>18</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K346" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L346" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M346" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q346" t="n">
         <v>18</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25341,7 +25341,7 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K347" t="n">
         <v>3000</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25416,13 +25416,13 @@
         <v>250</v>
       </c>
       <c r="K348" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L348" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M348" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q348" t="n">
         <v>18</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25488,13 +25488,13 @@
         <v>300</v>
       </c>
       <c r="K349" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L349" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M349" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q349" t="n">
         <v>18</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25560,13 +25560,13 @@
         <v>300</v>
       </c>
       <c r="K350" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L350" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M350" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q350" t="n">
         <v>18</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L351" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M351" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q351" t="n">
         <v>18</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K352" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L352" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M352" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q352" t="n">
         <v>18</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K353" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L353" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M353" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q353" t="n">
         <v>18</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25845,7 +25845,7 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K354" t="n">
         <v>5000</v>
@@ -25863,7 +25863,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P354" t="n">
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K355" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L355" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M355" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25935,11 +25935,11 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q355" t="n">
         <v>18</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>240</v>
+        <v>750</v>
       </c>
       <c r="K356" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L356" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M356" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q356" t="n">
         <v>18</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K357" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L357" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M357" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q357" t="n">
         <v>18</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K358" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L358" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M358" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q358" t="n">
         <v>18</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K359" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L359" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M359" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q359" t="n">
         <v>18</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K360" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L360" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M360" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q360" t="n">
         <v>18</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K361" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L361" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M361" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q361" t="n">
         <v>18</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K362" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L362" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M362" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q362" t="n">
         <v>18</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K363" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M363" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q363" t="n">
         <v>18</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K364" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L364" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M364" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q364" t="n">
         <v>18</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K365" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L365" t="n">
         <v>5500</v>
       </c>
-      <c r="L365" t="n">
-        <v>6000</v>
-      </c>
       <c r="M365" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q365" t="n">
         <v>18</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26781,7 +26781,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="K367" t="n">
         <v>3500</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K368" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L368" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M368" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K369" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L369" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M369" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K370" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L370" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M370" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,13 +27072,13 @@
         <v>250</v>
       </c>
       <c r="K371" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L371" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M371" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K372" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L372" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M372" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K373" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L373" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M373" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K374" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L374" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M374" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K375" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L375" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M375" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>760</v>
+        <v>450</v>
       </c>
       <c r="K376" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L376" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M376" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K377" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L377" t="n">
         <v>5500</v>
       </c>
-      <c r="L377" t="n">
-        <v>6000</v>
-      </c>
       <c r="M377" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K378" t="n">
         <v>4500</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27645,7 +27645,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K379" t="n">
         <v>4000</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,7 +27717,7 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K380" t="n">
         <v>5500</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K381" t="n">
         <v>4500</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27864,13 +27864,13 @@
         <v>300</v>
       </c>
       <c r="K382" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L382" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M382" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K384" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L384" t="n">
         <v>5000</v>
       </c>
-      <c r="L384" t="n">
-        <v>5500</v>
-      </c>
       <c r="M384" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28080,13 +28080,13 @@
         <v>300</v>
       </c>
       <c r="K385" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L385" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M385" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K386" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L386" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M386" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K387" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L387" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M387" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K388" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L388" t="n">
         <v>5000</v>
       </c>
-      <c r="L388" t="n">
-        <v>5500</v>
-      </c>
       <c r="M388" t="n">
-        <v>5125</v>
+        <v>4750</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K389" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L389" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M389" t="n">
-        <v>4786</v>
+        <v>7250</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>266</v>
+        <v>403</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K390" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L390" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M390" t="n">
-        <v>4227</v>
+        <v>6250</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K391" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L391" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M391" t="n">
-        <v>3722</v>
+        <v>5125</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K392" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L392" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M392" t="n">
-        <v>6250</v>
+        <v>4786</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>225</v>
+        <v>550</v>
       </c>
       <c r="K393" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L393" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M393" t="n">
-        <v>5722</v>
+        <v>4227</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K394" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L394" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M394" t="n">
-        <v>4750</v>
+        <v>3722</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K395" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L395" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M395" t="n">
-        <v>5900</v>
+        <v>6250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="K396" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L396" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M396" t="n">
-        <v>5250</v>
+        <v>5722</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K397" t="n">
         <v>4500</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44411</v>
+        <v>44302</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K398" t="n">
-        <v>3300</v>
+        <v>5800</v>
       </c>
       <c r="L398" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M398" t="n">
-        <v>3400</v>
+        <v>5900</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44411</v>
+        <v>44302</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K399" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L399" t="n">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="M399" t="n">
-        <v>3150</v>
+        <v>5250</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44438</v>
+        <v>44302</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29148,25 +29148,25 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K400" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L400" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M400" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44438</v>
+        <v>44411</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K401" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L401" t="n">
         <v>3500</v>
       </c>
       <c r="M401" t="n">
-        <v>3250</v>
+        <v>3400</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44438</v>
+        <v>44411</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K402" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L402" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="M402" t="n">
-        <v>2750</v>
+        <v>3150</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29376,13 +29376,13 @@
         <v>300</v>
       </c>
       <c r="K403" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L403" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M403" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K404" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L404" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M404" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K405" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L405" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M405" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K406" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L406" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M406" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K407" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L407" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M407" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K408" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L408" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M408" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K409" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L409" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M409" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K410" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L410" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M410" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,7 +29949,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K411" t="n">
         <v>3000</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30024,13 +30024,13 @@
         <v>300</v>
       </c>
       <c r="K412" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L412" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M412" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30096,13 +30096,13 @@
         <v>350</v>
       </c>
       <c r="K413" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L413" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M413" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K414" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L414" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M414" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K415" t="n">
         <v>3500</v>
       </c>
       <c r="L415" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M415" t="n">
-        <v>3977</v>
+        <v>3750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="K416" t="n">
         <v>3000</v>
       </c>
       <c r="L416" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M416" t="n">
-        <v>3468</v>
+        <v>3250</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30372,25 +30372,25 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="K417" t="n">
         <v>2500</v>
       </c>
       <c r="L417" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M417" t="n">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="K418" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L418" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M418" t="n">
-        <v>3147</v>
+        <v>3977</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30516,16 +30516,16 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>820</v>
+        <v>465</v>
       </c>
       <c r="K419" t="n">
         <v>3000</v>
@@ -30534,7 +30534,7 @@
         <v>4000</v>
       </c>
       <c r="M419" t="n">
-        <v>3659</v>
+        <v>3468</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>1150</v>
+        <v>225</v>
       </c>
       <c r="K420" t="n">
         <v>2500</v>
       </c>
       <c r="L420" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M420" t="n">
-        <v>3033</v>
+        <v>2500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>1220</v>
+        <v>510</v>
       </c>
       <c r="K421" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L421" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M421" t="n">
-        <v>2525</v>
+        <v>3147</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>200</v>
+        <v>820</v>
       </c>
       <c r="K422" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L422" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M422" t="n">
-        <v>6250</v>
+        <v>3659</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>347</v>
+        <v>203</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>325</v>
+        <v>1150</v>
       </c>
       <c r="K423" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L423" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M423" t="n">
-        <v>5808</v>
+        <v>3033</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>450</v>
+        <v>1220</v>
       </c>
       <c r="K424" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L424" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M424" t="n">
-        <v>4750</v>
+        <v>2525</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L425" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M425" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="K426" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L426" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M426" t="n">
-        <v>4750</v>
+        <v>5808</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K427" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L427" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M427" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31176,13 +31176,13 @@
         <v>300</v>
       </c>
       <c r="K428" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L428" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M428" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K429" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L429" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M429" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K430" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L430" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M430" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K431" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L431" t="n">
         <v>5000</v>
       </c>
-      <c r="L431" t="n">
-        <v>6000</v>
-      </c>
       <c r="M431" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K432" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L432" t="n">
         <v>4500</v>
       </c>
-      <c r="L432" t="n">
-        <v>5000</v>
-      </c>
       <c r="M432" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K433" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L433" t="n">
         <v>4000</v>
       </c>
-      <c r="L433" t="n">
-        <v>4500</v>
-      </c>
       <c r="M433" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31605,17 +31605,17 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K434" t="n">
         <v>5000</v>
       </c>
       <c r="L434" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M434" t="n">
         <v>5500</v>
       </c>
-      <c r="M434" t="n">
-        <v>5250</v>
-      </c>
       <c r="N434" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31677,7 +31677,7 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K435" t="n">
         <v>4500</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31749,7 +31749,7 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K436" t="n">
         <v>4000</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K437" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L437" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M437" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31896,13 +31896,13 @@
         <v>400</v>
       </c>
       <c r="K438" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L438" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M438" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K439" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="L439" t="n">
         <v>4500</v>
       </c>
       <c r="M439" t="n">
-        <v>2500</v>
+        <v>4250</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K440" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L440" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M440" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K441" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L441" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M441" t="n">
-        <v>3714</v>
+        <v>5750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32184,31 +32184,247 @@
         <v>450</v>
       </c>
       <c r="K442" t="n">
+        <v>500</v>
+      </c>
+      <c r="L442" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M442" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P442" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>18</v>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D443" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E443" t="n">
+        <v>15</v>
+      </c>
+      <c r="F443" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>250</v>
+      </c>
+      <c r="K443" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L443" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M443" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P443" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>18</v>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D444" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E444" t="n">
+        <v>15</v>
+      </c>
+      <c r="F444" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>350</v>
+      </c>
+      <c r="K444" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L444" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M444" t="n">
+        <v>3714</v>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P444" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>18</v>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D445" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E445" t="n">
+        <v>15</v>
+      </c>
+      <c r="F445" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>450</v>
+      </c>
+      <c r="K445" t="n">
         <v>3000</v>
       </c>
-      <c r="L442" t="n">
+      <c r="L445" t="n">
         <v>3500</v>
       </c>
-      <c r="M442" t="n">
+      <c r="M445" t="n">
         <v>3250</v>
       </c>
-      <c r="N442" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O442" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P442" t="n">
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P445" t="n">
         <v>181</v>
       </c>
-      <c r="Q442" t="n">
-        <v>18</v>
-      </c>
-      <c r="R442" t="inlineStr">
+      <c r="Q445" t="n">
+        <v>18</v>
+      </c>
+      <c r="R445" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R445"/>
+  <dimension ref="A1:R448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K437" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L437" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M437" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K438" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L438" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M438" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31968,13 +31968,13 @@
         <v>300</v>
       </c>
       <c r="K439" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L439" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M439" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K440" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L440" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M440" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32112,13 +32112,13 @@
         <v>400</v>
       </c>
       <c r="K441" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L441" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M441" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K442" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="L442" t="n">
         <v>4500</v>
       </c>
       <c r="M442" t="n">
-        <v>2500</v>
+        <v>4250</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K443" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L443" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M443" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K444" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L444" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M444" t="n">
-        <v>3714</v>
+        <v>5750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32400,31 +32400,247 @@
         <v>450</v>
       </c>
       <c r="K445" t="n">
+        <v>500</v>
+      </c>
+      <c r="L445" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M445" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P445" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>18</v>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D446" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E446" t="n">
+        <v>15</v>
+      </c>
+      <c r="F446" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J446" t="n">
+        <v>250</v>
+      </c>
+      <c r="K446" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L446" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M446" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P446" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>18</v>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D447" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E447" t="n">
+        <v>15</v>
+      </c>
+      <c r="F447" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J447" t="n">
+        <v>350</v>
+      </c>
+      <c r="K447" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L447" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M447" t="n">
+        <v>3714</v>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P447" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>18</v>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>1</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D448" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E448" t="n">
+        <v>15</v>
+      </c>
+      <c r="F448" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>450</v>
+      </c>
+      <c r="K448" t="n">
         <v>3000</v>
       </c>
-      <c r="L445" t="n">
+      <c r="L448" t="n">
         <v>3500</v>
       </c>
-      <c r="M445" t="n">
+      <c r="M448" t="n">
         <v>3250</v>
       </c>
-      <c r="N445" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O445" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P445" t="n">
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P448" t="n">
         <v>181</v>
       </c>
-      <c r="Q445" t="n">
-        <v>18</v>
-      </c>
-      <c r="R445" t="inlineStr">
+      <c r="Q448" t="n">
+        <v>18</v>
+      </c>
+      <c r="R448" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R448"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K403" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L403" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M403" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K404" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L404" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M404" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K405" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L405" t="n">
         <v>3000</v>
       </c>
       <c r="M405" t="n">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29580,25 +29580,25 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K406" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L406" t="n">
         <v>3500</v>
       </c>
       <c r="M406" t="n">
-        <v>3250</v>
+        <v>3500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K407" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L407" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M407" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K408" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L408" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M408" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44251</v>
+        <v>44449</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K409" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L409" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M409" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J410" t="n">
         <v>300</v>
       </c>
       <c r="K410" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L410" t="n">
         <v>4000</v>
       </c>
-      <c r="L410" t="n">
-        <v>4500</v>
-      </c>
       <c r="M410" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29940,16 +29940,16 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K411" t="n">
         <v>3000</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K412" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L412" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M412" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30084,25 +30084,25 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K413" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L413" t="n">
         <v>3500</v>
       </c>
-      <c r="L413" t="n">
-        <v>4000</v>
-      </c>
       <c r="M413" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30156,25 +30156,25 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="K414" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L414" t="n">
         <v>3000</v>
       </c>
-      <c r="L414" t="n">
-        <v>3500</v>
-      </c>
       <c r="M414" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J415" t="n">
         <v>300</v>
       </c>
       <c r="K415" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L415" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M415" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K416" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L416" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M416" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K417" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L417" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M417" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="K418" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L418" t="n">
         <v>3500</v>
       </c>
-      <c r="L418" t="n">
-        <v>4500</v>
-      </c>
       <c r="M418" t="n">
-        <v>3977</v>
+        <v>3250</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>465</v>
+        <v>300</v>
       </c>
       <c r="K419" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L419" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M419" t="n">
-        <v>3468</v>
+        <v>4250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="K420" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L420" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M420" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30669,7 +30669,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="K421" t="n">
         <v>3000</v>
@@ -30678,7 +30678,7 @@
         <v>3500</v>
       </c>
       <c r="M421" t="n">
-        <v>3147</v>
+        <v>3250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>820</v>
+        <v>300</v>
       </c>
       <c r="K422" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L422" t="n">
         <v>4000</v>
       </c>
       <c r="M422" t="n">
-        <v>3659</v>
+        <v>3750</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>1150</v>
+        <v>350</v>
       </c>
       <c r="K423" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L423" t="n">
         <v>3500</v>
       </c>
       <c r="M423" t="n">
-        <v>3033</v>
+        <v>3250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>1220</v>
+        <v>450</v>
       </c>
       <c r="K424" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L424" t="n">
         <v>3000</v>
       </c>
       <c r="M424" t="n">
-        <v>2525</v>
+        <v>2750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K425" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L425" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M425" t="n">
-        <v>6250</v>
+        <v>3977</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>325</v>
+        <v>465</v>
       </c>
       <c r="K426" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L426" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M426" t="n">
-        <v>5808</v>
+        <v>3468</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="K427" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L427" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M427" t="n">
-        <v>4750</v>
+        <v>2500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,25 +31164,25 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="K428" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L428" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M428" t="n">
-        <v>5250</v>
+        <v>3147</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>450</v>
+        <v>820</v>
       </c>
       <c r="K429" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L429" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M429" t="n">
-        <v>4750</v>
+        <v>3659</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K430" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L430" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M430" t="n">
-        <v>4250</v>
+        <v>3033</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>300</v>
+        <v>1220</v>
       </c>
       <c r="K431" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L431" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M431" t="n">
-        <v>4750</v>
+        <v>2525</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31452,25 +31452,25 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K432" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L432" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M432" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31524,25 +31524,25 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="K433" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L433" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M433" t="n">
-        <v>3750</v>
+        <v>5808</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44223</v>
+        <v>44319</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,25 +31596,25 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K434" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L434" t="n">
         <v>5000</v>
       </c>
-      <c r="L434" t="n">
-        <v>6000</v>
-      </c>
       <c r="M434" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44223</v>
+        <v>44319</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K435" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L435" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M435" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44223</v>
+        <v>44319</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="K436" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L436" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M436" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44448</v>
+        <v>44319</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K437" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L437" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M437" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44448</v>
+        <v>44175</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J438" t="n">
         <v>300</v>
       </c>
       <c r="K438" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L438" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M438" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44448</v>
+        <v>44175</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K439" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L439" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M439" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44167</v>
+        <v>44175</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K440" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L440" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M440" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K441" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L441" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M441" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K442" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L442" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M442" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44400</v>
+        <v>44223</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32244,25 +32244,25 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K443" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L443" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M443" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,25 +32316,25 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K444" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L444" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M444" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,25 +32388,25 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K445" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="L445" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M445" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K446" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L446" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M446" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K447" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L447" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M447" t="n">
-        <v>3714</v>
+        <v>5250</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,58 +32589,562 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E448" t="n">
+        <v>15</v>
+      </c>
+      <c r="F448" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>400</v>
+      </c>
+      <c r="K448" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L448" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M448" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P448" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>18</v>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>1</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D449" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E449" t="n">
+        <v>15</v>
+      </c>
+      <c r="F449" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>300</v>
+      </c>
+      <c r="K449" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L449" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M449" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P449" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>18</v>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>1</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D450" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E448" t="n">
-        <v>15</v>
-      </c>
-      <c r="F448" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
+      <c r="E450" t="n">
+        <v>15</v>
+      </c>
+      <c r="F450" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>300</v>
+      </c>
+      <c r="K450" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L450" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M450" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P450" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>18</v>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D451" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E451" t="n">
+        <v>15</v>
+      </c>
+      <c r="F451" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>400</v>
+      </c>
+      <c r="K451" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L451" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M451" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P451" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>18</v>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E452" t="n">
+        <v>15</v>
+      </c>
+      <c r="F452" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>450</v>
+      </c>
+      <c r="K452" t="n">
+        <v>500</v>
+      </c>
+      <c r="L452" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M452" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P452" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>18</v>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>1</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E453" t="n">
+        <v>15</v>
+      </c>
+      <c r="F453" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I448" t="inlineStr">
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>250</v>
+      </c>
+      <c r="K453" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L453" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M453" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P453" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>18</v>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>1</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E454" t="n">
+        <v>15</v>
+      </c>
+      <c r="F454" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>350</v>
+      </c>
+      <c r="K454" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L454" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M454" t="n">
+        <v>3714</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P454" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>18</v>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E455" t="n">
+        <v>15</v>
+      </c>
+      <c r="F455" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J448" t="n">
+      <c r="J455" t="n">
         <v>450</v>
       </c>
-      <c r="K448" t="n">
+      <c r="K455" t="n">
         <v>3000</v>
       </c>
-      <c r="L448" t="n">
+      <c r="L455" t="n">
         <v>3500</v>
       </c>
-      <c r="M448" t="n">
+      <c r="M455" t="n">
         <v>3250</v>
       </c>
-      <c r="N448" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O448" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P448" t="n">
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P455" t="n">
         <v>181</v>
       </c>
-      <c r="Q448" t="n">
-        <v>18</v>
-      </c>
-      <c r="R448" t="inlineStr">
+      <c r="Q455" t="n">
+        <v>18</v>
+      </c>
+      <c r="R455" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E282" t="n">
         <v>15</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K282" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L282" t="n">
-        <v>7000</v>
+        <v>3700</v>
       </c>
       <c r="M282" t="n">
-        <v>6750</v>
+        <v>3600</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="Q282" t="n">
         <v>18</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E283" t="n">
         <v>15</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K283" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L283" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M283" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q283" t="n">
         <v>18</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E284" t="n">
         <v>15</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K284" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L284" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M284" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q284" t="n">
         <v>18</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20880,13 +20880,13 @@
         <v>300</v>
       </c>
       <c r="K285" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L285" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M285" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q285" t="n">
         <v>18</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="K286" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L286" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M286" t="n">
-        <v>4250</v>
+        <v>2769</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="Q286" t="n">
         <v>18</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E287" t="n">
         <v>15</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K287" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L287" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M287" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="Q287" t="n">
         <v>18</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E288" t="n">
         <v>15</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K288" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L288" t="n">
         <v>7000</v>
       </c>
-      <c r="L288" t="n">
-        <v>8000</v>
-      </c>
       <c r="M288" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q288" t="n">
         <v>18</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E289" t="n">
         <v>15</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K289" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L289" t="n">
         <v>6000</v>
       </c>
-      <c r="L289" t="n">
-        <v>7000</v>
-      </c>
       <c r="M289" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q289" t="n">
         <v>18</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E290" t="n">
         <v>15</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K290" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L290" t="n">
         <v>5000</v>
       </c>
-      <c r="L290" t="n">
-        <v>6000</v>
-      </c>
       <c r="M290" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q290" t="n">
         <v>18</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E291" t="n">
         <v>15</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="K291" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L291" t="n">
         <v>5000</v>
       </c>
-      <c r="L291" t="n">
-        <v>5500</v>
-      </c>
       <c r="M291" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q291" t="n">
         <v>18</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>920</v>
+        <v>400</v>
       </c>
       <c r="K292" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L292" t="n">
         <v>4500</v>
       </c>
-      <c r="L292" t="n">
-        <v>5000</v>
-      </c>
       <c r="M292" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q292" t="n">
         <v>18</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E293" t="n">
         <v>15</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="K293" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L293" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M293" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q293" t="n">
         <v>18</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21528,13 +21528,13 @@
         <v>270</v>
       </c>
       <c r="K294" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L294" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M294" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="Q294" t="n">
         <v>18</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E295" t="n">
         <v>15</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21600,13 +21600,13 @@
         <v>300</v>
       </c>
       <c r="K295" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>3250</v>
+        <v>6500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="Q295" t="n">
         <v>18</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E296" t="n">
         <v>15</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K296" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L296" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M296" t="n">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="Q296" t="n">
         <v>18</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="K297" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L297" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M297" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q297" t="n">
         <v>18</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>225</v>
+        <v>920</v>
       </c>
       <c r="K298" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L298" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M298" t="n">
-        <v>3778</v>
+        <v>4750</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="Q298" t="n">
         <v>18</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K299" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L299" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M299" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q299" t="n">
         <v>18</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E300" t="n">
         <v>15</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K300" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L300" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M300" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="Q300" t="n">
         <v>18</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K301" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L301" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M301" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="Q301" t="n">
         <v>18</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E302" t="n">
         <v>15</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L302" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M302" t="n">
-        <v>4500</v>
+        <v>2750</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="Q302" t="n">
         <v>18</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22176,13 +22176,13 @@
         <v>200</v>
       </c>
       <c r="K303" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L303" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M303" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q303" t="n">
         <v>18</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K304" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L304" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M304" t="n">
-        <v>4750</v>
+        <v>3778</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="Q304" t="n">
         <v>18</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K305" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L305" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M305" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q305" t="n">
         <v>18</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K306" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L306" t="n">
         <v>7000</v>
       </c>
-      <c r="L306" t="n">
-        <v>7500</v>
-      </c>
       <c r="M306" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="Q306" t="n">
         <v>18</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="K307" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L307" t="n">
         <v>6000</v>
       </c>
-      <c r="L307" t="n">
-        <v>6500</v>
-      </c>
       <c r="M307" t="n">
-        <v>6273</v>
+        <v>5500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="Q307" t="n">
         <v>18</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K308" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L308" t="n">
         <v>5000</v>
       </c>
-      <c r="L308" t="n">
-        <v>5500</v>
-      </c>
       <c r="M308" t="n">
-        <v>5250</v>
+        <v>4500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="Q308" t="n">
         <v>18</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K309" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L309" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M309" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q309" t="n">
         <v>18</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K310" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L310" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q310" t="n">
         <v>18</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K311" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L311" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M311" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q311" t="n">
         <v>18</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K312" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L312" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M312" t="n">
-        <v>3750</v>
+        <v>7250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>208</v>
+        <v>403</v>
       </c>
       <c r="Q312" t="n">
         <v>18</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="K313" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L313" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M313" t="n">
-        <v>3250</v>
+        <v>6273</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="Q313" t="n">
         <v>18</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44421</v>
+        <v>44321</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22956,25 +22956,25 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J314" t="n">
         <v>300</v>
       </c>
       <c r="K314" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L314" t="n">
         <v>5500</v>
       </c>
-      <c r="L314" t="n">
-        <v>6000</v>
-      </c>
       <c r="M314" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q314" t="n">
         <v>18</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23028,25 +23028,25 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K315" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L315" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M315" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q315" t="n">
         <v>18</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23100,25 +23100,25 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K316" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L316" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M316" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q316" t="n">
         <v>18</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K317" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L317" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M317" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q317" t="n">
         <v>18</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K318" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L318" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M318" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q318" t="n">
         <v>18</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="K319" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L319" t="n">
         <v>3500</v>
       </c>
-      <c r="L319" t="n">
-        <v>4000</v>
-      </c>
       <c r="M319" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="Q319" t="n">
         <v>18</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K320" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L320" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M320" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q320" t="n">
         <v>18</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K321" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L321" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M321" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q321" t="n">
         <v>18</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K322" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L322" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M322" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q322" t="n">
         <v>18</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44222</v>
+        <v>44421</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="K323" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L323" t="n">
         <v>5500</v>
       </c>
-      <c r="L323" t="n">
-        <v>6000</v>
-      </c>
       <c r="M323" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q323" t="n">
         <v>18</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44222</v>
+        <v>44421</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K324" t="n">
         <v>4500</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44222</v>
+        <v>44421</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>540</v>
+        <v>760</v>
       </c>
       <c r="K325" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L325" t="n">
         <v>4000</v>
       </c>
-      <c r="L325" t="n">
-        <v>4500</v>
-      </c>
       <c r="M325" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q325" t="n">
         <v>18</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44398</v>
+        <v>44215</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K326" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L326" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M326" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q326" t="n">
         <v>18</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44398</v>
+        <v>44215</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K327" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M327" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q327" t="n">
         <v>18</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44264</v>
+        <v>44215</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K328" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L328" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M328" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="Q328" t="n">
         <v>18</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44264</v>
+        <v>44222</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="K329" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L329" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M329" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q329" t="n">
         <v>18</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44348</v>
+        <v>44222</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K330" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L330" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M330" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q330" t="n">
         <v>18</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44348</v>
+        <v>44222</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K331" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L331" t="n">
         <v>4500</v>
       </c>
-      <c r="L331" t="n">
-        <v>5000</v>
-      </c>
       <c r="M331" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q331" t="n">
         <v>18</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44348</v>
+        <v>44398</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24257,11 +24257,11 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K332" t="n">
         <v>3500</v>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P332" t="n">
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44263</v>
+        <v>44398</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J333" t="n">
         <v>400</v>
       </c>
       <c r="K333" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L333" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M333" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q333" t="n">
         <v>18</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K334" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L334" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M334" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q334" t="n">
         <v>18</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K335" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L335" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M335" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="Q335" t="n">
         <v>18</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,13 +24552,13 @@
         <v>250</v>
       </c>
       <c r="K336" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L336" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M336" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q336" t="n">
         <v>18</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>300</v>
       </c>
       <c r="K337" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L337" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M337" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q337" t="n">
         <v>18</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24696,13 +24696,13 @@
         <v>300</v>
       </c>
       <c r="K338" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L338" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M338" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q338" t="n">
         <v>18</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K339" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L339" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M339" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q339" t="n">
         <v>18</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K340" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L340" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M340" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q340" t="n">
         <v>18</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K341" t="n">
         <v>4000</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K342" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L342" t="n">
         <v>7000</v>
       </c>
-      <c r="L342" t="n">
-        <v>7500</v>
-      </c>
       <c r="M342" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q342" t="n">
         <v>18</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K343" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L343" t="n">
         <v>6000</v>
       </c>
-      <c r="L343" t="n">
-        <v>6500</v>
-      </c>
       <c r="M343" t="n">
-        <v>6286</v>
+        <v>5750</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="Q343" t="n">
         <v>18</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K344" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L344" t="n">
         <v>5000</v>
       </c>
-      <c r="L344" t="n">
-        <v>5500</v>
-      </c>
       <c r="M344" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q344" t="n">
         <v>18</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K345" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L345" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M345" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q345" t="n">
         <v>18</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K346" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L346" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M346" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q346" t="n">
         <v>18</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="K347" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L347" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M347" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q347" t="n">
         <v>18</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K348" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L348" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M348" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="Q348" t="n">
         <v>18</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K349" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L349" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M349" t="n">
-        <v>3750</v>
+        <v>6286</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="Q349" t="n">
         <v>18</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K350" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L350" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M350" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q350" t="n">
         <v>18</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44414</v>
+        <v>44253</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K351" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L351" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M351" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q351" t="n">
         <v>18</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44414</v>
+        <v>44253</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K352" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L352" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M352" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q352" t="n">
         <v>18</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44414</v>
+        <v>44253</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K353" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L353" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M353" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q353" t="n">
         <v>18</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K354" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L354" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M354" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q354" t="n">
         <v>18</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K355" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L355" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M355" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q355" t="n">
         <v>18</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K356" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L356" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M356" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q356" t="n">
         <v>18</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L357" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M357" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q357" t="n">
         <v>18</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26136,13 +26136,13 @@
         <v>300</v>
       </c>
       <c r="K358" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L358" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M358" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q358" t="n">
         <v>18</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,25 +26196,25 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K359" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L359" t="n">
         <v>5000</v>
       </c>
-      <c r="L359" t="n">
-        <v>5500</v>
-      </c>
       <c r="M359" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q359" t="n">
         <v>18</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K360" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L360" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M360" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q360" t="n">
         <v>18</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K361" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L361" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M361" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q361" t="n">
         <v>18</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26412,25 +26412,25 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K362" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L362" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M362" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="Q362" t="n">
         <v>18</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26484,25 +26484,25 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K363" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L363" t="n">
         <v>5500</v>
       </c>
-      <c r="L363" t="n">
-        <v>6000</v>
-      </c>
       <c r="M363" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q363" t="n">
         <v>18</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26556,12 +26556,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J364" t="n">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P364" t="n">
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K365" t="n">
         <v>5000</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="K366" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L366" t="n">
         <v>4500</v>
       </c>
-      <c r="L366" t="n">
-        <v>5000</v>
-      </c>
       <c r="M366" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q366" t="n">
         <v>18</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="K367" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L367" t="n">
         <v>3500</v>
       </c>
-      <c r="L367" t="n">
-        <v>4000</v>
-      </c>
       <c r="M367" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="Q367" t="n">
         <v>18</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K368" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M368" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K369" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M369" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K370" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L370" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M370" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K371" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L371" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M371" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K372" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L372" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M372" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K373" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L373" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M373" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44351</v>
+        <v>44417</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K374" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L374" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M374" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44351</v>
+        <v>44417</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K375" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L375" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M375" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44351</v>
+        <v>44417</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="K376" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L376" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M376" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K377" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L377" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M377" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K378" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L378" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M378" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K379" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L379" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M379" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K380" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L380" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M380" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K381" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L381" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M381" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q381" t="n">
         <v>18</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K382" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L382" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M382" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44342</v>
+        <v>44351</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K383" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L383" t="n">
         <v>5500</v>
       </c>
-      <c r="L383" t="n">
-        <v>6000</v>
-      </c>
       <c r="M383" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q383" t="n">
         <v>18</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44342</v>
+        <v>44351</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,7 +28005,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>270</v>
+        <v>700</v>
       </c>
       <c r="K384" t="n">
         <v>4500</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44342</v>
+        <v>44351</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K385" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L385" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M385" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28149,7 +28149,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K386" t="n">
         <v>5500</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K387" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L387" t="n">
         <v>5000</v>
       </c>
-      <c r="L387" t="n">
-        <v>5500</v>
-      </c>
       <c r="M387" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28296,13 +28296,13 @@
         <v>300</v>
       </c>
       <c r="K388" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L388" t="n">
         <v>4500</v>
       </c>
-      <c r="L388" t="n">
-        <v>5000</v>
-      </c>
       <c r="M388" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K389" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L389" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M389" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K390" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L390" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M390" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K391" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L391" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M391" t="n">
-        <v>5125</v>
+        <v>3750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K392" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L392" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M392" t="n">
-        <v>4786</v>
+        <v>5750</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K393" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L393" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M393" t="n">
-        <v>4227</v>
+        <v>5250</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K394" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L394" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M394" t="n">
-        <v>3722</v>
+        <v>4750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K395" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L395" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M395" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="K396" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L396" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M396" t="n">
-        <v>5722</v>
+        <v>6250</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K397" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L397" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M397" t="n">
-        <v>4750</v>
+        <v>5125</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K398" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="L398" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M398" t="n">
-        <v>5900</v>
+        <v>4786</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K399" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L399" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M399" t="n">
-        <v>5250</v>
+        <v>4227</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K400" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L400" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M400" t="n">
-        <v>4750</v>
+        <v>3722</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44411</v>
+        <v>44302</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K401" t="n">
-        <v>3300</v>
+        <v>6000</v>
       </c>
       <c r="L401" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M401" t="n">
-        <v>3400</v>
+        <v>6250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44411</v>
+        <v>44302</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K402" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L402" t="n">
-        <v>3300</v>
+        <v>6000</v>
       </c>
       <c r="M402" t="n">
-        <v>3150</v>
+        <v>5722</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44449</v>
+        <v>44302</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J403" t="n">
         <v>250</v>
       </c>
       <c r="K403" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L403" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M403" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44449</v>
+        <v>44302</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29436,25 +29436,25 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J404" t="n">
         <v>300</v>
       </c>
       <c r="K404" t="n">
-        <v>3500</v>
+        <v>5800</v>
       </c>
       <c r="L404" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M404" t="n">
-        <v>3750</v>
+        <v>5900</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44449</v>
+        <v>44302</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29508,25 +29508,25 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K405" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L405" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M405" t="n">
-        <v>3000</v>
+        <v>5250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44449</v>
+        <v>44302</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29580,25 +29580,25 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K406" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L406" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M406" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44449</v>
+        <v>44411</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K407" t="n">
+        <v>3300</v>
+      </c>
+      <c r="L407" t="n">
         <v>3500</v>
       </c>
-      <c r="L407" t="n">
-        <v>4000</v>
-      </c>
       <c r="M407" t="n">
-        <v>3750</v>
+        <v>3400</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44449</v>
+        <v>44411</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K408" t="n">
         <v>3000</v>
       </c>
       <c r="L408" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M408" t="n">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29796,25 +29796,25 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K409" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L409" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M409" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29873,7 +29873,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J410" t="n">
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K411" t="n">
         <v>3000</v>
       </c>
       <c r="L411" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M411" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K412" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L412" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M412" t="n">
-        <v>2750</v>
+        <v>3500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30096,13 +30096,13 @@
         <v>300</v>
       </c>
       <c r="K413" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L413" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M413" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K414" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L414" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M414" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K415" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L415" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M415" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K416" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L416" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M416" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K417" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L417" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M417" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K418" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L418" t="n">
         <v>3000</v>
       </c>
-      <c r="L418" t="n">
-        <v>3500</v>
-      </c>
       <c r="M418" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30528,13 +30528,13 @@
         <v>300</v>
       </c>
       <c r="K419" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L419" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M419" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K420" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L420" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M420" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="K421" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L421" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M421" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K422" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L422" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M422" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K423" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L423" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M423" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K424" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L424" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M424" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K425" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L425" t="n">
         <v>4500</v>
       </c>
       <c r="M425" t="n">
-        <v>3977</v>
+        <v>4250</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="K426" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L426" t="n">
         <v>4000</v>
       </c>
       <c r="M426" t="n">
-        <v>3468</v>
+        <v>3750</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="K427" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L427" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M427" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,25 +31164,25 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="K428" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L428" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M428" t="n">
-        <v>3147</v>
+        <v>3750</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>820</v>
+        <v>350</v>
       </c>
       <c r="K429" t="n">
         <v>3000</v>
       </c>
       <c r="L429" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M429" t="n">
-        <v>3659</v>
+        <v>3250</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>1150</v>
+        <v>450</v>
       </c>
       <c r="K430" t="n">
         <v>2500</v>
       </c>
       <c r="L430" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M430" t="n">
-        <v>3033</v>
+        <v>2750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31380,25 +31380,25 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>1220</v>
+        <v>550</v>
       </c>
       <c r="K431" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L431" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M431" t="n">
-        <v>2525</v>
+        <v>3977</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>200</v>
+        <v>465</v>
       </c>
       <c r="K432" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L432" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M432" t="n">
-        <v>6250</v>
+        <v>3468</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>347</v>
+        <v>193</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="K433" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L433" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M433" t="n">
-        <v>5808</v>
+        <v>2500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="K434" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L434" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M434" t="n">
-        <v>4750</v>
+        <v>3147</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>300</v>
+        <v>820</v>
       </c>
       <c r="K435" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L435" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M435" t="n">
-        <v>5250</v>
+        <v>3659</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>450</v>
+        <v>1150</v>
       </c>
       <c r="K436" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L436" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M436" t="n">
-        <v>4750</v>
+        <v>3033</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>500</v>
+        <v>1220</v>
       </c>
       <c r="K437" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L437" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M437" t="n">
-        <v>4250</v>
+        <v>2525</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K438" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L438" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M438" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="K439" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L439" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>4250</v>
+        <v>5808</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K440" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L440" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M440" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44223</v>
+        <v>44319</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K441" t="n">
         <v>5000</v>
       </c>
       <c r="L441" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M441" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44223</v>
+        <v>44319</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32181,7 +32181,7 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K442" t="n">
         <v>4500</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44223</v>
+        <v>44319</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32253,7 +32253,7 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K443" t="n">
         <v>4000</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44448</v>
+        <v>44175</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K444" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L444" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M444" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44448</v>
+        <v>44175</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K445" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L445" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M445" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44448</v>
+        <v>44175</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K446" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L446" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M446" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32541,17 +32541,17 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K447" t="n">
         <v>5000</v>
       </c>
       <c r="L447" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M447" t="n">
         <v>5500</v>
       </c>
-      <c r="M447" t="n">
-        <v>5250</v>
-      </c>
       <c r="N447" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32613,7 +32613,7 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K448" t="n">
         <v>4500</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32685,7 +32685,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K449" t="n">
         <v>4000</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K450" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L450" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M450" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K451" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L451" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M451" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K452" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="L452" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M452" t="n">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K453" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L453" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M453" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K454" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L454" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M454" t="n">
-        <v>3714</v>
+        <v>4750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,58 +33093,490 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E455" t="n">
+        <v>15</v>
+      </c>
+      <c r="F455" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>300</v>
+      </c>
+      <c r="K455" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L455" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M455" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P455" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>18</v>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>1</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E455" t="n">
-        <v>15</v>
-      </c>
-      <c r="F455" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
+      <c r="E456" t="n">
+        <v>15</v>
+      </c>
+      <c r="F456" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>300</v>
+      </c>
+      <c r="K456" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L456" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M456" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P456" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>18</v>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E457" t="n">
+        <v>15</v>
+      </c>
+      <c r="F457" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>400</v>
+      </c>
+      <c r="K457" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L457" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M457" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P457" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>18</v>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D458" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E458" t="n">
+        <v>15</v>
+      </c>
+      <c r="F458" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J458" t="n">
+        <v>450</v>
+      </c>
+      <c r="K458" t="n">
+        <v>500</v>
+      </c>
+      <c r="L458" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M458" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P458" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>18</v>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E459" t="n">
+        <v>15</v>
+      </c>
+      <c r="F459" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I455" t="inlineStr">
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>250</v>
+      </c>
+      <c r="K459" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L459" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M459" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P459" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>18</v>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>1</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E460" t="n">
+        <v>15</v>
+      </c>
+      <c r="F460" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>350</v>
+      </c>
+      <c r="K460" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L460" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M460" t="n">
+        <v>3714</v>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P460" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>18</v>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>1</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E461" t="n">
+        <v>15</v>
+      </c>
+      <c r="F461" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J455" t="n">
+      <c r="J461" t="n">
         <v>450</v>
       </c>
-      <c r="K455" t="n">
+      <c r="K461" t="n">
         <v>3000</v>
       </c>
-      <c r="L455" t="n">
+      <c r="L461" t="n">
         <v>3500</v>
       </c>
-      <c r="M455" t="n">
+      <c r="M461" t="n">
         <v>3250</v>
       </c>
-      <c r="N455" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O455" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P455" t="n">
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P461" t="n">
         <v>181</v>
       </c>
-      <c r="Q455" t="n">
-        <v>18</v>
-      </c>
-      <c r="R455" t="inlineStr">
+      <c r="Q461" t="n">
+        <v>18</v>
+      </c>
+      <c r="R461" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R467"/>
+  <dimension ref="A1:R470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21744,13 +21744,13 @@
         <v>250</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>2700</v>
       </c>
       <c r="L297" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M297" t="n">
-        <v>6250</v>
+        <v>2850</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="Q297" t="n">
         <v>18</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21816,13 +21816,13 @@
         <v>300</v>
       </c>
       <c r="K298" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L298" t="n">
-        <v>6000</v>
+        <v>2700</v>
       </c>
       <c r="M298" t="n">
-        <v>5750</v>
+        <v>2600</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="Q298" t="n">
         <v>18</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21888,13 +21888,13 @@
         <v>300</v>
       </c>
       <c r="K299" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L299" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M299" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q299" t="n">
         <v>18</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K300" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M300" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q300" t="n">
         <v>18</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K301" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L301" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M301" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q301" t="n">
         <v>18</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L302" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M302" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q302" t="n">
         <v>18</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,7 +22173,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K303" t="n">
         <v>5000</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="K304" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L304" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M304" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q304" t="n">
         <v>18</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K305" t="n">
         <v>4000</v>
       </c>
       <c r="L305" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M305" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q305" t="n">
         <v>18</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K306" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L306" t="n">
         <v>5500</v>
       </c>
-      <c r="L306" t="n">
-        <v>6000</v>
-      </c>
       <c r="M306" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q306" t="n">
         <v>18</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K307" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L307" t="n">
         <v>5000</v>
       </c>
-      <c r="L307" t="n">
-        <v>5500</v>
-      </c>
       <c r="M307" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q307" t="n">
         <v>18</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>740</v>
+        <v>500</v>
       </c>
       <c r="K308" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L308" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M308" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="Q308" t="n">
         <v>18</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="K309" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L309" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M309" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q309" t="n">
         <v>18</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K310" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L310" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M310" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q310" t="n">
         <v>18</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>300</v>
+        <v>740</v>
       </c>
       <c r="K311" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L311" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M311" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q311" t="n">
         <v>18</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K312" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L312" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M312" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q312" t="n">
         <v>18</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K313" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L313" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M313" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q313" t="n">
         <v>18</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K314" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L314" t="n">
         <v>3500</v>
       </c>
-      <c r="L314" t="n">
-        <v>4000</v>
-      </c>
       <c r="M314" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="Q314" t="n">
         <v>18</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K315" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L315" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M315" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q315" t="n">
         <v>18</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K316" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L316" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M316" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q316" t="n">
         <v>18</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>330</v>
+        <v>540</v>
       </c>
       <c r="K317" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L317" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M317" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q317" t="n">
         <v>18</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K318" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L318" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M318" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="Q318" t="n">
         <v>18</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K319" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L319" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M319" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q319" t="n">
         <v>18</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K320" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L320" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M320" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q320" t="n">
         <v>18</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="K321" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L321" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M321" t="n">
-        <v>3948</v>
+        <v>3900</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q321" t="n">
         <v>18</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>385</v>
+        <v>550</v>
       </c>
       <c r="K322" t="n">
         <v>3000</v>
       </c>
       <c r="L322" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M322" t="n">
-        <v>3487</v>
+        <v>3250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="Q322" t="n">
         <v>18</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K323" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L323" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M323" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q323" t="n">
         <v>18</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K324" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L324" t="n">
         <v>4500</v>
       </c>
-      <c r="L324" t="n">
-        <v>5000</v>
-      </c>
       <c r="M324" t="n">
-        <v>4750</v>
+        <v>3948</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="Q324" t="n">
         <v>18</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="K325" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L325" t="n">
         <v>4000</v>
       </c>
       <c r="M325" t="n">
-        <v>3750</v>
+        <v>3487</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q325" t="n">
         <v>18</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44447</v>
+        <v>44265</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K326" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L326" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M326" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q326" t="n">
         <v>18</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44447</v>
+        <v>44265</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K327" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M327" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q327" t="n">
         <v>18</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44447</v>
+        <v>44265</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K328" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L328" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M328" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q328" t="n">
         <v>18</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K329" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L329" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M329" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q329" t="n">
         <v>18</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K330" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L330" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M330" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q330" t="n">
         <v>18</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K331" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L331" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M331" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q331" t="n">
         <v>18</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K332" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L332" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M332" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q332" t="n">
         <v>18</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K333" t="n">
         <v>5500</v>
       </c>
       <c r="L333" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M333" t="n">
-        <v>5778</v>
+        <v>6250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="Q333" t="n">
         <v>18</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K334" t="n">
         <v>4500</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K335" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L335" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M335" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q335" t="n">
         <v>18</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="K336" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L336" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M336" t="n">
-        <v>4750</v>
+        <v>5778</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="Q336" t="n">
         <v>18</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K337" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L337" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M337" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q337" t="n">
         <v>18</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K338" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L338" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M338" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q338" t="n">
         <v>18</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K339" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L339" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M339" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>361</v>
+        <v>264</v>
       </c>
       <c r="Q339" t="n">
         <v>18</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K340" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L340" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M340" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q340" t="n">
         <v>18</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K341" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M341" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="Q341" t="n">
         <v>18</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K342" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M342" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q342" t="n">
         <v>18</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K343" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M343" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q343" t="n">
         <v>18</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K344" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L344" t="n">
         <v>7000</v>
       </c>
-      <c r="L344" t="n">
-        <v>7500</v>
-      </c>
       <c r="M344" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="Q344" t="n">
         <v>18</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K345" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L345" t="n">
         <v>6000</v>
       </c>
-      <c r="L345" t="n">
-        <v>6500</v>
-      </c>
       <c r="M345" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q345" t="n">
         <v>18</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K346" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L346" t="n">
         <v>5000</v>
       </c>
-      <c r="L346" t="n">
-        <v>5500</v>
-      </c>
       <c r="M346" t="n">
-        <v>5250</v>
+        <v>4500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="Q346" t="n">
         <v>18</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K347" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L347" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M347" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q347" t="n">
         <v>18</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25416,13 +25416,13 @@
         <v>450</v>
       </c>
       <c r="K348" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L348" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M348" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q348" t="n">
         <v>18</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K349" t="n">
         <v>5000</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,7 +25557,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K350" t="n">
         <v>6500</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K351" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L351" t="n">
         <v>6000</v>
       </c>
-      <c r="L351" t="n">
-        <v>6500</v>
-      </c>
       <c r="M351" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q351" t="n">
         <v>18</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K353" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L353" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M353" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q353" t="n">
         <v>18</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K354" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L354" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M354" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q354" t="n">
         <v>18</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25920,13 +25920,13 @@
         <v>500</v>
       </c>
       <c r="K355" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L355" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M355" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q355" t="n">
         <v>18</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K356" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L356" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M356" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q356" t="n">
         <v>18</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K357" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L357" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M357" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="Q357" t="n">
         <v>18</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K358" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L358" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M358" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q358" t="n">
         <v>18</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K359" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L359" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M359" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q359" t="n">
         <v>18</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K360" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L360" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M360" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q360" t="n">
         <v>18</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K361" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L361" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M361" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q361" t="n">
         <v>18</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K362" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L362" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M362" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q362" t="n">
         <v>18</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K363" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L363" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M363" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q363" t="n">
         <v>18</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26568,13 +26568,13 @@
         <v>300</v>
       </c>
       <c r="K364" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L364" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M364" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q364" t="n">
         <v>18</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K365" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L365" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M365" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q365" t="n">
         <v>18</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K366" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L366" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M366" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q366" t="n">
         <v>18</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,13 +26784,13 @@
         <v>300</v>
       </c>
       <c r="K367" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L367" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M367" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="Q367" t="n">
         <v>18</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K368" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L368" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M368" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>960</v>
+        <v>250</v>
       </c>
       <c r="K369" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L369" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M369" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="K370" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L370" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M370" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>1050</v>
+        <v>270</v>
       </c>
       <c r="K371" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="L371" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M371" t="n">
-        <v>2450</v>
+        <v>5500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>450</v>
+        <v>960</v>
       </c>
       <c r="K372" t="n">
         <v>5000</v>
@@ -27150,7 +27150,7 @@
         <v>5500</v>
       </c>
       <c r="M372" t="n">
-        <v>5333</v>
+        <v>5250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27213,7 +27213,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>250</v>
+        <v>1050</v>
       </c>
       <c r="K373" t="n">
         <v>4500</v>
@@ -27222,7 +27222,7 @@
         <v>5000</v>
       </c>
       <c r="M373" t="n">
-        <v>4700</v>
+        <v>4750</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="K374" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="L374" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M374" t="n">
-        <v>3750</v>
+        <v>2450</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K375" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L375" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M375" t="n">
-        <v>6750</v>
+        <v>5333</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K376" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L376" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M376" t="n">
-        <v>5750</v>
+        <v>4700</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K377" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L377" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M377" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27576,13 +27576,13 @@
         <v>250</v>
       </c>
       <c r="K378" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L378" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M378" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,13 +27648,13 @@
         <v>300</v>
       </c>
       <c r="K379" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L379" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M379" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K380" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L380" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M380" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K381" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L381" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M381" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q381" t="n">
         <v>18</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="K382" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L382" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M382" t="n">
-        <v>3778</v>
+        <v>4750</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K383" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L383" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M383" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q383" t="n">
         <v>18</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K384" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L384" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M384" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K385" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L385" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M385" t="n">
-        <v>5500</v>
+        <v>3778</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K386" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L386" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M386" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K387" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
         <v>7000</v>
       </c>
       <c r="M387" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K388" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L388" t="n">
         <v>6000</v>
       </c>
       <c r="M388" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K389" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L389" t="n">
         <v>5000</v>
       </c>
       <c r="M389" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K390" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L390" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M390" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K391" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L391" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M391" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K392" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L392" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M392" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28656,13 +28656,13 @@
         <v>300</v>
       </c>
       <c r="K393" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L393" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M393" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K394" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L394" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M394" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K395" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L395" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M395" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K396" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L396" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M396" t="n">
-        <v>6900</v>
+        <v>3250</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>383</v>
+        <v>181</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K397" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L397" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M397" t="n">
-        <v>6000</v>
+        <v>2750</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>333</v>
+        <v>153</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29004,25 +29004,25 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K398" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L398" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M398" t="n">
-        <v>5500</v>
+        <v>2250</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K399" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L399" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M399" t="n">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K400" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L400" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M400" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="K401" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L401" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M401" t="n">
-        <v>3737</v>
+        <v>5500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="K402" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L402" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M402" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29364,25 +29364,25 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="K403" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L403" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M403" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K404" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L404" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M404" t="n">
-        <v>5750</v>
+        <v>3737</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="K405" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L405" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M405" t="n">
-        <v>4487</v>
+        <v>3250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29580,25 +29580,25 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K406" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L406" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M406" t="n">
-        <v>6750</v>
+        <v>2800</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>375</v>
+        <v>156</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K407" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L407" t="n">
         <v>6000</v>
       </c>
-      <c r="L407" t="n">
-        <v>6500</v>
-      </c>
       <c r="M407" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29724,25 +29724,25 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="K408" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L408" t="n">
         <v>5000</v>
       </c>
-      <c r="L408" t="n">
-        <v>5500</v>
-      </c>
       <c r="M408" t="n">
-        <v>5250</v>
+        <v>4487</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K409" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L409" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M409" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K410" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L410" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M410" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>760</v>
+        <v>450</v>
       </c>
       <c r="K411" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L411" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M411" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K412" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L412" t="n">
         <v>5500</v>
       </c>
       <c r="M412" t="n">
-        <v>4781</v>
+        <v>5250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K413" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L413" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M413" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>200</v>
+        <v>760</v>
       </c>
       <c r="K414" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L414" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M414" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K415" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L415" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M415" t="n">
-        <v>4750</v>
+        <v>4781</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K416" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L416" t="n">
         <v>4500</v>
       </c>
       <c r="M416" t="n">
-        <v>4250</v>
+        <v>4000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K417" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L417" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M417" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K418" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L418" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M418" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K419" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L419" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M419" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K420" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L420" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M420" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K421" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L421" t="n">
         <v>4500</v>
       </c>
-      <c r="L421" t="n">
-        <v>5000</v>
-      </c>
       <c r="M421" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,7 +30741,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K422" t="n">
         <v>3500</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K423" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M423" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="K424" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L424" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M424" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K425" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L425" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M425" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31032,13 +31032,13 @@
         <v>250</v>
       </c>
       <c r="K426" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L426" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M426" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K427" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L427" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M427" t="n">
-        <v>3750</v>
+        <v>6273</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K428" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L428" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M428" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K429" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="L429" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M429" t="n">
-        <v>3400</v>
+        <v>4250</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K430" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L430" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M430" t="n">
-        <v>3150</v>
+        <v>3750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31335,11 +31335,11 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K431" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L431" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M431" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K432" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="L432" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M432" t="n">
-        <v>4750</v>
+        <v>3400</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K433" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L433" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="M433" t="n">
-        <v>4250</v>
+        <v>3150</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K434" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L434" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M434" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K435" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L435" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M435" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K436" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L436" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M436" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K437" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L437" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M437" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K438" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L438" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M438" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K439" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L439" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M439" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K440" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L440" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M440" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K441" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L441" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M441" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K442" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L442" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M442" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K443" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L443" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M443" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K444" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L444" t="n">
         <v>5000</v>
       </c>
-      <c r="L444" t="n">
-        <v>6000</v>
-      </c>
       <c r="M444" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K445" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L445" t="n">
         <v>4000</v>
       </c>
-      <c r="L445" t="n">
-        <v>5000</v>
-      </c>
       <c r="M445" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K446" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L446" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M446" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K447" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L447" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M447" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,17 +32613,17 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K448" t="n">
         <v>4000</v>
       </c>
       <c r="L448" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M448" t="n">
         <v>4500</v>
       </c>
-      <c r="M448" t="n">
-        <v>4250</v>
-      </c>
       <c r="N448" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K449" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L449" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M449" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K450" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L450" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M450" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K451" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L451" t="n">
         <v>4500</v>
       </c>
-      <c r="L451" t="n">
-        <v>5000</v>
-      </c>
       <c r="M451" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,17 +32973,17 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K453" t="n">
         <v>5500</v>
       </c>
       <c r="L453" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M453" t="n">
         <v>6000</v>
       </c>
-      <c r="M453" t="n">
-        <v>5750</v>
-      </c>
       <c r="N453" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K455" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L455" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K456" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L456" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K457" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L457" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M457" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K458" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L458" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M458" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J459" t="n">
         <v>400</v>
       </c>
       <c r="K459" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L459" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M459" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K460" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L460" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M460" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="K461" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L461" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M461" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K462" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L462" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M462" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K463" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L463" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M463" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="K464" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L464" t="n">
         <v>5000</v>
       </c>
-      <c r="L464" t="n">
-        <v>5500</v>
-      </c>
       <c r="M464" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K465" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L465" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M465" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K466" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L466" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M466" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33972,43 +33972,259 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>250</v>
+      </c>
+      <c r="K467" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L467" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M467" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P467" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>18</v>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E468" t="n">
+        <v>15</v>
+      </c>
+      <c r="F468" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I467" t="inlineStr">
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J468" t="n">
+        <v>270</v>
+      </c>
+      <c r="K468" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L468" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M468" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P468" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>18</v>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D469" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E469" t="n">
+        <v>15</v>
+      </c>
+      <c r="F469" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>300</v>
+      </c>
+      <c r="K469" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L469" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M469" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P469" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>18</v>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D470" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E470" t="n">
+        <v>15</v>
+      </c>
+      <c r="F470" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J467" t="n">
+      <c r="J470" t="n">
         <v>340</v>
       </c>
-      <c r="K467" t="n">
+      <c r="K470" t="n">
         <v>6000</v>
       </c>
-      <c r="L467" t="n">
+      <c r="L470" t="n">
         <v>6500</v>
       </c>
-      <c r="M467" t="n">
+      <c r="M470" t="n">
         <v>6250</v>
       </c>
-      <c r="N467" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O467" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P467" t="n">
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P470" t="n">
         <v>347</v>
       </c>
-      <c r="Q467" t="n">
-        <v>18</v>
-      </c>
-      <c r="R467" t="inlineStr">
+      <c r="Q470" t="n">
+        <v>18</v>
+      </c>
+      <c r="R470" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R473"/>
+  <dimension ref="A1:R479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23472,13 +23472,13 @@
         <v>250</v>
       </c>
       <c r="K321" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L321" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M321" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q321" t="n">
         <v>18</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23544,13 +23544,13 @@
         <v>300</v>
       </c>
       <c r="K322" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L322" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M322" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q322" t="n">
         <v>18</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K323" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L323" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M323" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q323" t="n">
         <v>18</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="K324" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L324" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M324" t="n">
-        <v>3900</v>
+        <v>2650</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="Q324" t="n">
         <v>18</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K325" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L325" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M325" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="Q325" t="n">
         <v>18</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K326" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L326" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M326" t="n">
-        <v>2750</v>
+        <v>1900</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="Q326" t="n">
         <v>18</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="K327" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L327" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M327" t="n">
-        <v>3948</v>
+        <v>6250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="Q327" t="n">
         <v>18</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="K328" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L328" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M328" t="n">
-        <v>3487</v>
+        <v>5750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q328" t="n">
         <v>18</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24036,25 +24036,25 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K329" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L329" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M329" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q329" t="n">
         <v>18</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K330" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="L330" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M330" t="n">
-        <v>4750</v>
+        <v>3900</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="Q330" t="n">
         <v>18</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K331" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L331" t="n">
         <v>3500</v>
       </c>
-      <c r="L331" t="n">
-        <v>4000</v>
-      </c>
       <c r="M331" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="Q331" t="n">
         <v>18</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44447</v>
+        <v>44389</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K332" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L332" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M332" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q332" t="n">
         <v>18</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44447</v>
+        <v>44249</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="K333" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L333" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M333" t="n">
-        <v>3250</v>
+        <v>3948</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="Q333" t="n">
         <v>18</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44447</v>
+        <v>44249</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K334" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L334" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M334" t="n">
-        <v>2750</v>
+        <v>3487</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q334" t="n">
         <v>18</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44270</v>
+        <v>44265</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24480,13 +24480,13 @@
         <v>250</v>
       </c>
       <c r="K335" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L335" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M335" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q335" t="n">
         <v>18</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44270</v>
+        <v>44265</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,13 +24552,13 @@
         <v>300</v>
       </c>
       <c r="K336" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L336" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M336" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q336" t="n">
         <v>18</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44270</v>
+        <v>44265</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K337" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L337" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M337" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q337" t="n">
         <v>18</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K338" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L338" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M338" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q338" t="n">
         <v>18</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="K339" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L339" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M339" t="n">
-        <v>5778</v>
+        <v>3250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>321</v>
+        <v>181</v>
       </c>
       <c r="Q339" t="n">
         <v>18</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K340" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L340" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M340" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q340" t="n">
         <v>18</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="K341" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L341" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M341" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="Q341" t="n">
         <v>18</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K342" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L342" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M342" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q342" t="n">
         <v>18</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K343" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L343" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M343" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q343" t="n">
         <v>18</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K344" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L344" t="n">
         <v>7000</v>
       </c>
-      <c r="L344" t="n">
-        <v>8000</v>
-      </c>
       <c r="M344" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q344" t="n">
         <v>18</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K345" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L345" t="n">
         <v>6000</v>
       </c>
-      <c r="L345" t="n">
-        <v>7000</v>
-      </c>
       <c r="M345" t="n">
-        <v>6500</v>
+        <v>5778</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="Q345" t="n">
         <v>18</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K346" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L346" t="n">
         <v>5000</v>
       </c>
-      <c r="L346" t="n">
-        <v>6000</v>
-      </c>
       <c r="M346" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q346" t="n">
         <v>18</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K347" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L347" t="n">
         <v>6000</v>
       </c>
-      <c r="L347" t="n">
-        <v>7000</v>
-      </c>
       <c r="M347" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q347" t="n">
         <v>18</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K348" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L348" t="n">
         <v>5000</v>
       </c>
-      <c r="L348" t="n">
-        <v>6000</v>
-      </c>
       <c r="M348" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q348" t="n">
         <v>18</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="K349" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L349" t="n">
         <v>4000</v>
       </c>
-      <c r="L349" t="n">
-        <v>5000</v>
-      </c>
       <c r="M349" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q349" t="n">
         <v>18</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25557,17 +25557,17 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K350" t="n">
         <v>7000</v>
       </c>
       <c r="L350" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M350" t="n">
         <v>7500</v>
       </c>
-      <c r="M350" t="n">
-        <v>7250</v>
-      </c>
       <c r="N350" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q350" t="n">
         <v>18</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25629,17 +25629,17 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K351" t="n">
         <v>6000</v>
       </c>
       <c r="L351" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M351" t="n">
         <v>6500</v>
       </c>
-      <c r="M351" t="n">
-        <v>6250</v>
-      </c>
       <c r="N351" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q351" t="n">
         <v>18</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25701,17 +25701,17 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K352" t="n">
         <v>5000</v>
       </c>
       <c r="L352" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M352" t="n">
         <v>5500</v>
       </c>
-      <c r="M352" t="n">
-        <v>5250</v>
-      </c>
       <c r="N352" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="Q352" t="n">
         <v>18</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25776,13 +25776,13 @@
         <v>400</v>
       </c>
       <c r="K353" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L353" t="n">
         <v>7000</v>
       </c>
       <c r="M353" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q353" t="n">
         <v>18</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K354" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L354" t="n">
         <v>6000</v>
       </c>
       <c r="M354" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q354" t="n">
         <v>18</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K355" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L355" t="n">
         <v>5000</v>
       </c>
-      <c r="L355" t="n">
-        <v>5500</v>
-      </c>
       <c r="M355" t="n">
-        <v>5250</v>
+        <v>4500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="Q355" t="n">
         <v>18</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25992,13 +25992,13 @@
         <v>300</v>
       </c>
       <c r="K356" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L356" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M356" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q356" t="n">
         <v>18</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,7 +26061,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K357" t="n">
         <v>6000</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26133,7 +26133,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K358" t="n">
         <v>5000</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K359" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L359" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M359" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q359" t="n">
         <v>18</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K360" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L360" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M360" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q360" t="n">
         <v>18</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26352,13 +26352,13 @@
         <v>500</v>
       </c>
       <c r="K361" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L361" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M361" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q361" t="n">
         <v>18</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K362" t="n">
         <v>6500</v>
@@ -26439,7 +26439,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P362" t="n">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26496,13 +26496,13 @@
         <v>400</v>
       </c>
       <c r="K363" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L363" t="n">
         <v>6500</v>
       </c>
-      <c r="L363" t="n">
-        <v>7000</v>
-      </c>
       <c r="M363" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q363" t="n">
         <v>18</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26556,16 +26556,16 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K364" t="n">
         <v>5000</v>
@@ -26583,7 +26583,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P364" t="n">
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K365" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L365" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M365" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q365" t="n">
         <v>18</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K366" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L366" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M366" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q366" t="n">
         <v>18</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K367" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L367" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M367" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q367" t="n">
         <v>18</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K368" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L368" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M368" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44433</v>
+        <v>44264</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K369" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L369" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M369" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K370" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L370" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M370" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J371" t="n">
         <v>300</v>
       </c>
       <c r="K371" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L371" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M371" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,13 +27144,13 @@
         <v>250</v>
       </c>
       <c r="K372" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L372" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M372" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27216,13 +27216,13 @@
         <v>300</v>
       </c>
       <c r="K373" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L373" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M373" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K374" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L374" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M374" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>960</v>
+        <v>270</v>
       </c>
       <c r="K375" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L375" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M375" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="K376" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L376" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M376" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="K377" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="L377" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M377" t="n">
-        <v>2450</v>
+        <v>2750</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K378" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L378" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M378" t="n">
-        <v>5333</v>
+        <v>7500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K379" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L379" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M379" t="n">
-        <v>4700</v>
+        <v>6500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K380" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L380" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M380" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>250</v>
+        <v>960</v>
       </c>
       <c r="K381" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L381" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M381" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q381" t="n">
         <v>18</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="K382" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L382" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M382" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="K383" t="n">
+        <v>400</v>
+      </c>
+      <c r="L383" t="n">
         <v>4500</v>
       </c>
-      <c r="L383" t="n">
-        <v>5000</v>
-      </c>
       <c r="M383" t="n">
-        <v>4750</v>
+        <v>2450</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="Q383" t="n">
         <v>18</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K384" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L384" t="n">
         <v>5500</v>
       </c>
-      <c r="L384" t="n">
-        <v>6000</v>
-      </c>
       <c r="M384" t="n">
-        <v>5750</v>
+        <v>5333</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K385" t="n">
         <v>4500</v>
@@ -28086,7 +28086,7 @@
         <v>5000</v>
       </c>
       <c r="M385" t="n">
-        <v>4750</v>
+        <v>4700</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K386" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L386" t="n">
         <v>4000</v>
       </c>
-      <c r="L386" t="n">
-        <v>4500</v>
-      </c>
       <c r="M386" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K387" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L387" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M387" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="K388" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L388" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M388" t="n">
-        <v>3778</v>
+        <v>5750</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28368,13 +28368,13 @@
         <v>300</v>
       </c>
       <c r="K389" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L389" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M389" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K390" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L390" t="n">
         <v>6000</v>
       </c>
-      <c r="L390" t="n">
-        <v>7000</v>
-      </c>
       <c r="M390" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K391" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L391" t="n">
         <v>5000</v>
       </c>
-      <c r="L391" t="n">
-        <v>6000</v>
-      </c>
       <c r="M391" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K392" t="n">
         <v>4000</v>
       </c>
       <c r="L392" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M392" t="n">
-        <v>4500</v>
+        <v>4250</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28656,13 +28656,13 @@
         <v>200</v>
       </c>
       <c r="K393" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L393" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M393" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K394" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L394" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M394" t="n">
-        <v>5750</v>
+        <v>3778</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K395" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L395" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M395" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K396" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L396" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M396" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K397" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L397" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M397" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K398" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L398" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M398" t="n">
-        <v>2750</v>
+        <v>4500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K399" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L399" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M399" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K400" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L400" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M400" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K401" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L401" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M401" t="n">
-        <v>2250</v>
+        <v>4750</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K402" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L402" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M402" t="n">
-        <v>6900</v>
+        <v>3750</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K403" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L403" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M403" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K404" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L404" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M404" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29508,25 +29508,25 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K405" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L405" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M405" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29580,25 +29580,25 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K406" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L406" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M406" t="n">
-        <v>4500</v>
+        <v>2750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="K407" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L407" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M407" t="n">
-        <v>3737</v>
+        <v>2250</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29724,25 +29724,25 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K408" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L408" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M408" t="n">
-        <v>3250</v>
+        <v>6900</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29796,25 +29796,25 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="K409" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L409" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M409" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K410" t="n">
         <v>5500</v>
       </c>
       <c r="L410" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M410" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29940,25 +29940,25 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>570</v>
+        <v>150</v>
       </c>
       <c r="K411" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L411" t="n">
         <v>5000</v>
       </c>
       <c r="M411" t="n">
-        <v>4487</v>
+        <v>5000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30017,33 +30017,33 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J412" t="n">
+        <v>180</v>
+      </c>
+      <c r="K412" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L412" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M412" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P412" t="n">
         <v>250</v>
-      </c>
-      <c r="K412" t="n">
-        <v>6500</v>
-      </c>
-      <c r="L412" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M412" t="n">
-        <v>6750</v>
-      </c>
-      <c r="N412" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O412" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P412" t="n">
-        <v>375</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30084,25 +30084,25 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>360</v>
+        <v>950</v>
       </c>
       <c r="K413" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L413" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M413" t="n">
-        <v>6250</v>
+        <v>3737</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30156,25 +30156,25 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="K414" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L414" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M414" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K415" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L415" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M415" t="n">
-        <v>5250</v>
+        <v>2800</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K416" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L416" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M416" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>760</v>
+        <v>570</v>
       </c>
       <c r="K417" t="n">
         <v>4000</v>
       </c>
       <c r="L417" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M417" t="n">
-        <v>4250</v>
+        <v>4487</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K418" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L418" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M418" t="n">
-        <v>4781</v>
+        <v>6750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>266</v>
+        <v>375</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K419" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L419" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M419" t="n">
-        <v>4000</v>
+        <v>6250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30588,16 +30588,16 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K420" t="n">
         <v>5000</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K421" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L421" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M421" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K422" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L422" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M422" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44175</v>
+        <v>44351</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K423" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L423" t="n">
         <v>4500</v>
       </c>
-      <c r="L423" t="n">
-        <v>5000</v>
-      </c>
       <c r="M423" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30881,7 +30881,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J424" t="n">
@@ -30891,10 +30891,10 @@
         <v>4000</v>
       </c>
       <c r="L424" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M424" t="n">
-        <v>4250</v>
+        <v>4781</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30953,21 +30953,21 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K425" t="n">
         <v>3500</v>
       </c>
       <c r="L425" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M425" t="n">
         <v>4000</v>
       </c>
-      <c r="M425" t="n">
-        <v>3750</v>
-      </c>
       <c r="N425" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44162</v>
+        <v>44215</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="K426" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L426" t="n">
         <v>5500</v>
       </c>
-      <c r="L426" t="n">
-        <v>6000</v>
-      </c>
       <c r="M426" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44162</v>
+        <v>44215</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,7 +31101,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K427" t="n">
         <v>4500</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44162</v>
+        <v>44215</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="K428" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L428" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M428" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44410</v>
+        <v>44175</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K429" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L429" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M429" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44410</v>
+        <v>44175</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="K430" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L430" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M430" t="n">
-        <v>6273</v>
+        <v>4250</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>348</v>
+        <v>236</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44410</v>
+        <v>44175</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K431" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L431" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M431" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K432" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L432" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M432" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K433" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L433" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M433" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="K434" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L434" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M434" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31668,25 +31668,25 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K435" t="n">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="L435" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M435" t="n">
-        <v>3400</v>
+        <v>6750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>189</v>
+        <v>375</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31740,25 +31740,25 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="K436" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L436" t="n">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="M436" t="n">
-        <v>3150</v>
+        <v>6273</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31812,25 +31812,25 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J437" t="n">
         <v>300</v>
       </c>
       <c r="K437" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L437" t="n">
         <v>5500</v>
       </c>
-      <c r="L437" t="n">
-        <v>6000</v>
-      </c>
       <c r="M437" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K438" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L438" t="n">
         <v>4500</v>
       </c>
-      <c r="L438" t="n">
-        <v>5000</v>
-      </c>
       <c r="M438" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J439" t="n">
         <v>300</v>
       </c>
       <c r="K439" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L439" t="n">
         <v>4000</v>
       </c>
-      <c r="L439" t="n">
-        <v>4500</v>
-      </c>
       <c r="M439" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="K440" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L440" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M440" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K441" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="L441" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M441" t="n">
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K442" t="n">
         <v>3000</v>
       </c>
       <c r="L442" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M442" t="n">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32256,13 +32256,13 @@
         <v>300</v>
       </c>
       <c r="K443" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L443" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M443" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32328,13 +32328,13 @@
         <v>350</v>
       </c>
       <c r="K444" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L444" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M444" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32400,13 +32400,13 @@
         <v>300</v>
       </c>
       <c r="K445" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L445" t="n">
         <v>4500</v>
       </c>
-      <c r="L445" t="n">
-        <v>5000</v>
-      </c>
       <c r="M445" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32469,7 +32469,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K446" t="n">
         <v>5000</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="K447" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L447" t="n">
         <v>4500</v>
       </c>
-      <c r="L447" t="n">
-        <v>5000</v>
-      </c>
       <c r="M447" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="K448" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L448" t="n">
         <v>3500</v>
       </c>
-      <c r="L448" t="n">
-        <v>4000</v>
-      </c>
       <c r="M448" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K449" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L449" t="n">
         <v>7000</v>
       </c>
       <c r="M449" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K450" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L450" t="n">
         <v>6000</v>
       </c>
       <c r="M450" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32832,13 +32832,13 @@
         <v>300</v>
       </c>
       <c r="K451" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L451" t="n">
         <v>5000</v>
       </c>
       <c r="M451" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K452" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L452" t="n">
         <v>5500</v>
       </c>
-      <c r="L452" t="n">
-        <v>6000</v>
-      </c>
       <c r="M452" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32973,7 +32973,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K453" t="n">
         <v>4500</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>540</v>
+        <v>760</v>
       </c>
       <c r="K454" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L454" t="n">
         <v>4000</v>
       </c>
-      <c r="L454" t="n">
-        <v>4500</v>
-      </c>
       <c r="M454" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K455" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L455" t="n">
         <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33192,14 +33192,14 @@
         <v>300</v>
       </c>
       <c r="K456" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L456" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M456" t="n">
         <v>5500</v>
       </c>
-      <c r="L456" t="n">
-        <v>6500</v>
-      </c>
-      <c r="M456" t="n">
-        <v>6000</v>
-      </c>
       <c r="N456" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33264,13 +33264,13 @@
         <v>300</v>
       </c>
       <c r="K457" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L457" t="n">
         <v>5000</v>
       </c>
       <c r="M457" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K458" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L458" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M458" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K459" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L459" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M459" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K460" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L460" t="n">
         <v>4500</v>
       </c>
-      <c r="L460" t="n">
-        <v>5000</v>
-      </c>
       <c r="M460" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K461" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L461" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M461" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K462" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L462" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M462" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K463" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L463" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M463" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J464" t="n">
         <v>250</v>
       </c>
       <c r="K464" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L464" t="n">
         <v>7000</v>
       </c>
-      <c r="L464" t="n">
-        <v>8000</v>
-      </c>
       <c r="M464" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33828,16 +33828,16 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K465" t="n">
         <v>5500</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33900,25 +33900,25 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K466" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L466" t="n">
         <v>5000</v>
       </c>
-      <c r="L466" t="n">
-        <v>5500</v>
-      </c>
       <c r="M466" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33977,11 +33977,11 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K467" t="n">
         <v>4500</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34044,25 +34044,25 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K468" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L468" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M468" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34116,25 +34116,25 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K469" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L469" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M469" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34200,13 +34200,13 @@
         <v>250</v>
       </c>
       <c r="K470" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L470" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M470" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K471" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L471" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M471" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K472" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L472" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M472" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,58 +34389,490 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E473" t="n">
+        <v>15</v>
+      </c>
+      <c r="F473" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J473" t="n">
+        <v>540</v>
+      </c>
+      <c r="K473" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L473" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M473" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P473" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>18</v>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D474" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E473" t="n">
-        <v>15</v>
-      </c>
-      <c r="F473" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H473" t="inlineStr">
+      <c r="E474" t="n">
+        <v>15</v>
+      </c>
+      <c r="F474" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J474" t="n">
+        <v>200</v>
+      </c>
+      <c r="K474" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L474" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M474" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P474" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>18</v>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D475" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E475" t="n">
+        <v>15</v>
+      </c>
+      <c r="F475" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>250</v>
+      </c>
+      <c r="K475" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L475" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M475" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P475" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>18</v>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D476" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E476" t="n">
+        <v>15</v>
+      </c>
+      <c r="F476" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>250</v>
+      </c>
+      <c r="K476" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L476" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M476" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P476" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>18</v>
+      </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D477" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E477" t="n">
+        <v>15</v>
+      </c>
+      <c r="F477" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I473" t="inlineStr">
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>270</v>
+      </c>
+      <c r="K477" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L477" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M477" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P477" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>18</v>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>1</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D478" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E478" t="n">
+        <v>15</v>
+      </c>
+      <c r="F478" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>300</v>
+      </c>
+      <c r="K478" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L478" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M478" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P478" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>18</v>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D479" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E479" t="n">
+        <v>15</v>
+      </c>
+      <c r="F479" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J473" t="n">
+      <c r="J479" t="n">
         <v>340</v>
       </c>
-      <c r="K473" t="n">
+      <c r="K479" t="n">
         <v>6000</v>
       </c>
-      <c r="L473" t="n">
+      <c r="L479" t="n">
         <v>6500</v>
       </c>
-      <c r="M473" t="n">
+      <c r="M479" t="n">
         <v>6250</v>
       </c>
-      <c r="N473" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O473" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P473" t="n">
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P479" t="n">
         <v>347</v>
       </c>
-      <c r="Q473" t="n">
-        <v>18</v>
-      </c>
-      <c r="R473" t="inlineStr">
+      <c r="Q479" t="n">
+        <v>18</v>
+      </c>
+      <c r="R479" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R479"/>
+  <dimension ref="A1:R482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K356" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="L356" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M356" t="n">
-        <v>7250</v>
+        <v>2900</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>403</v>
+        <v>161</v>
       </c>
       <c r="Q356" t="n">
         <v>18</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K357" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L357" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="M357" t="n">
-        <v>6250</v>
+        <v>2650</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="Q357" t="n">
         <v>18</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="K358" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L358" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M358" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q358" t="n">
         <v>18</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K359" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L359" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M359" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q359" t="n">
         <v>18</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26280,13 +26280,13 @@
         <v>450</v>
       </c>
       <c r="K360" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L360" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M360" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q360" t="n">
         <v>18</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K361" t="n">
         <v>5000</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K362" t="n">
         <v>6500</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K363" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L363" t="n">
         <v>6000</v>
       </c>
-      <c r="L363" t="n">
-        <v>6500</v>
-      </c>
       <c r="M363" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q363" t="n">
         <v>18</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K365" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L365" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M365" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q365" t="n">
         <v>18</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K366" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L366" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M366" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q366" t="n">
         <v>18</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,13 +26784,13 @@
         <v>500</v>
       </c>
       <c r="K367" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L367" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M367" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q367" t="n">
         <v>18</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K368" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L368" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M368" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K369" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L369" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M369" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K370" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L370" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M370" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K371" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L371" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M371" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K372" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L372" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M372" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K373" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L373" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M373" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K374" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L374" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M374" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K375" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L375" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M375" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27432,13 +27432,13 @@
         <v>300</v>
       </c>
       <c r="K376" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L376" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M376" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K377" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L377" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M377" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K378" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L378" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M378" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,13 +27648,13 @@
         <v>300</v>
       </c>
       <c r="K379" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L379" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M379" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K380" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L380" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M380" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>960</v>
+        <v>250</v>
       </c>
       <c r="K381" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L381" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M381" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q381" t="n">
         <v>18</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="K382" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L382" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M382" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>1050</v>
+        <v>270</v>
       </c>
       <c r="K383" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="L383" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M383" t="n">
-        <v>2450</v>
+        <v>5500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="Q383" t="n">
         <v>18</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28005,7 +28005,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>450</v>
+        <v>960</v>
       </c>
       <c r="K384" t="n">
         <v>5000</v>
@@ -28014,7 +28014,7 @@
         <v>5500</v>
       </c>
       <c r="M384" t="n">
-        <v>5333</v>
+        <v>5250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>250</v>
+        <v>1050</v>
       </c>
       <c r="K385" t="n">
         <v>4500</v>
@@ -28086,7 +28086,7 @@
         <v>5000</v>
       </c>
       <c r="M385" t="n">
-        <v>4700</v>
+        <v>4750</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="K386" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="L386" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M386" t="n">
-        <v>3750</v>
+        <v>2450</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K387" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L387" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M387" t="n">
-        <v>6750</v>
+        <v>5333</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K388" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M388" t="n">
-        <v>5750</v>
+        <v>4700</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K389" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L389" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M389" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28440,13 +28440,13 @@
         <v>250</v>
       </c>
       <c r="K390" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L390" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M390" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28512,13 +28512,13 @@
         <v>300</v>
       </c>
       <c r="K391" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M391" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K392" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L392" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M392" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K393" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L393" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M393" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="K394" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L394" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M394" t="n">
-        <v>3778</v>
+        <v>4750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K395" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L395" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M395" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K396" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L396" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M396" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K397" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L397" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M397" t="n">
-        <v>5500</v>
+        <v>3778</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K398" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L398" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M398" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K399" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L399" t="n">
         <v>7000</v>
       </c>
       <c r="M399" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K400" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L400" t="n">
         <v>6000</v>
       </c>
       <c r="M400" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K401" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L401" t="n">
         <v>5000</v>
       </c>
       <c r="M401" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K402" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L402" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M402" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K403" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L403" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M403" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K404" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L404" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M404" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,13 +29520,13 @@
         <v>300</v>
       </c>
       <c r="K405" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L405" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M405" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K406" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L406" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M406" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K407" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L407" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M407" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K408" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L408" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M408" t="n">
-        <v>6900</v>
+        <v>3250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>383</v>
+        <v>181</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K409" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L409" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M409" t="n">
-        <v>6000</v>
+        <v>2750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>333</v>
+        <v>153</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K410" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L410" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M410" t="n">
-        <v>5500</v>
+        <v>2250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K411" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L411" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M411" t="n">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K412" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L412" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M412" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30084,25 +30084,25 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="K413" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L413" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M413" t="n">
-        <v>3737</v>
+        <v>5500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30156,25 +30156,25 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="K414" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L414" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M414" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30228,25 +30228,25 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="K415" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L415" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M415" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K416" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L416" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M416" t="n">
-        <v>5750</v>
+        <v>3737</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="K417" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L417" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M417" t="n">
-        <v>4487</v>
+        <v>3250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K418" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L418" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M418" t="n">
-        <v>6750</v>
+        <v>2800</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>375</v>
+        <v>156</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,25 +30516,25 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K419" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L419" t="n">
         <v>6000</v>
       </c>
-      <c r="L419" t="n">
-        <v>6500</v>
-      </c>
       <c r="M419" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="K420" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L420" t="n">
         <v>5000</v>
       </c>
-      <c r="L420" t="n">
-        <v>5500</v>
-      </c>
       <c r="M420" t="n">
-        <v>5250</v>
+        <v>4487</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K421" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L421" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M421" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K422" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L422" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M422" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>760</v>
+        <v>450</v>
       </c>
       <c r="K423" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L423" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M423" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K424" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L424" t="n">
         <v>5500</v>
       </c>
       <c r="M424" t="n">
-        <v>4781</v>
+        <v>5250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K425" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L425" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M425" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>200</v>
+        <v>760</v>
       </c>
       <c r="K426" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L426" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M426" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K427" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L427" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M427" t="n">
-        <v>4750</v>
+        <v>4781</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K428" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L428" t="n">
         <v>4500</v>
       </c>
       <c r="M428" t="n">
-        <v>4250</v>
+        <v>4000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K429" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L429" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M429" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K430" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L430" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M430" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K431" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L431" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M431" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K432" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L432" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M432" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K433" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L433" t="n">
         <v>4500</v>
       </c>
-      <c r="L433" t="n">
-        <v>5000</v>
-      </c>
       <c r="M433" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,7 +31605,7 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K434" t="n">
         <v>3500</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K435" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L435" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M435" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="K436" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L436" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M436" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K437" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L437" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M437" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31896,13 +31896,13 @@
         <v>250</v>
       </c>
       <c r="K438" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L438" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M438" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K439" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L439" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M439" t="n">
-        <v>3750</v>
+        <v>6273</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K440" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L440" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M440" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K441" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="L441" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M441" t="n">
-        <v>3400</v>
+        <v>4250</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K442" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L442" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M442" t="n">
-        <v>3150</v>
+        <v>3750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K443" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L443" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M443" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K444" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="L444" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M444" t="n">
-        <v>4750</v>
+        <v>3400</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K445" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L445" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="M445" t="n">
-        <v>4250</v>
+        <v>3150</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K446" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L446" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M446" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K447" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L447" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M447" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K448" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L448" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M448" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K449" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L449" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M449" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K450" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L450" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M450" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K451" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L451" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M451" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K452" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L452" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M452" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K453" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L453" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M453" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K454" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L454" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M454" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K455" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L455" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M455" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K456" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L456" t="n">
         <v>5000</v>
       </c>
-      <c r="L456" t="n">
-        <v>6000</v>
-      </c>
       <c r="M456" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K457" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L457" t="n">
         <v>4000</v>
       </c>
-      <c r="L457" t="n">
-        <v>5000</v>
-      </c>
       <c r="M457" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K458" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M458" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K459" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L459" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M459" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,17 +33477,17 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K460" t="n">
         <v>4000</v>
       </c>
       <c r="L460" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M460" t="n">
         <v>4500</v>
       </c>
-      <c r="M460" t="n">
-        <v>4250</v>
-      </c>
       <c r="N460" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K461" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M461" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K462" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L462" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M462" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K463" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L463" t="n">
         <v>4500</v>
       </c>
-      <c r="L463" t="n">
-        <v>5000</v>
-      </c>
       <c r="M463" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,17 +33837,17 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K465" t="n">
         <v>5500</v>
       </c>
       <c r="L465" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M465" t="n">
         <v>6000</v>
       </c>
-      <c r="M465" t="n">
-        <v>5750</v>
-      </c>
       <c r="N465" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K467" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L467" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M467" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K468" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L468" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M468" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K469" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L469" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M469" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34188,25 +34188,25 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K470" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L470" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M470" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J471" t="n">
         <v>400</v>
       </c>
       <c r="K471" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L471" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M471" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K472" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L472" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M472" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="K473" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L473" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M473" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K474" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L474" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M474" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K475" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L475" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M475" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="K476" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L476" t="n">
         <v>5000</v>
       </c>
-      <c r="L476" t="n">
-        <v>5500</v>
-      </c>
       <c r="M476" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K477" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L477" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M477" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K478" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L478" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M478" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34836,43 +34836,259 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J479" t="n">
+        <v>250</v>
+      </c>
+      <c r="K479" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L479" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M479" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P479" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>18</v>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>1</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E480" t="n">
+        <v>15</v>
+      </c>
+      <c r="F480" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I479" t="inlineStr">
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J480" t="n">
+        <v>270</v>
+      </c>
+      <c r="K480" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L480" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M480" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P480" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>18</v>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E481" t="n">
+        <v>15</v>
+      </c>
+      <c r="F481" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J481" t="n">
+        <v>300</v>
+      </c>
+      <c r="K481" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L481" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M481" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P481" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>18</v>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E482" t="n">
+        <v>15</v>
+      </c>
+      <c r="F482" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J479" t="n">
+      <c r="J482" t="n">
         <v>340</v>
       </c>
-      <c r="K479" t="n">
+      <c r="K482" t="n">
         <v>6000</v>
       </c>
-      <c r="L479" t="n">
+      <c r="L482" t="n">
         <v>6500</v>
       </c>
-      <c r="M479" t="n">
+      <c r="M482" t="n">
         <v>6250</v>
       </c>
-      <c r="N479" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O479" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P479" t="n">
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P482" t="n">
         <v>347</v>
       </c>
-      <c r="Q479" t="n">
-        <v>18</v>
-      </c>
-      <c r="R479" t="inlineStr">
+      <c r="Q482" t="n">
+        <v>18</v>
+      </c>
+      <c r="R482" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R488"/>
+  <dimension ref="A1:R491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K411" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L411" t="n">
         <v>3500</v>
       </c>
-      <c r="L411" t="n">
-        <v>4000</v>
-      </c>
       <c r="M411" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K412" t="n">
         <v>3000</v>
       </c>
       <c r="L412" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M412" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K413" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L413" t="n">
         <v>2500</v>
       </c>
-      <c r="L413" t="n">
-        <v>3000</v>
-      </c>
       <c r="M413" t="n">
-        <v>2750</v>
+        <v>2325</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30168,13 +30168,13 @@
         <v>300</v>
       </c>
       <c r="K414" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L414" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M414" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K415" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L415" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M415" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K416" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L416" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M416" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K417" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L417" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M417" t="n">
-        <v>6900</v>
+        <v>3250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>383</v>
+        <v>181</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K418" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L418" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M418" t="n">
-        <v>6000</v>
+        <v>2750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>333</v>
+        <v>153</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,25 +30516,25 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K419" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L419" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M419" t="n">
-        <v>5500</v>
+        <v>2250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K420" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L420" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M420" t="n">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K421" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L421" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M421" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30732,25 +30732,25 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="K422" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L422" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M422" t="n">
-        <v>3737</v>
+        <v>5500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30804,25 +30804,25 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="K423" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L423" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M423" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30876,25 +30876,25 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="K424" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L424" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M424" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K425" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L425" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M425" t="n">
-        <v>5750</v>
+        <v>3737</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="K426" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L426" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M426" t="n">
-        <v>4487</v>
+        <v>3250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31092,25 +31092,25 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K427" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L427" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M427" t="n">
-        <v>6750</v>
+        <v>2800</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>375</v>
+        <v>156</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,25 +31164,25 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K428" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L428" t="n">
         <v>6000</v>
       </c>
-      <c r="L428" t="n">
-        <v>6500</v>
-      </c>
       <c r="M428" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31236,25 +31236,25 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="K429" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L429" t="n">
         <v>5000</v>
       </c>
-      <c r="L429" t="n">
-        <v>5500</v>
-      </c>
       <c r="M429" t="n">
-        <v>5250</v>
+        <v>4487</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K430" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L430" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M430" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K431" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L431" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M431" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>760</v>
+        <v>450</v>
       </c>
       <c r="K432" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L432" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M432" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K433" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L433" t="n">
         <v>5500</v>
       </c>
       <c r="M433" t="n">
-        <v>4781</v>
+        <v>5250</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K434" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L434" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M434" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>200</v>
+        <v>760</v>
       </c>
       <c r="K435" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L435" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M435" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K436" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L436" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M436" t="n">
-        <v>4750</v>
+        <v>4781</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K437" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L437" t="n">
         <v>4500</v>
       </c>
       <c r="M437" t="n">
-        <v>4250</v>
+        <v>4000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K438" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L438" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M438" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K439" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L439" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M439" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K440" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L440" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M440" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K441" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L441" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M441" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K442" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L442" t="n">
         <v>4500</v>
       </c>
-      <c r="L442" t="n">
-        <v>5000</v>
-      </c>
       <c r="M442" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,7 +32253,7 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K443" t="n">
         <v>3500</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K444" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L444" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M444" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="K445" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L445" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M445" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K446" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L446" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M446" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32544,13 +32544,13 @@
         <v>250</v>
       </c>
       <c r="K447" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L447" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M447" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K448" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L448" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M448" t="n">
-        <v>3750</v>
+        <v>6273</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K449" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L449" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M449" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K450" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="L450" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M450" t="n">
-        <v>3400</v>
+        <v>4250</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K451" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L451" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M451" t="n">
-        <v>3150</v>
+        <v>3750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K452" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L452" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M452" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K453" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="L453" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M453" t="n">
-        <v>4750</v>
+        <v>3400</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K454" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L454" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="M454" t="n">
-        <v>4250</v>
+        <v>3150</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K455" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L455" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M455" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K456" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L456" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M456" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K457" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L457" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M457" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K458" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L458" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M458" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K459" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L459" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M459" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K460" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L460" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M460" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K461" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L461" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M461" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K462" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L462" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M462" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K463" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L463" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M463" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K464" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L464" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M464" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K465" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L465" t="n">
         <v>5000</v>
       </c>
-      <c r="L465" t="n">
-        <v>6000</v>
-      </c>
       <c r="M465" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K466" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L466" t="n">
         <v>4000</v>
       </c>
-      <c r="L466" t="n">
-        <v>5000</v>
-      </c>
       <c r="M466" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K467" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L467" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M467" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K468" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L468" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M468" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,17 +34125,17 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K469" t="n">
         <v>4000</v>
       </c>
       <c r="L469" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M469" t="n">
         <v>4500</v>
       </c>
-      <c r="M469" t="n">
-        <v>4250</v>
-      </c>
       <c r="N469" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K470" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L470" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M470" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K471" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L471" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M471" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K472" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L472" t="n">
         <v>4500</v>
       </c>
-      <c r="L472" t="n">
-        <v>5000</v>
-      </c>
       <c r="M472" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,17 +34485,17 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K474" t="n">
         <v>5500</v>
       </c>
       <c r="L474" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M474" t="n">
         <v>6000</v>
       </c>
-      <c r="M474" t="n">
-        <v>5750</v>
-      </c>
       <c r="N474" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K476" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L476" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M476" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K477" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L477" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M477" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K478" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L478" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M478" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34836,25 +34836,25 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K479" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M479" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J480" t="n">
         <v>400</v>
       </c>
       <c r="K480" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M480" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K481" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L481" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M481" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="K482" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L482" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M482" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K483" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L483" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M483" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E484" t="n">
         <v>15</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K484" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L484" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M484" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="K485" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L485" t="n">
         <v>5000</v>
       </c>
-      <c r="L485" t="n">
-        <v>5500</v>
-      </c>
       <c r="M485" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K486" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L486" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M486" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K487" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L487" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M487" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35484,43 +35484,259 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>250</v>
+      </c>
+      <c r="K488" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L488" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M488" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P488" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>18</v>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>1</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E489" t="n">
+        <v>15</v>
+      </c>
+      <c r="F489" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I488" t="inlineStr">
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>270</v>
+      </c>
+      <c r="K489" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L489" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M489" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P489" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>18</v>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E490" t="n">
+        <v>15</v>
+      </c>
+      <c r="F490" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>300</v>
+      </c>
+      <c r="K490" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L490" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M490" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P490" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>18</v>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>1</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E491" t="n">
+        <v>15</v>
+      </c>
+      <c r="F491" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J488" t="n">
+      <c r="J491" t="n">
         <v>340</v>
       </c>
-      <c r="K488" t="n">
+      <c r="K491" t="n">
         <v>6000</v>
       </c>
-      <c r="L488" t="n">
+      <c r="L491" t="n">
         <v>6500</v>
       </c>
-      <c r="M488" t="n">
+      <c r="M491" t="n">
         <v>6250</v>
       </c>
-      <c r="N488" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O488" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P488" t="n">
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P491" t="n">
         <v>347</v>
       </c>
-      <c r="Q488" t="n">
-        <v>18</v>
-      </c>
-      <c r="R488" t="inlineStr">
+      <c r="Q491" t="n">
+        <v>18</v>
+      </c>
+      <c r="R491" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R491"/>
+  <dimension ref="A1:R494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K412" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L412" t="n">
         <v>3000</v>
       </c>
       <c r="M412" t="n">
-        <v>2900</v>
+        <v>2750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K413" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L413" t="n">
         <v>2500</v>
       </c>
-      <c r="L413" t="n">
-        <v>2800</v>
-      </c>
       <c r="M413" t="n">
-        <v>2650</v>
+        <v>2250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K414" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L414" t="n">
         <v>2000</v>
       </c>
-      <c r="L414" t="n">
-        <v>2500</v>
-      </c>
       <c r="M414" t="n">
-        <v>2250</v>
+        <v>1900</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K415" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L415" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M415" t="n">
-        <v>6750</v>
+        <v>2900</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>375</v>
+        <v>161</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K416" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L416" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="M416" t="n">
-        <v>6250</v>
+        <v>2650</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K417" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L417" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M417" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K418" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L418" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M418" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K419" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L419" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M419" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30600,13 +30600,13 @@
         <v>500</v>
       </c>
       <c r="K420" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L420" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M420" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K421" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L421" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M421" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K422" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L422" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M422" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30816,13 +30816,13 @@
         <v>500</v>
       </c>
       <c r="K423" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L423" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M423" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30888,13 +30888,13 @@
         <v>400</v>
       </c>
       <c r="K424" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L424" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M424" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K425" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L425" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M425" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K426" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L426" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M426" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31101,7 +31101,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K427" t="n">
         <v>5000</v>
@@ -31119,7 +31119,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P427" t="n">
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K428" t="n">
         <v>4500</v>
       </c>
       <c r="L428" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M428" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44321</v>
+        <v>44172</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31236,25 +31236,25 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K429" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L429" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M429" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31308,25 +31308,25 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K430" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L430" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M430" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31335,11 +31335,11 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31380,25 +31380,25 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K431" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L431" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M431" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K432" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L432" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M432" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K433" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L433" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M433" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K434" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L434" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M434" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K435" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L435" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M435" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K436" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L436" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M436" t="n">
-        <v>4750</v>
+        <v>6273</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K437" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L437" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M437" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K438" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L438" t="n">
         <v>6000</v>
       </c>
-      <c r="L438" t="n">
-        <v>6500</v>
-      </c>
       <c r="M438" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="K439" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L439" t="n">
         <v>5000</v>
       </c>
-      <c r="L439" t="n">
-        <v>5500</v>
-      </c>
       <c r="M439" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>850</v>
+        <v>270</v>
       </c>
       <c r="K440" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L440" t="n">
         <v>4500</v>
       </c>
-      <c r="L440" t="n">
-        <v>5000</v>
-      </c>
       <c r="M440" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K441" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L441" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M441" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>225</v>
+        <v>760</v>
       </c>
       <c r="K442" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L442" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M442" t="n">
-        <v>3778</v>
+        <v>5250</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="K443" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L443" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M443" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K444" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L444" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M444" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K445" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L445" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M445" t="n">
-        <v>5750</v>
+        <v>3778</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32472,13 +32472,13 @@
         <v>300</v>
       </c>
       <c r="K446" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L446" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M446" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K447" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L447" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M447" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K448" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L448" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M448" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K449" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L449" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M449" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K450" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L450" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M450" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>470</v>
+        <v>650</v>
       </c>
       <c r="K451" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L451" t="n">
         <v>5500</v>
       </c>
-      <c r="L451" t="n">
-        <v>6000</v>
-      </c>
       <c r="M451" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="K452" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L452" t="n">
         <v>4500</v>
       </c>
-      <c r="L452" t="n">
-        <v>5000</v>
-      </c>
       <c r="M452" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,7 +32973,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K453" t="n">
         <v>6500</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="K454" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L454" t="n">
         <v>6000</v>
       </c>
-      <c r="L454" t="n">
-        <v>6500</v>
-      </c>
       <c r="M454" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K455" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L455" t="n">
         <v>5000</v>
       </c>
-      <c r="L455" t="n">
-        <v>5500</v>
-      </c>
       <c r="M455" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K456" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L456" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M456" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K457" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L457" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M457" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K458" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L458" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M458" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K459" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L459" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M459" t="n">
-        <v>2650</v>
+        <v>3750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33480,13 +33480,13 @@
         <v>300</v>
       </c>
       <c r="K460" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L460" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M460" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33552,13 +33552,13 @@
         <v>300</v>
       </c>
       <c r="K461" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L461" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M461" t="n">
-        <v>1900</v>
+        <v>2750</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K462" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L462" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="M462" t="n">
-        <v>7500</v>
+        <v>2650</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>417</v>
+        <v>147</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33696,13 +33696,13 @@
         <v>300</v>
       </c>
       <c r="K463" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L463" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M463" t="n">
-        <v>6250</v>
+        <v>2250</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K464" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="L464" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M464" t="n">
-        <v>4750</v>
+        <v>1900</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K465" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L465" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M465" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K466" t="n">
         <v>5500</v>
       </c>
       <c r="L466" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M466" t="n">
-        <v>5778</v>
+        <v>6250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,7 +33981,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K467" t="n">
         <v>4500</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K468" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L468" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M468" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K469" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L469" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M469" t="n">
-        <v>3250</v>
+        <v>5778</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K470" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L470" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M470" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34272,13 +34272,13 @@
         <v>300</v>
       </c>
       <c r="K471" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L471" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M471" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K472" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L472" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M472" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K473" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L473" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M473" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K474" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L474" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M474" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K475" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L475" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M475" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K476" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L476" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M476" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K477" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L477" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M477" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K478" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L478" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M478" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K479" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L479" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M479" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K480" t="n">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="L480" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M480" t="n">
-        <v>7250</v>
+        <v>3900</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>403</v>
+        <v>217</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K481" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L481" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M481" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35064,13 +35064,13 @@
         <v>450</v>
       </c>
       <c r="K482" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L482" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M482" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K483" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L483" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M483" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35208,13 +35208,13 @@
         <v>450</v>
       </c>
       <c r="K484" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L484" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M484" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,7 +35277,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K485" t="n">
         <v>5000</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,7 +35349,7 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K486" t="n">
         <v>6500</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,7 +35421,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="K487" t="n">
         <v>5500</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K488" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L488" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M488" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K489" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L489" t="n">
         <v>7000</v>
       </c>
-      <c r="L489" t="n">
-        <v>7500</v>
-      </c>
       <c r="M489" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K490" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L490" t="n">
         <v>6000</v>
       </c>
-      <c r="L490" t="n">
-        <v>6500</v>
-      </c>
       <c r="M490" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35700,43 +35700,259 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>450</v>
+      </c>
+      <c r="K491" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L491" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M491" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P491" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>18</v>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>1</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D492" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E492" t="n">
+        <v>15</v>
+      </c>
+      <c r="F492" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I491" t="inlineStr">
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>450</v>
+      </c>
+      <c r="K492" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L492" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M492" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P492" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>18</v>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>1</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D493" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E493" t="n">
+        <v>15</v>
+      </c>
+      <c r="F493" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>500</v>
+      </c>
+      <c r="K493" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L493" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M493" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P493" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>18</v>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>1</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D494" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E494" t="n">
+        <v>15</v>
+      </c>
+      <c r="F494" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J491" t="n">
+      <c r="J494" t="n">
         <v>550</v>
       </c>
-      <c r="K491" t="n">
+      <c r="K494" t="n">
         <v>5000</v>
       </c>
-      <c r="L491" t="n">
+      <c r="L494" t="n">
         <v>5500</v>
       </c>
-      <c r="M491" t="n">
+      <c r="M494" t="n">
         <v>5250</v>
       </c>
-      <c r="N491" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O491" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P491" t="n">
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P494" t="n">
         <v>292</v>
       </c>
-      <c r="Q491" t="n">
-        <v>18</v>
-      </c>
-      <c r="R491" t="inlineStr">
+      <c r="Q494" t="n">
+        <v>18</v>
+      </c>
+      <c r="R494" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R515"/>
+  <dimension ref="A1:R518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K369" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L369" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M369" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K370" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L370" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M370" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,13 +27072,13 @@
         <v>300</v>
       </c>
       <c r="K371" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L371" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M371" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K372" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L372" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M372" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K373" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L373" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M373" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K374" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L374" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M374" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27360,13 +27360,13 @@
         <v>300</v>
       </c>
       <c r="K375" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L375" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M375" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K376" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L376" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M376" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27504,13 +27504,13 @@
         <v>450</v>
       </c>
       <c r="K377" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L377" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M377" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K378" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L378" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M378" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K379" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L379" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M379" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K380" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L380" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M380" t="n">
-        <v>4000</v>
+        <v>5750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K381" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L381" t="n">
         <v>5500</v>
       </c>
-      <c r="L381" t="n">
-        <v>6000</v>
-      </c>
       <c r="M381" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q381" t="n">
         <v>18</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K382" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L382" t="n">
         <v>5000</v>
       </c>
-      <c r="L382" t="n">
-        <v>5500</v>
-      </c>
       <c r="M382" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>740</v>
+        <v>500</v>
       </c>
       <c r="K383" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L383" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M383" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="Q383" t="n">
         <v>18</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44474</v>
+        <v>44165</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="K384" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L384" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M384" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44474</v>
+        <v>44165</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K385" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L385" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M385" t="n">
-        <v>3000</v>
+        <v>5250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44474</v>
+        <v>44165</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="K386" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L386" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M386" t="n">
-        <v>2325</v>
+        <v>4750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K387" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L387" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M387" t="n">
-        <v>8750</v>
+        <v>3250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>486</v>
+        <v>181</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K388" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L388" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M388" t="n">
-        <v>7750</v>
+        <v>3000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>431</v>
+        <v>167</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28356,25 +28356,25 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K389" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L389" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="M389" t="n">
-        <v>6250</v>
+        <v>2325</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="K390" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L390" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M390" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K391" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L391" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K392" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L392" t="n">
         <v>6500</v>
       </c>
-      <c r="L392" t="n">
-        <v>7000</v>
-      </c>
       <c r="M392" t="n">
-        <v>6900</v>
+        <v>6250</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K393" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L393" t="n">
         <v>6000</v>
       </c>
       <c r="M393" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28716,25 +28716,25 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="K394" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L394" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M394" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28793,20 +28793,20 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K395" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L395" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M395" t="n">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28865,20 +28865,20 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K396" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L396" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M396" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28932,25 +28932,25 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="K397" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L397" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M397" t="n">
-        <v>3737</v>
+        <v>5500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -29004,25 +29004,25 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="K398" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L398" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M398" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29076,25 +29076,25 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="K399" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L399" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M399" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K400" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L400" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M400" t="n">
-        <v>5250</v>
+        <v>3737</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="K401" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L401" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M401" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K402" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L402" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M402" t="n">
-        <v>4250</v>
+        <v>2800</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29376,13 +29376,13 @@
         <v>250</v>
       </c>
       <c r="K403" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L403" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M403" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K404" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L404" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M404" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29520,13 +29520,13 @@
         <v>300</v>
       </c>
       <c r="K405" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L405" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M405" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K406" t="n">
         <v>3500</v>
       </c>
       <c r="L406" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="M406" t="n">
-        <v>3600</v>
+        <v>3750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K408" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L408" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M408" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K409" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L409" t="n">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="M409" t="n">
-        <v>3250</v>
+        <v>3600</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="K410" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L410" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M410" t="n">
-        <v>2769</v>
+        <v>3250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,7 +29949,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K411" t="n">
         <v>2000</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K412" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L412" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M412" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="K413" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L413" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M413" t="n">
-        <v>4250</v>
+        <v>2769</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K414" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L414" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M414" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K415" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L415" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M415" t="n">
-        <v>3977</v>
+        <v>4750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>465</v>
+        <v>250</v>
       </c>
       <c r="K416" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L416" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M416" t="n">
-        <v>3468</v>
+        <v>4250</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30372,25 +30372,25 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="K417" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L417" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M417" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="K418" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L418" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M418" t="n">
-        <v>3147</v>
+        <v>3977</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30516,16 +30516,16 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>820</v>
+        <v>465</v>
       </c>
       <c r="K419" t="n">
         <v>3000</v>
@@ -30534,7 +30534,7 @@
         <v>4000</v>
       </c>
       <c r="M419" t="n">
-        <v>3659</v>
+        <v>3468</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>1150</v>
+        <v>225</v>
       </c>
       <c r="K420" t="n">
         <v>2500</v>
       </c>
       <c r="L420" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M420" t="n">
-        <v>3033</v>
+        <v>2500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>1220</v>
+        <v>510</v>
       </c>
       <c r="K421" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L421" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M421" t="n">
-        <v>2525</v>
+        <v>3147</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>300</v>
+        <v>820</v>
       </c>
       <c r="K422" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L422" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M422" t="n">
-        <v>6750</v>
+        <v>3659</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>375</v>
+        <v>203</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="K423" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L423" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M423" t="n">
-        <v>5750</v>
+        <v>3033</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>440</v>
+        <v>1220</v>
       </c>
       <c r="K424" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L424" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M424" t="n">
-        <v>4750</v>
+        <v>2525</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K425" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L425" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M425" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K426" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L426" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M426" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="K427" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L427" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M427" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K428" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L428" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M428" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K429" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L429" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M429" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K430" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L430" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M430" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44334</v>
+        <v>44433</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K431" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L431" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M431" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44334</v>
+        <v>44433</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="K432" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L432" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M432" t="n">
-        <v>5727</v>
+        <v>3250</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31529,11 +31529,11 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K433" t="n">
         <v>2500</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K434" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L434" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="M434" t="n">
-        <v>2250</v>
+        <v>6250</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K435" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L435" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M435" t="n">
-        <v>1900</v>
+        <v>5727</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K436" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L436" t="n">
         <v>3000</v>
       </c>
       <c r="M436" t="n">
-        <v>2900</v>
+        <v>2750</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K437" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L437" t="n">
         <v>2500</v>
       </c>
-      <c r="L437" t="n">
-        <v>2800</v>
-      </c>
       <c r="M437" t="n">
-        <v>2650</v>
+        <v>2250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K438" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L438" t="n">
         <v>2000</v>
       </c>
-      <c r="L438" t="n">
-        <v>2500</v>
-      </c>
       <c r="M438" t="n">
-        <v>2250</v>
+        <v>1900</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K439" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L439" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M439" t="n">
-        <v>6750</v>
+        <v>2900</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>375</v>
+        <v>161</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K440" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L440" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="M440" t="n">
-        <v>6250</v>
+        <v>2650</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K441" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L441" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M441" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K442" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L442" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M442" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K443" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L443" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M443" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32328,13 +32328,13 @@
         <v>500</v>
       </c>
       <c r="K444" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L444" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M444" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K445" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L445" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M445" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K446" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L446" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M446" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32544,13 +32544,13 @@
         <v>500</v>
       </c>
       <c r="K447" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L447" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M447" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32616,13 +32616,13 @@
         <v>400</v>
       </c>
       <c r="K448" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L448" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M448" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K449" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L449" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M449" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K450" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L450" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M450" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32829,7 +32829,7 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K451" t="n">
         <v>5000</v>
@@ -32847,7 +32847,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P451" t="n">
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K452" t="n">
         <v>4500</v>
       </c>
       <c r="L452" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M452" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44321</v>
+        <v>44172</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32964,25 +32964,25 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K453" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L453" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M453" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33036,25 +33036,25 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K454" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L454" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M454" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33108,25 +33108,25 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K455" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L455" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M455" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K456" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L456" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M456" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K457" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L457" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M457" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K458" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L458" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M458" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K459" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L459" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M459" t="n">
-        <v>5500</v>
+        <v>7250</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K460" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L460" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M460" t="n">
-        <v>4750</v>
+        <v>6273</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K461" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L461" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M461" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K462" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L462" t="n">
         <v>6000</v>
       </c>
-      <c r="L462" t="n">
-        <v>6500</v>
-      </c>
       <c r="M462" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="K463" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L463" t="n">
         <v>5000</v>
       </c>
-      <c r="L463" t="n">
-        <v>5500</v>
-      </c>
       <c r="M463" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>850</v>
+        <v>270</v>
       </c>
       <c r="K464" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L464" t="n">
         <v>4500</v>
       </c>
-      <c r="L464" t="n">
-        <v>5000</v>
-      </c>
       <c r="M464" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K465" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L465" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M465" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>225</v>
+        <v>760</v>
       </c>
       <c r="K466" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L466" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M466" t="n">
-        <v>3778</v>
+        <v>5250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="K467" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L467" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M467" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K468" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L468" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M468" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K469" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L469" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M469" t="n">
-        <v>5750</v>
+        <v>3778</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34200,13 +34200,13 @@
         <v>300</v>
       </c>
       <c r="K470" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L470" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M470" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K471" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L471" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M471" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K472" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L472" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M472" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K473" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L473" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M473" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K474" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L474" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M474" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>470</v>
+        <v>650</v>
       </c>
       <c r="K475" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L475" t="n">
         <v>5500</v>
       </c>
-      <c r="L475" t="n">
-        <v>6000</v>
-      </c>
       <c r="M475" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="K476" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L476" t="n">
         <v>4500</v>
       </c>
-      <c r="L476" t="n">
-        <v>5000</v>
-      </c>
       <c r="M476" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,7 +34701,7 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K477" t="n">
         <v>6500</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="K478" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L478" t="n">
         <v>6000</v>
       </c>
-      <c r="L478" t="n">
-        <v>6500</v>
-      </c>
       <c r="M478" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K479" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L479" t="n">
         <v>5000</v>
       </c>
-      <c r="L479" t="n">
-        <v>5500</v>
-      </c>
       <c r="M479" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K480" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L480" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M480" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K481" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L481" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M481" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K482" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L482" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M482" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K483" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L483" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M483" t="n">
-        <v>2650</v>
+        <v>3750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35208,13 +35208,13 @@
         <v>300</v>
       </c>
       <c r="K484" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L484" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M484" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35280,13 +35280,13 @@
         <v>300</v>
       </c>
       <c r="K485" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L485" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M485" t="n">
-        <v>1900</v>
+        <v>2750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K486" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L486" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="M486" t="n">
-        <v>7500</v>
+        <v>2650</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>417</v>
+        <v>147</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35424,13 +35424,13 @@
         <v>300</v>
       </c>
       <c r="K487" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L487" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M487" t="n">
-        <v>6250</v>
+        <v>2250</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K488" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="L488" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M488" t="n">
-        <v>4750</v>
+        <v>1900</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K489" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M489" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K490" t="n">
         <v>5500</v>
       </c>
       <c r="L490" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M490" t="n">
-        <v>5778</v>
+        <v>6250</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,7 +35709,7 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K491" t="n">
         <v>4500</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L492" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M492" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E493" t="n">
         <v>15</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K493" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L493" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M493" t="n">
-        <v>3250</v>
+        <v>5778</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K494" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L494" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M494" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -36000,13 +36000,13 @@
         <v>300</v>
       </c>
       <c r="K495" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L495" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M495" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K496" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L496" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M496" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K497" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L497" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M497" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E498" t="n">
         <v>15</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K498" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L498" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M498" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E499" t="n">
         <v>15</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K499" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L499" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M499" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K500" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L500" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M500" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K501" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L501" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M501" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K502" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L502" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M502" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K503" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L503" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M503" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E504" t="n">
         <v>15</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K504" t="n">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="L504" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M504" t="n">
-        <v>7250</v>
+        <v>3900</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>403</v>
+        <v>217</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E505" t="n">
         <v>15</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K505" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L505" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M505" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E506" t="n">
         <v>15</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36792,13 +36792,13 @@
         <v>450</v>
       </c>
       <c r="K506" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L506" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M506" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K507" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L507" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M507" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36936,13 +36936,13 @@
         <v>450</v>
       </c>
       <c r="K508" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L508" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M508" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,7 +37005,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K509" t="n">
         <v>5000</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E510" t="n">
         <v>15</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,7 +37077,7 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K510" t="n">
         <v>6500</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E511" t="n">
         <v>15</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,7 +37149,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="K511" t="n">
         <v>5500</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K512" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L512" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M512" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K513" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L513" t="n">
         <v>7000</v>
       </c>
-      <c r="L513" t="n">
-        <v>7500</v>
-      </c>
       <c r="M513" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K514" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L514" t="n">
         <v>6000</v>
       </c>
-      <c r="L514" t="n">
-        <v>6500</v>
-      </c>
       <c r="M514" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37428,43 +37428,259 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>450</v>
+      </c>
+      <c r="K515" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L515" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M515" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P515" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>18</v>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E516" t="n">
+        <v>15</v>
+      </c>
+      <c r="F516" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I515" t="inlineStr">
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>450</v>
+      </c>
+      <c r="K516" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L516" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M516" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P516" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>18</v>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E517" t="n">
+        <v>15</v>
+      </c>
+      <c r="F517" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>500</v>
+      </c>
+      <c r="K517" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L517" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M517" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P517" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>18</v>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E518" t="n">
+        <v>15</v>
+      </c>
+      <c r="F518" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J515" t="n">
+      <c r="J518" t="n">
         <v>550</v>
       </c>
-      <c r="K515" t="n">
+      <c r="K518" t="n">
         <v>5000</v>
       </c>
-      <c r="L515" t="n">
+      <c r="L518" t="n">
         <v>5500</v>
       </c>
-      <c r="M515" t="n">
+      <c r="M518" t="n">
         <v>5250</v>
       </c>
-      <c r="N515" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O515" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P515" t="n">
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P518" t="n">
         <v>292</v>
       </c>
-      <c r="Q515" t="n">
-        <v>18</v>
-      </c>
-      <c r="R515" t="inlineStr">
+      <c r="Q518" t="n">
+        <v>18</v>
+      </c>
+      <c r="R518" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R518"/>
+  <dimension ref="A1:R524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K451" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L451" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M451" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K452" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L452" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M452" t="n">
-        <v>4500</v>
+        <v>2750</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="K453" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L453" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M453" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K454" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L454" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M454" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K455" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L455" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M455" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44321</v>
+        <v>44491</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33180,25 +33180,25 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K456" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L456" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M456" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44321</v>
+        <v>44172</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33252,25 +33252,25 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K457" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L457" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M457" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44321</v>
+        <v>44172</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J458" t="n">
         <v>250</v>
       </c>
       <c r="K458" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L458" t="n">
         <v>4500</v>
       </c>
       <c r="M458" t="n">
-        <v>4250</v>
+        <v>4500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44321</v>
+        <v>44172</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="K459" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L459" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M459" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>403</v>
+        <v>208</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="K460" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L460" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M460" t="n">
-        <v>6273</v>
+        <v>5250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J461" t="n">
         <v>300</v>
       </c>
       <c r="K461" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L461" t="n">
         <v>5000</v>
       </c>
-      <c r="L461" t="n">
-        <v>5500</v>
-      </c>
       <c r="M461" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33627,10 +33627,10 @@
         <v>5000</v>
       </c>
       <c r="L462" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M462" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,7 +33765,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K464" t="n">
         <v>4000</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K465" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L465" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M465" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>760</v>
+        <v>275</v>
       </c>
       <c r="K466" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L466" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M466" t="n">
-        <v>5250</v>
+        <v>6273</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="K467" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L467" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M467" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34056,13 +34056,13 @@
         <v>200</v>
       </c>
       <c r="K468" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L468" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M468" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K469" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L469" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M469" t="n">
-        <v>3778</v>
+        <v>4750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K470" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L470" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M470" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K471" t="n">
         <v>6000</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K472" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L472" t="n">
         <v>5500</v>
       </c>
-      <c r="L472" t="n">
-        <v>6000</v>
-      </c>
       <c r="M472" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,7 +34413,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="K473" t="n">
         <v>4500</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K474" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L474" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M474" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>650</v>
+        <v>225</v>
       </c>
       <c r="K475" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L475" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M475" t="n">
-        <v>5250</v>
+        <v>3778</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K476" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L476" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M476" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K477" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L477" t="n">
         <v>6500</v>
       </c>
-      <c r="L477" t="n">
-        <v>7000</v>
-      </c>
       <c r="M477" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E478" t="n">
         <v>15</v>
@@ -34773,7 +34773,7 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="K478" t="n">
         <v>5500</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34845,7 +34845,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="K479" t="n">
         <v>4500</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34920,13 +34920,13 @@
         <v>500</v>
       </c>
       <c r="K480" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L480" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M480" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K481" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L481" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M481" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K482" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L482" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M482" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K483" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L483" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M483" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E484" t="n">
         <v>15</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="K484" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L484" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M484" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="K485" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L485" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M485" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K486" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L486" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="M486" t="n">
-        <v>2650</v>
+        <v>6750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K487" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L487" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="M487" t="n">
-        <v>2250</v>
+        <v>6250</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K488" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L488" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M488" t="n">
-        <v>1900</v>
+        <v>5250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35568,13 +35568,13 @@
         <v>250</v>
       </c>
       <c r="K489" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L489" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M489" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35640,13 +35640,13 @@
         <v>300</v>
       </c>
       <c r="K490" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L490" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M490" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K491" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L491" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M491" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K492" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L492" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="M492" t="n">
-        <v>6750</v>
+        <v>2650</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E493" t="n">
         <v>15</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K493" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L493" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M493" t="n">
-        <v>5778</v>
+        <v>2250</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K494" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="L494" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M494" t="n">
-        <v>4750</v>
+        <v>1900</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K495" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L495" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M495" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K496" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L496" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M496" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E497" t="n">
         <v>15</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K497" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L497" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M497" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E498" t="n">
         <v>15</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K498" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L498" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M498" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E499" t="n">
         <v>15</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="K499" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L499" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M499" t="n">
-        <v>2750</v>
+        <v>5778</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K500" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L500" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M500" t="n">
-        <v>2250</v>
+        <v>4750</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K501" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L501" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M501" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E502" t="n">
         <v>15</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K502" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L502" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M502" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E503" t="n">
         <v>15</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="K503" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L503" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M503" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E504" t="n">
         <v>15</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K504" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L504" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M504" t="n">
-        <v>3900</v>
+        <v>3250</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E505" t="n">
         <v>15</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>550</v>
+        <v>360</v>
       </c>
       <c r="K505" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L505" t="n">
         <v>3000</v>
       </c>
-      <c r="L505" t="n">
-        <v>3500</v>
-      </c>
       <c r="M505" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E506" t="n">
         <v>15</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K506" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L506" t="n">
         <v>2500</v>
       </c>
-      <c r="L506" t="n">
-        <v>3000</v>
-      </c>
       <c r="M506" t="n">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E507" t="n">
         <v>15</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K507" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L507" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M507" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E508" t="n">
         <v>15</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K508" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L508" t="n">
         <v>6000</v>
       </c>
-      <c r="L508" t="n">
-        <v>6500</v>
-      </c>
       <c r="M508" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E509" t="n">
         <v>15</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K509" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L509" t="n">
         <v>5000</v>
       </c>
-      <c r="L509" t="n">
-        <v>5500</v>
-      </c>
       <c r="M509" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E510" t="n">
         <v>15</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K510" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L510" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M510" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>375</v>
+        <v>217</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E511" t="n">
         <v>15</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K511" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L511" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M511" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K512" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L512" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M512" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E513" t="n">
         <v>15</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K513" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L513" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M513" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E514" t="n">
         <v>15</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="K514" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L514" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M514" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E515" t="n">
         <v>15</v>
@@ -37440,13 +37440,13 @@
         <v>450</v>
       </c>
       <c r="K515" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L515" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M515" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E516" t="n">
         <v>15</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K516" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L516" t="n">
         <v>7000</v>
       </c>
-      <c r="L516" t="n">
-        <v>7500</v>
-      </c>
       <c r="M516" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E517" t="n">
         <v>15</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K517" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L517" t="n">
         <v>6000</v>
       </c>
-      <c r="L517" t="n">
-        <v>6500</v>
-      </c>
       <c r="M517" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E518" t="n">
         <v>15</v>
@@ -37653,7 +37653,7 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K518" t="n">
         <v>5000</v>
@@ -37681,6 +37681,438 @@
         <v>18</v>
       </c>
       <c r="R518" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>1</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E519" t="n">
+        <v>15</v>
+      </c>
+      <c r="F519" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>250</v>
+      </c>
+      <c r="K519" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L519" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M519" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P519" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>18</v>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>1</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E520" t="n">
+        <v>15</v>
+      </c>
+      <c r="F520" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>360</v>
+      </c>
+      <c r="K520" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L520" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M520" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P520" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>18</v>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>1</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E521" t="n">
+        <v>15</v>
+      </c>
+      <c r="F521" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>450</v>
+      </c>
+      <c r="K521" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L521" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M521" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P521" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>18</v>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>1</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D522" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E522" t="n">
+        <v>15</v>
+      </c>
+      <c r="F522" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J522" t="n">
+        <v>450</v>
+      </c>
+      <c r="K522" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L522" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M522" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P522" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>18</v>
+      </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D523" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E523" t="n">
+        <v>15</v>
+      </c>
+      <c r="F523" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J523" t="n">
+        <v>500</v>
+      </c>
+      <c r="K523" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L523" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M523" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P523" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>18</v>
+      </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>1</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D524" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E524" t="n">
+        <v>15</v>
+      </c>
+      <c r="F524" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J524" t="n">
+        <v>550</v>
+      </c>
+      <c r="K524" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L524" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M524" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P524" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>18</v>
+      </c>
+      <c r="R524" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R538"/>
+  <dimension ref="A1:R541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K465" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L465" t="n">
         <v>3000</v>
       </c>
-      <c r="L465" t="n">
-        <v>3500</v>
-      </c>
       <c r="M465" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33912,13 +33912,13 @@
         <v>300</v>
       </c>
       <c r="K466" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L466" t="n">
         <v>2500</v>
       </c>
-      <c r="L466" t="n">
-        <v>3000</v>
-      </c>
       <c r="M466" t="n">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K467" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L467" t="n">
         <v>2000</v>
       </c>
-      <c r="L467" t="n">
-        <v>2500</v>
-      </c>
       <c r="M467" t="n">
-        <v>2250</v>
+        <v>1900</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,7 +34053,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K468" t="n">
         <v>3000</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,7 +34125,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K469" t="n">
         <v>2500</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,7 +34197,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K470" t="n">
         <v>2000</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K471" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L471" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M471" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K472" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L472" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M472" t="n">
-        <v>6500</v>
+        <v>2750</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>361</v>
+        <v>153</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K473" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L473" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="M473" t="n">
-        <v>6250</v>
+        <v>2250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="K474" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L474" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M474" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K475" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L475" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M475" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34620,16 +34620,16 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K476" t="n">
         <v>6000</v>
@@ -34647,7 +34647,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P476" t="n">
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K477" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L477" t="n">
         <v>6000</v>
       </c>
       <c r="M477" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E478" t="n">
         <v>15</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K478" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L478" t="n">
         <v>5000</v>
       </c>
       <c r="M478" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K479" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L479" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="M479" t="n">
-        <v>5650</v>
+        <v>6250</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L480" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M480" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K481" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L481" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M481" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K482" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L482" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="M482" t="n">
-        <v>6250</v>
+        <v>5650</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,7 +35133,7 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K483" t="n">
         <v>5000</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E484" t="n">
         <v>15</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,7 +35205,7 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K484" t="n">
         <v>4000</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>870</v>
+        <v>300</v>
       </c>
       <c r="K485" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L485" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M485" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>920</v>
+        <v>350</v>
       </c>
       <c r="K486" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M486" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,7 +35421,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="K487" t="n">
         <v>4000</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>300</v>
+        <v>870</v>
       </c>
       <c r="K488" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L488" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M488" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>360</v>
+        <v>920</v>
       </c>
       <c r="K489" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L489" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M489" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="K490" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L490" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M490" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44348</v>
+        <v>44447</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K491" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L491" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M491" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44348</v>
+        <v>44447</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K492" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L492" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M492" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44348</v>
+        <v>44447</v>
       </c>
       <c r="E493" t="n">
         <v>15</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K493" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L493" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M493" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K494" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L494" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M494" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K495" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L495" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M495" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36069,7 +36069,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K496" t="n">
         <v>3500</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E497" t="n">
         <v>15</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K497" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L497" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M497" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E498" t="n">
         <v>15</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K498" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L498" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M498" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E499" t="n">
         <v>15</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K499" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L499" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M499" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44468</v>
+        <v>44327</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K500" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L500" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="M500" t="n">
-        <v>2900</v>
+        <v>7250</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>161</v>
+        <v>403</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44468</v>
+        <v>44327</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K501" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L501" t="n">
-        <v>2800</v>
+        <v>6500</v>
       </c>
       <c r="M501" t="n">
-        <v>2650</v>
+        <v>6250</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>147</v>
+        <v>347</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44468</v>
+        <v>44327</v>
       </c>
       <c r="E502" t="n">
         <v>15</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K502" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L502" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M502" t="n">
-        <v>2250</v>
+        <v>5250</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44389</v>
+        <v>44468</v>
       </c>
       <c r="E503" t="n">
         <v>15</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36576,13 +36576,13 @@
         <v>250</v>
       </c>
       <c r="K503" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="L503" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M503" t="n">
-        <v>6250</v>
+        <v>2900</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44389</v>
+        <v>44468</v>
       </c>
       <c r="E504" t="n">
         <v>15</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K504" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L504" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="M504" t="n">
-        <v>5750</v>
+        <v>2650</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44389</v>
+        <v>44468</v>
       </c>
       <c r="E505" t="n">
         <v>15</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K505" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L505" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M505" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K506" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L506" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M506" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K507" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L507" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M507" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K508" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L508" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M508" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E509" t="n">
         <v>15</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K509" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="L509" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M509" t="n">
-        <v>4750</v>
+        <v>3900</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E510" t="n">
         <v>15</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K510" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L510" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M510" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E511" t="n">
         <v>15</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K511" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L511" t="n">
         <v>3000</v>
       </c>
-      <c r="L511" t="n">
-        <v>3500</v>
-      </c>
       <c r="M511" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37224,13 +37224,13 @@
         <v>250</v>
       </c>
       <c r="K512" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L512" t="n">
         <v>5000</v>
       </c>
-      <c r="L512" t="n">
-        <v>6000</v>
-      </c>
       <c r="M512" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E513" t="n">
         <v>15</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K513" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L513" t="n">
         <v>4500</v>
       </c>
-      <c r="L513" t="n">
-        <v>5000</v>
-      </c>
       <c r="M513" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E514" t="n">
         <v>15</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K514" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L514" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M514" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K515" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L515" t="n">
         <v>6000</v>
       </c>
-      <c r="L515" t="n">
-        <v>6500</v>
-      </c>
       <c r="M515" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>530</v>
+        <v>270</v>
       </c>
       <c r="K516" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L516" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M516" t="n">
-        <v>5764</v>
+        <v>4750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="K517" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L517" t="n">
         <v>4500</v>
       </c>
-      <c r="L517" t="n">
-        <v>5000</v>
-      </c>
       <c r="M517" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E518" t="n">
         <v>15</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K518" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L518" t="n">
         <v>6500</v>
       </c>
-      <c r="L518" t="n">
-        <v>7000</v>
-      </c>
       <c r="M518" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E519" t="n">
         <v>15</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,7 +37725,7 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K519" t="n">
         <v>5500</v>
@@ -37734,7 +37734,7 @@
         <v>6000</v>
       </c>
       <c r="M519" t="n">
-        <v>5750</v>
+        <v>5764</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,7 +37797,7 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="K520" t="n">
         <v>4500</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K521" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L521" t="n">
         <v>7000</v>
       </c>
-      <c r="L521" t="n">
-        <v>7500</v>
-      </c>
       <c r="M521" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K522" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L522" t="n">
         <v>6000</v>
       </c>
-      <c r="L522" t="n">
-        <v>6500</v>
-      </c>
       <c r="M522" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>700</v>
+        <v>470</v>
       </c>
       <c r="K523" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L523" t="n">
         <v>5000</v>
       </c>
-      <c r="L523" t="n">
-        <v>5500</v>
-      </c>
       <c r="M523" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44271</v>
+        <v>44330</v>
       </c>
       <c r="E524" t="n">
         <v>15</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K524" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L524" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M524" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44271</v>
+        <v>44330</v>
       </c>
       <c r="E525" t="n">
         <v>15</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K525" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L525" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M525" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44271</v>
+        <v>44330</v>
       </c>
       <c r="E526" t="n">
         <v>15</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K526" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L526" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M526" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E527" t="n">
         <v>15</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38301,7 +38301,7 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K527" t="n">
         <v>6000</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E528" t="n">
         <v>15</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K528" t="n">
         <v>5500</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E529" t="n">
         <v>15</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K529" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="L529" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M529" t="n">
-        <v>2500</v>
+        <v>4750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K530" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L530" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M530" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K531" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L531" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M531" t="n">
-        <v>3714</v>
+        <v>5750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38664,13 +38664,13 @@
         <v>450</v>
       </c>
       <c r="K532" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="L532" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M532" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E533" t="n">
         <v>15</v>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K533" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L533" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M533" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E534" t="n">
         <v>15</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K534" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L534" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M534" t="n">
-        <v>5750</v>
+        <v>3714</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E535" t="n">
         <v>15</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38880,13 +38880,13 @@
         <v>450</v>
       </c>
       <c r="K535" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L535" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M535" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K536" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L536" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M536" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K537" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L537" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M537" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39084,43 +39084,259 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J538" t="n">
+        <v>450</v>
+      </c>
+      <c r="K538" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L538" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M538" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P538" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>18</v>
+      </c>
+      <c r="R538" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D539" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E539" t="n">
+        <v>15</v>
+      </c>
+      <c r="F539" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I538" t="inlineStr">
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J539" t="n">
+        <v>400</v>
+      </c>
+      <c r="K539" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L539" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M539" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P539" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>18</v>
+      </c>
+      <c r="R539" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>1</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D540" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E540" t="n">
+        <v>15</v>
+      </c>
+      <c r="F540" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J540" t="n">
+        <v>500</v>
+      </c>
+      <c r="K540" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L540" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M540" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P540" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>18</v>
+      </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D541" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E541" t="n">
+        <v>15</v>
+      </c>
+      <c r="F541" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J538" t="n">
+      <c r="J541" t="n">
         <v>560</v>
       </c>
-      <c r="K538" t="n">
+      <c r="K541" t="n">
         <v>4000</v>
       </c>
-      <c r="L538" t="n">
+      <c r="L541" t="n">
         <v>4500</v>
       </c>
-      <c r="M538" t="n">
+      <c r="M541" t="n">
         <v>4250</v>
       </c>
-      <c r="N538" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O538" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P538" t="n">
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P541" t="n">
         <v>236</v>
       </c>
-      <c r="Q538" t="n">
-        <v>18</v>
-      </c>
-      <c r="R538" t="inlineStr">
+      <c r="Q541" t="n">
+        <v>18</v>
+      </c>
+      <c r="R541" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R568"/>
+  <dimension ref="A1:R574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K462" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L462" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M462" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K463" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L463" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M463" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K464" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L464" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M464" t="n">
-        <v>4250</v>
+        <v>2250</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K465" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L465" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M465" t="n">
-        <v>7250</v>
+        <v>2750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="K466" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L466" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="M466" t="n">
-        <v>6273</v>
+        <v>2250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K467" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L467" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="M467" t="n">
-        <v>5250</v>
+        <v>1750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34056,13 +34056,13 @@
         <v>200</v>
       </c>
       <c r="K468" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L468" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M468" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34128,13 +34128,13 @@
         <v>250</v>
       </c>
       <c r="K469" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M469" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34200,13 +34200,13 @@
         <v>250</v>
       </c>
       <c r="K470" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L470" t="n">
         <v>4500</v>
       </c>
-      <c r="L470" t="n">
-        <v>5000</v>
-      </c>
       <c r="M470" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K471" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L471" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M471" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="K472" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L472" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M472" t="n">
-        <v>5500</v>
+        <v>6273</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K473" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L473" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M473" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K474" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L474" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M474" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K475" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L475" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M475" t="n">
-        <v>3000</v>
+        <v>5750</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K476" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L476" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M476" t="n">
-        <v>2325</v>
+        <v>4750</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K477" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L477" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M477" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E478" t="n">
         <v>15</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K478" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L478" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M478" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K479" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L479" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M479" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44257</v>
+        <v>44474</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K480" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L480" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M480" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44257</v>
+        <v>44474</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K481" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L481" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M481" t="n">
-        <v>4750</v>
+        <v>3000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44257</v>
+        <v>44474</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K482" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L482" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M482" t="n">
-        <v>4250</v>
+        <v>2325</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44411</v>
+        <v>44350</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K483" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="L483" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M483" t="n">
-        <v>3400</v>
+        <v>5250</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44411</v>
+        <v>44350</v>
       </c>
       <c r="E484" t="n">
         <v>15</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K484" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L484" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="M484" t="n">
-        <v>3150</v>
+        <v>4750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44175</v>
+        <v>44350</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J485" t="n">
         <v>300</v>
       </c>
       <c r="K485" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L485" t="n">
         <v>4500</v>
       </c>
-      <c r="L485" t="n">
-        <v>5000</v>
-      </c>
       <c r="M485" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K486" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L486" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M486" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K487" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L487" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M487" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K488" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L488" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M488" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44200</v>
+        <v>44411</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="K489" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="L489" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M489" t="n">
-        <v>4750</v>
+        <v>3400</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35583,11 +35583,11 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44200</v>
+        <v>44411</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>840</v>
+        <v>200</v>
       </c>
       <c r="K490" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L490" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M490" t="n">
-        <v>3750</v>
+        <v>3150</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44459</v>
+        <v>44175</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K491" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L491" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M491" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44459</v>
+        <v>44175</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L492" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M492" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44459</v>
+        <v>44175</v>
       </c>
       <c r="E493" t="n">
         <v>15</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K493" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L493" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M493" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44298</v>
+        <v>44200</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K494" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L494" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M494" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44298</v>
+        <v>44200</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -36000,13 +36000,13 @@
         <v>760</v>
       </c>
       <c r="K495" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L495" t="n">
         <v>5000</v>
       </c>
-      <c r="L495" t="n">
-        <v>5500</v>
-      </c>
       <c r="M495" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44298</v>
+        <v>44200</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="K496" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L496" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M496" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="E497" t="n">
         <v>15</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K497" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L497" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M497" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="E498" t="n">
         <v>15</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K498" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L498" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M498" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="E499" t="n">
         <v>15</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="K499" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L499" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M499" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K500" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L500" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M500" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>350</v>
+        <v>760</v>
       </c>
       <c r="K501" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L501" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M501" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E502" t="n">
         <v>15</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="K502" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L502" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M502" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E503" t="n">
         <v>15</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K503" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L503" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M503" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E504" t="n">
         <v>15</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K504" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L504" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M504" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E505" t="n">
         <v>15</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="K505" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L505" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M505" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E506" t="n">
         <v>15</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K506" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L506" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M506" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E507" t="n">
         <v>15</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="K507" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L507" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M507" t="n">
-        <v>5764</v>
+        <v>3250</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E508" t="n">
         <v>15</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K508" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L508" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M508" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E509" t="n">
         <v>15</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K509" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L509" t="n">
-        <v>3700</v>
+        <v>6000</v>
       </c>
       <c r="M509" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E510" t="n">
         <v>15</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K510" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L510" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M510" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E511" t="n">
         <v>15</v>
@@ -37152,13 +37152,13 @@
         <v>270</v>
       </c>
       <c r="K511" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L511" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M511" t="n">
-        <v>2250</v>
+        <v>4250</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K512" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L512" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M512" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E513" t="n">
         <v>15</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>325</v>
+        <v>530</v>
       </c>
       <c r="K513" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L513" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M513" t="n">
-        <v>2769</v>
+        <v>5764</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E514" t="n">
         <v>15</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K514" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L514" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M514" t="n">
-        <v>2250</v>
+        <v>4750</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E515" t="n">
         <v>15</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K515" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L515" t="n">
-        <v>8000</v>
+        <v>3700</v>
       </c>
       <c r="M515" t="n">
-        <v>7500</v>
+        <v>3600</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E516" t="n">
         <v>15</v>
@@ -37512,13 +37512,13 @@
         <v>300</v>
       </c>
       <c r="K516" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L516" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M516" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E517" t="n">
         <v>15</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K517" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L517" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M517" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E518" t="n">
         <v>15</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K518" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L518" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M518" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E519" t="n">
         <v>15</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="K519" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L519" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M519" t="n">
-        <v>5778</v>
+        <v>2769</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>321</v>
+        <v>154</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K520" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L520" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M520" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E521" t="n">
         <v>15</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K521" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L521" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M521" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E522" t="n">
         <v>15</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K522" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L522" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M522" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E523" t="n">
         <v>15</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K523" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L523" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M523" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E524" t="n">
         <v>15</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K524" t="n">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="L524" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M524" t="n">
-        <v>2400</v>
+        <v>6750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E525" t="n">
         <v>15</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K525" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L525" t="n">
-        <v>2300</v>
+        <v>6000</v>
       </c>
       <c r="M525" t="n">
-        <v>2150</v>
+        <v>5778</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>119</v>
+        <v>321</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E526" t="n">
         <v>15</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K526" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L526" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M526" t="n">
-        <v>1900</v>
+        <v>4750</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E527" t="n">
         <v>15</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38301,7 +38301,7 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K527" t="n">
         <v>3500</v>
@@ -38319,7 +38319,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P527" t="n">
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E528" t="n">
         <v>15</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K528" t="n">
         <v>3000</v>
@@ -38391,7 +38391,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P528" t="n">
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E529" t="n">
         <v>15</v>
@@ -38436,25 +38436,25 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K529" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L529" t="n">
         <v>3000</v>
       </c>
-      <c r="L529" t="n">
-        <v>3500</v>
-      </c>
       <c r="M529" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E530" t="n">
         <v>15</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K530" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L530" t="n">
         <v>2500</v>
       </c>
-      <c r="L530" t="n">
-        <v>3000</v>
-      </c>
       <c r="M530" t="n">
-        <v>2750</v>
+        <v>2400</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E531" t="n">
         <v>15</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K531" t="n">
         <v>2000</v>
       </c>
       <c r="L531" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M531" t="n">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44302</v>
+        <v>44473</v>
       </c>
       <c r="E532" t="n">
         <v>15</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K532" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="L532" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M532" t="n">
-        <v>6250</v>
+        <v>1900</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44302</v>
+        <v>44398</v>
       </c>
       <c r="E533" t="n">
         <v>15</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K533" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L533" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M533" t="n">
-        <v>5722</v>
+        <v>3750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44302</v>
+        <v>44398</v>
       </c>
       <c r="E534" t="n">
         <v>15</v>
@@ -38796,25 +38796,25 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K534" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L534" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M534" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E535" t="n">
         <v>15</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K535" t="n">
-        <v>5800</v>
+        <v>3000</v>
       </c>
       <c r="L535" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M535" t="n">
-        <v>5900</v>
+        <v>3250</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E536" t="n">
         <v>15</v>
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K536" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L536" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M536" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E537" t="n">
         <v>15</v>
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K537" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L537" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M537" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E538" t="n">
         <v>15</v>
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K538" t="n">
         <v>6000</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M538" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E539" t="n">
         <v>15</v>
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K539" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L539" t="n">
         <v>6000</v>
       </c>
       <c r="M539" t="n">
-        <v>5500</v>
+        <v>5722</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E540" t="n">
         <v>15</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K540" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L540" t="n">
         <v>5000</v>
       </c>
       <c r="M540" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E541" t="n">
         <v>15</v>
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K541" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="L541" t="n">
         <v>6000</v>
       </c>
       <c r="M541" t="n">
-        <v>5750</v>
+        <v>5900</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E542" t="n">
         <v>15</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K542" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L542" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M542" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E543" t="n">
         <v>15</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K543" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L543" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M543" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E544" t="n">
         <v>15</v>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K544" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L544" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M544" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E545" t="n">
         <v>15</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39600,13 +39600,13 @@
         <v>300</v>
       </c>
       <c r="K545" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L545" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M545" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E546" t="n">
         <v>15</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K546" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L546" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M546" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44371</v>
+        <v>44239</v>
       </c>
       <c r="E547" t="n">
         <v>15</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K547" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L547" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M547" t="n">
-        <v>5333</v>
+        <v>5750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44371</v>
+        <v>44239</v>
       </c>
       <c r="E548" t="n">
         <v>15</v>
@@ -39813,7 +39813,7 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K548" t="n">
         <v>4500</v>
@@ -39822,7 +39822,7 @@
         <v>5000</v>
       </c>
       <c r="M548" t="n">
-        <v>4700</v>
+        <v>4750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44371</v>
+        <v>44239</v>
       </c>
       <c r="E549" t="n">
         <v>15</v>
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K549" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L549" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M549" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E550" t="n">
         <v>15</v>
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K550" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L550" t="n">
         <v>5500</v>
       </c>
       <c r="M550" t="n">
-        <v>4781</v>
+        <v>5250</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E551" t="n">
         <v>15</v>
@@ -40032,13 +40032,13 @@
         <v>300</v>
       </c>
       <c r="K551" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L551" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M551" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44454</v>
+        <v>44344</v>
       </c>
       <c r="E552" t="n">
         <v>15</v>
@@ -40092,25 +40092,25 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K552" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L552" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M552" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E553" t="n">
         <v>15</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="K553" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L553" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M553" t="n">
-        <v>2727</v>
+        <v>5333</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E554" t="n">
         <v>15</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K554" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L554" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M554" t="n">
-        <v>2250</v>
+        <v>4700</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E555" t="n">
         <v>15</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K555" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L555" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M555" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E556" t="n">
         <v>15</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K556" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="L556" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M556" t="n">
-        <v>2400</v>
+        <v>4781</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E557" t="n">
         <v>15</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J557" t="n">
         <v>300</v>
       </c>
       <c r="K557" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L557" t="n">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="M557" t="n">
-        <v>2150</v>
+        <v>4000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E558" t="n">
         <v>15</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K558" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L558" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M558" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E559" t="n">
         <v>15</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="K559" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L559" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M559" t="n">
-        <v>2250</v>
+        <v>2727</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E560" t="n">
         <v>15</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K560" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L560" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M560" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E561" t="n">
         <v>15</v>
@@ -40749,7 +40749,7 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K561" t="n">
         <v>2500</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E562" t="n">
         <v>15</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K562" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L562" t="n">
         <v>2500</v>
       </c>
       <c r="M562" t="n">
-        <v>2250</v>
+        <v>2400</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E563" t="n">
         <v>15</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K563" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L563" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M563" t="n">
-        <v>1750</v>
+        <v>2150</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E564" t="n">
         <v>15</v>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K564" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L564" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M564" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E565" t="n">
         <v>15</v>
@@ -41028,25 +41028,25 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K565" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L565" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M565" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E566" t="n">
         <v>15</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K566" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L566" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M566" t="n">
-        <v>6250</v>
+        <v>1750</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E567" t="n">
         <v>15</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K567" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L567" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M567" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,58 +41229,490 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E568" t="n">
+        <v>15</v>
+      </c>
+      <c r="F568" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J568" t="n">
+        <v>700</v>
+      </c>
+      <c r="K568" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L568" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M568" t="n">
+        <v>2250</v>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P568" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>18</v>
+      </c>
+      <c r="R568" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D569" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E569" t="n">
+        <v>15</v>
+      </c>
+      <c r="F569" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J569" t="n">
+        <v>800</v>
+      </c>
+      <c r="K569" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L569" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M569" t="n">
+        <v>1750</v>
+      </c>
+      <c r="N569" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P569" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>18</v>
+      </c>
+      <c r="R569" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D570" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E568" t="n">
-        <v>15</v>
-      </c>
-      <c r="F568" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H568" t="inlineStr">
+      <c r="E570" t="n">
+        <v>15</v>
+      </c>
+      <c r="F570" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I568" t="inlineStr">
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J570" t="n">
+        <v>600</v>
+      </c>
+      <c r="K570" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L570" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M570" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P570" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>18</v>
+      </c>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D571" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E571" t="n">
+        <v>15</v>
+      </c>
+      <c r="F571" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J571" t="n">
+        <v>250</v>
+      </c>
+      <c r="K571" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L571" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M571" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P571" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>18</v>
+      </c>
+      <c r="R571" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D572" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E572" t="n">
+        <v>15</v>
+      </c>
+      <c r="F572" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J572" t="n">
+        <v>500</v>
+      </c>
+      <c r="K572" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L572" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M572" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P572" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>18</v>
+      </c>
+      <c r="R572" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>1</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D573" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E573" t="n">
+        <v>15</v>
+      </c>
+      <c r="F573" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J573" t="n">
+        <v>270</v>
+      </c>
+      <c r="K573" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L573" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M573" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N573" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P573" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>18</v>
+      </c>
+      <c r="R573" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D574" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E574" t="n">
+        <v>15</v>
+      </c>
+      <c r="F574" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J568" t="n">
+      <c r="J574" t="n">
         <v>300</v>
       </c>
-      <c r="K568" t="n">
+      <c r="K574" t="n">
         <v>4000</v>
       </c>
-      <c r="L568" t="n">
+      <c r="L574" t="n">
         <v>5000</v>
       </c>
-      <c r="M568" t="n">
+      <c r="M574" t="n">
         <v>4500</v>
       </c>
-      <c r="N568" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O568" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P568" t="n">
+      <c r="N574" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P574" t="n">
         <v>250</v>
       </c>
-      <c r="Q568" t="n">
-        <v>18</v>
-      </c>
-      <c r="R568" t="inlineStr">
+      <c r="Q574" t="n">
+        <v>18</v>
+      </c>
+      <c r="R574" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R603"/>
+  <dimension ref="A1:R606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K453" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L453" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M453" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K454" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L454" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M454" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K455" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L455" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M455" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33192,13 +33192,13 @@
         <v>400</v>
       </c>
       <c r="K456" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L456" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K457" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L457" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M457" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33279,11 +33279,11 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44491</v>
+        <v>44208</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K458" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L458" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M458" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33396,25 +33396,25 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K459" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L459" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M459" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33468,25 +33468,25 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K460" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L460" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M460" t="n">
-        <v>2250</v>
+        <v>6750</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,7 +33549,7 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K461" t="n">
         <v>3000</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,7 +33621,7 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K462" t="n">
         <v>2500</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,7 +33693,7 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K463" t="n">
         <v>2000</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33768,13 +33768,13 @@
         <v>250</v>
       </c>
       <c r="K464" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L464" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M464" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K465" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L465" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M465" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="K466" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L466" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M466" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K467" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L467" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M467" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K468" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L468" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M468" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K469" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L469" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M469" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K470" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L470" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M470" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>375</v>
+        <v>217</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K471" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L471" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M471" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K472" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L472" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M472" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K473" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L473" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M473" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K474" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L474" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M474" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K475" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M475" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34629,7 +34629,7 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K476" t="n">
         <v>4500</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34701,7 +34701,7 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K477" t="n">
         <v>4000</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E478" t="n">
         <v>15</v>
@@ -34773,7 +34773,7 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="K478" t="n">
         <v>3500</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K479" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L479" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M479" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K480" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M480" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K481" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L481" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M481" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K482" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L482" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M482" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K483" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L483" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M483" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35208,13 +35208,13 @@
         <v>500</v>
       </c>
       <c r="K484" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L484" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M484" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K485" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L485" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M485" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K486" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L486" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M486" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K487" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L487" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M487" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K488" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L488" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M488" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K489" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L489" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M489" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K490" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L490" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M490" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K491" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L491" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M491" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K492" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L492" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M492" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E493" t="n">
         <v>15</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K493" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L493" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M493" t="n">
-        <v>2250</v>
+        <v>4250</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K494" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L494" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M494" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K495" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L495" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M495" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K496" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L496" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M496" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E497" t="n">
         <v>15</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K497" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L497" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M497" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E498" t="n">
         <v>15</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K498" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L498" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M498" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E499" t="n">
         <v>15</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K499" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L499" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M499" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K500" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L500" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M500" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K501" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L501" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M501" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K502" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L502" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M502" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E503" t="n">
         <v>15</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K503" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L503" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M503" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E504" t="n">
         <v>15</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K504" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L504" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M504" t="n">
-        <v>5750</v>
+        <v>6273</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E505" t="n">
         <v>15</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K505" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L505" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M505" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K506" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L506" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M506" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K507" t="n">
         <v>5500</v>
       </c>
       <c r="L507" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M507" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,7 +36933,7 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K508" t="n">
         <v>4500</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E509" t="n">
         <v>15</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K509" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L509" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M509" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E510" t="n">
         <v>15</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K510" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L510" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M510" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E511" t="n">
         <v>15</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K511" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L511" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M511" t="n">
-        <v>2325</v>
+        <v>4750</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37224,13 +37224,13 @@
         <v>250</v>
       </c>
       <c r="K512" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L512" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M512" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E513" t="n">
         <v>15</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="K513" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L513" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M513" t="n">
-        <v>4750</v>
+        <v>3000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E514" t="n">
         <v>15</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K514" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L514" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M514" t="n">
-        <v>4250</v>
+        <v>2325</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44257</v>
+        <v>44350</v>
       </c>
       <c r="E515" t="n">
         <v>15</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K515" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L515" t="n">
         <v>5500</v>
       </c>
-      <c r="L515" t="n">
-        <v>6000</v>
-      </c>
       <c r="M515" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44257</v>
+        <v>44350</v>
       </c>
       <c r="E516" t="n">
         <v>15</v>
@@ -37509,7 +37509,7 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K516" t="n">
         <v>4500</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44257</v>
+        <v>44350</v>
       </c>
       <c r="E517" t="n">
         <v>15</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E518" t="n">
         <v>15</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K518" t="n">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="L518" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M518" t="n">
-        <v>3400</v>
+        <v>5750</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37671,11 +37671,11 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E519" t="n">
         <v>15</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K519" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L519" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="M519" t="n">
-        <v>3150</v>
+        <v>4750</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J520" t="n">
         <v>300</v>
       </c>
       <c r="K520" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L520" t="n">
         <v>4500</v>
       </c>
-      <c r="L520" t="n">
-        <v>5000</v>
-      </c>
       <c r="M520" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E521" t="n">
         <v>15</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K521" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="L521" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M521" t="n">
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E522" t="n">
         <v>15</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K522" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L522" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M522" t="n">
-        <v>3750</v>
+        <v>3150</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E523" t="n">
         <v>15</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K523" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L523" t="n">
         <v>5000</v>
       </c>
-      <c r="L523" t="n">
-        <v>5500</v>
-      </c>
       <c r="M523" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E524" t="n">
         <v>15</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K524" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L524" t="n">
         <v>4500</v>
       </c>
-      <c r="L524" t="n">
-        <v>5000</v>
-      </c>
       <c r="M524" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E525" t="n">
         <v>15</v>
@@ -38157,7 +38157,7 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="K525" t="n">
         <v>3500</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E526" t="n">
         <v>15</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K526" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L526" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M526" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E527" t="n">
         <v>15</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K527" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L527" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M527" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E528" t="n">
         <v>15</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
       <c r="K528" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L528" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M528" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E529" t="n">
         <v>15</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K529" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L529" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M529" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E530" t="n">
         <v>15</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K530" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L530" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M530" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E531" t="n">
         <v>15</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="K531" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L531" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M531" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E532" t="n">
         <v>15</v>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K532" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L532" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M532" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E533" t="n">
         <v>15</v>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>350</v>
+        <v>760</v>
       </c>
       <c r="K533" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L533" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M533" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E534" t="n">
         <v>15</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>370</v>
+        <v>850</v>
       </c>
       <c r="K534" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L534" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M534" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38880,13 +38880,13 @@
         <v>300</v>
       </c>
       <c r="K535" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L535" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M535" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38952,13 +38952,13 @@
         <v>350</v>
       </c>
       <c r="K536" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L536" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M536" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K537" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L537" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M537" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E538" t="n">
         <v>15</v>
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K538" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L538" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M538" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E539" t="n">
         <v>15</v>
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K539" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L539" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M539" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E540" t="n">
         <v>15</v>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="K540" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L540" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M540" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K541" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L541" t="n">
         <v>6000</v>
       </c>
-      <c r="L541" t="n">
-        <v>6500</v>
-      </c>
       <c r="M541" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>530</v>
+        <v>270</v>
       </c>
       <c r="K542" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L542" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M542" t="n">
-        <v>5764</v>
+        <v>4750</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39444,7 +39444,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="K543" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L543" t="n">
         <v>4500</v>
       </c>
-      <c r="L543" t="n">
-        <v>5000</v>
-      </c>
       <c r="M543" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E544" t="n">
         <v>15</v>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K544" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L544" t="n">
-        <v>3700</v>
+        <v>6500</v>
       </c>
       <c r="M544" t="n">
-        <v>3600</v>
+        <v>6250</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E545" t="n">
         <v>15</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="K545" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L545" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M545" t="n">
-        <v>3250</v>
+        <v>5764</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E546" t="n">
         <v>15</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="K546" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L546" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M546" t="n">
-        <v>2250</v>
+        <v>4750</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39732,7 +39732,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K547" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L547" t="n">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="M547" t="n">
-        <v>3250</v>
+        <v>3600</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39804,7 +39804,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="K548" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L548" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M548" t="n">
-        <v>2769</v>
+        <v>3250</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39885,7 +39885,7 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K549" t="n">
         <v>2000</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E550" t="n">
         <v>15</v>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K550" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L550" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M550" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>417</v>
+        <v>181</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E551" t="n">
         <v>15</v>
@@ -40020,7 +40020,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="K551" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L551" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M551" t="n">
-        <v>6250</v>
+        <v>2769</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>347</v>
+        <v>154</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E552" t="n">
         <v>15</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K552" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L552" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M552" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K553" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L553" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M553" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K554" t="n">
         <v>5500</v>
       </c>
       <c r="L554" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M554" t="n">
-        <v>5778</v>
+        <v>6250</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40308,7 +40308,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40317,7 +40317,7 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K555" t="n">
         <v>4500</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E556" t="n">
         <v>15</v>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K556" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L556" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M556" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E557" t="n">
         <v>15</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K557" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L557" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M557" t="n">
-        <v>3250</v>
+        <v>5778</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E558" t="n">
         <v>15</v>
@@ -40524,7 +40524,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K558" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L558" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M558" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40596,7 +40596,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -40608,13 +40608,13 @@
         <v>300</v>
       </c>
       <c r="K559" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="L559" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M559" t="n">
-        <v>2400</v>
+        <v>3750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40680,13 +40680,13 @@
         <v>350</v>
       </c>
       <c r="K560" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L560" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M560" t="n">
-        <v>2150</v>
+        <v>3250</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="K561" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L561" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M561" t="n">
-        <v>1900</v>
+        <v>2750</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E562" t="n">
         <v>15</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K562" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L562" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M562" t="n">
-        <v>3750</v>
+        <v>2400</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E563" t="n">
         <v>15</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K563" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L563" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M563" t="n">
-        <v>3250</v>
+        <v>2150</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E564" t="n">
         <v>15</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="K564" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L564" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M564" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E565" t="n">
         <v>15</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K565" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L565" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M565" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E566" t="n">
         <v>15</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K566" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L566" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M566" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E567" t="n">
         <v>15</v>
@@ -41172,7 +41172,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K567" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L567" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M567" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E568" t="n">
         <v>15</v>
@@ -41244,7 +41244,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="K568" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L568" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M568" t="n">
-        <v>5722</v>
+        <v>2750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E569" t="n">
         <v>15</v>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K569" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L569" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M569" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K570" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L570" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M570" t="n">
-        <v>5900</v>
+        <v>6250</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41460,7 +41460,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="K571" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L571" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M571" t="n">
-        <v>5250</v>
+        <v>5722</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41532,7 +41532,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -41541,7 +41541,7 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K572" t="n">
         <v>4500</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E573" t="n">
         <v>15</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K573" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L573" t="n">
         <v>6000</v>
       </c>
-      <c r="L573" t="n">
-        <v>7000</v>
-      </c>
       <c r="M573" t="n">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E574" t="n">
         <v>15</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K574" t="n">
         <v>5000</v>
       </c>
       <c r="L574" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M574" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E575" t="n">
         <v>15</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K575" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L575" t="n">
         <v>5000</v>
       </c>
       <c r="M575" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K576" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L576" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M576" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K577" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L577" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M577" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -41973,17 +41973,17 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K578" t="n">
         <v>4000</v>
       </c>
       <c r="L578" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M578" t="n">
         <v>4500</v>
       </c>
-      <c r="M578" t="n">
-        <v>4250</v>
-      </c>
       <c r="N578" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E579" t="n">
         <v>15</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K579" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L579" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M579" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E580" t="n">
         <v>15</v>
@@ -42117,7 +42117,7 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K580" t="n">
         <v>4500</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E581" t="n">
         <v>15</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K581" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L581" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M581" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44371</v>
+        <v>44344</v>
       </c>
       <c r="E582" t="n">
         <v>15</v>
@@ -42261,7 +42261,7 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K582" t="n">
         <v>5000</v>
@@ -42270,7 +42270,7 @@
         <v>5500</v>
       </c>
       <c r="M582" t="n">
-        <v>5333</v>
+        <v>5250</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44371</v>
+        <v>44344</v>
       </c>
       <c r="E583" t="n">
         <v>15</v>
@@ -42333,7 +42333,7 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K583" t="n">
         <v>4500</v>
@@ -42342,7 +42342,7 @@
         <v>5000</v>
       </c>
       <c r="M583" t="n">
-        <v>4700</v>
+        <v>4750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44371</v>
+        <v>44344</v>
       </c>
       <c r="E584" t="n">
         <v>15</v>
@@ -42405,7 +42405,7 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K584" t="n">
         <v>3500</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E585" t="n">
         <v>15</v>
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K585" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L585" t="n">
         <v>5500</v>
       </c>
       <c r="M585" t="n">
-        <v>4781</v>
+        <v>5333</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E586" t="n">
         <v>15</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K586" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L586" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M586" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E587" t="n">
         <v>15</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J587" t="n">
         <v>200</v>
       </c>
       <c r="K587" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L587" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M587" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E588" t="n">
         <v>15</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="K588" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L588" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M588" t="n">
-        <v>2727</v>
+        <v>4781</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E589" t="n">
         <v>15</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K589" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L589" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M589" t="n">
-        <v>2250</v>
+        <v>4000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K590" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L590" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M590" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K591" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L591" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M591" t="n">
-        <v>2400</v>
+        <v>2727</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K592" t="n">
         <v>2000</v>
       </c>
       <c r="L592" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M592" t="n">
-        <v>2150</v>
+        <v>2250</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E593" t="n">
         <v>15</v>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -43053,7 +43053,7 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K593" t="n">
         <v>2500</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E594" t="n">
         <v>15</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K594" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L594" t="n">
         <v>2500</v>
       </c>
       <c r="M594" t="n">
-        <v>2250</v>
+        <v>2400</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E595" t="n">
         <v>15</v>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K595" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L595" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M595" t="n">
-        <v>1750</v>
+        <v>2150</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -43269,7 +43269,7 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K596" t="n">
         <v>2500</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,7 +43341,7 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K597" t="n">
         <v>2000</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,7 +43413,7 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K598" t="n">
         <v>1500</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E599" t="n">
         <v>15</v>
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K599" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L599" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M599" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E600" t="n">
         <v>15</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K600" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L600" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M600" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E601" t="n">
         <v>15</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K601" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L601" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M601" t="n">
-        <v>6250</v>
+        <v>1750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="K602" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L602" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M602" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43769,38 +43769,254 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J603" t="n">
+        <v>250</v>
+      </c>
+      <c r="K603" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L603" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M603" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P603" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>18</v>
+      </c>
+      <c r="R603" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>1</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D604" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E604" t="n">
+        <v>15</v>
+      </c>
+      <c r="F604" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J604" t="n">
+        <v>500</v>
+      </c>
+      <c r="K604" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L604" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M604" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P604" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>18</v>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>1</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D605" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E605" t="n">
+        <v>15</v>
+      </c>
+      <c r="F605" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J605" t="n">
+        <v>270</v>
+      </c>
+      <c r="K605" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L605" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M605" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P605" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>18</v>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>1</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D606" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E606" t="n">
+        <v>15</v>
+      </c>
+      <c r="F606" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J603" t="n">
+      <c r="J606" t="n">
         <v>300</v>
       </c>
-      <c r="K603" t="n">
+      <c r="K606" t="n">
         <v>4000</v>
       </c>
-      <c r="L603" t="n">
+      <c r="L606" t="n">
         <v>5000</v>
       </c>
-      <c r="M603" t="n">
+      <c r="M606" t="n">
         <v>4500</v>
       </c>
-      <c r="N603" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O603" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P603" t="n">
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P606" t="n">
         <v>250</v>
       </c>
-      <c r="Q603" t="n">
-        <v>18</v>
-      </c>
-      <c r="R603" t="inlineStr">
+      <c r="Q606" t="n">
+        <v>18</v>
+      </c>
+      <c r="R606" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R609"/>
+  <dimension ref="A1:R612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E588" t="n">
         <v>15</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K588" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L588" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M588" t="n">
-        <v>5333</v>
+        <v>2750</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E589" t="n">
         <v>15</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K589" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L589" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M589" t="n">
-        <v>4700</v>
+        <v>2250</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E590" t="n">
         <v>15</v>
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K590" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L590" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M590" t="n">
-        <v>3750</v>
+        <v>1750</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E591" t="n">
         <v>15</v>
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K591" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L591" t="n">
         <v>5500</v>
       </c>
       <c r="M591" t="n">
-        <v>4781</v>
+        <v>5333</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E592" t="n">
         <v>15</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K592" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L592" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M592" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E593" t="n">
         <v>15</v>
@@ -43044,25 +43044,25 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J593" t="n">
         <v>200</v>
       </c>
       <c r="K593" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L593" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M593" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E594" t="n">
         <v>15</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="K594" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L594" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M594" t="n">
-        <v>2727</v>
+        <v>4781</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E595" t="n">
         <v>15</v>
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K595" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L595" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M595" t="n">
-        <v>2250</v>
+        <v>4000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K596" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L596" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M596" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K597" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L597" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M597" t="n">
-        <v>2400</v>
+        <v>2727</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K598" t="n">
         <v>2000</v>
       </c>
       <c r="L598" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M598" t="n">
-        <v>2150</v>
+        <v>2250</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E599" t="n">
         <v>15</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,7 +43485,7 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K599" t="n">
         <v>2500</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E600" t="n">
         <v>15</v>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -43557,16 +43557,16 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K600" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L600" t="n">
         <v>2500</v>
       </c>
       <c r="M600" t="n">
-        <v>2250</v>
+        <v>2400</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E601" t="n">
         <v>15</v>
@@ -43620,7 +43620,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K601" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L601" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M601" t="n">
-        <v>1750</v>
+        <v>2150</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -43701,7 +43701,7 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K602" t="n">
         <v>2500</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,7 +43773,7 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K603" t="n">
         <v>2000</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43845,7 +43845,7 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K604" t="n">
         <v>1500</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E605" t="n">
         <v>15</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K605" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L605" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M605" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E606" t="n">
         <v>15</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K606" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L606" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M606" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E607" t="n">
         <v>15</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K607" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L607" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M607" t="n">
-        <v>6250</v>
+        <v>1750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="K608" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L608" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M608" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44201,38 +44201,254 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J609" t="n">
+        <v>250</v>
+      </c>
+      <c r="K609" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L609" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M609" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P609" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>18</v>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>1</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E610" t="n">
+        <v>15</v>
+      </c>
+      <c r="F610" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J610" t="n">
+        <v>500</v>
+      </c>
+      <c r="K610" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L610" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M610" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P610" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>18</v>
+      </c>
+      <c r="R610" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>1</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D611" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E611" t="n">
+        <v>15</v>
+      </c>
+      <c r="F611" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J611" t="n">
+        <v>270</v>
+      </c>
+      <c r="K611" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L611" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M611" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P611" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>18</v>
+      </c>
+      <c r="R611" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>1</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D612" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E612" t="n">
+        <v>15</v>
+      </c>
+      <c r="F612" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J609" t="n">
+      <c r="J612" t="n">
         <v>300</v>
       </c>
-      <c r="K609" t="n">
+      <c r="K612" t="n">
         <v>4000</v>
       </c>
-      <c r="L609" t="n">
+      <c r="L612" t="n">
         <v>5000</v>
       </c>
-      <c r="M609" t="n">
+      <c r="M612" t="n">
         <v>4500</v>
       </c>
-      <c r="N609" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O609" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P609" t="n">
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P612" t="n">
         <v>250</v>
       </c>
-      <c r="Q609" t="n">
-        <v>18</v>
-      </c>
-      <c r="R609" t="inlineStr">
+      <c r="Q612" t="n">
+        <v>18</v>
+      </c>
+      <c r="R612" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R615"/>
+  <dimension ref="A1:R618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44498</v>
+        <v>44572</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K419" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L419" t="n">
         <v>3000</v>
       </c>
       <c r="M419" t="n">
-        <v>2900</v>
+        <v>2750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44498</v>
+        <v>44572</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30600,17 +30600,17 @@
         <v>270</v>
       </c>
       <c r="K420" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L420" t="n">
         <v>2500</v>
       </c>
-      <c r="L420" t="n">
-        <v>2800</v>
-      </c>
       <c r="M420" t="n">
-        <v>2650</v>
+        <v>2250</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44498</v>
+        <v>44572</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30672,17 +30672,17 @@
         <v>300</v>
       </c>
       <c r="K421" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L421" t="n">
         <v>2000</v>
       </c>
-      <c r="L421" t="n">
-        <v>2500</v>
-      </c>
       <c r="M421" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,7 +30741,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K422" t="n">
         <v>2800</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,7 +30813,7 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K423" t="n">
         <v>2500</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,7 +30885,7 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K424" t="n">
         <v>2000</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44489</v>
+        <v>44498</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K425" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L425" t="n">
         <v>3000</v>
       </c>
-      <c r="L425" t="n">
-        <v>3500</v>
-      </c>
       <c r="M425" t="n">
-        <v>3250</v>
+        <v>2900</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44489</v>
+        <v>44498</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K426" t="n">
         <v>2500</v>
       </c>
       <c r="L426" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M426" t="n">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44489</v>
+        <v>44498</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31101,7 +31101,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K427" t="n">
         <v>2000</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44449</v>
+        <v>44489</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K428" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L428" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M428" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44449</v>
+        <v>44489</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K429" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L429" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M429" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44449</v>
+        <v>44489</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K430" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L430" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M430" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K431" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L431" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M431" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31452,12 +31452,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J432" t="n">
@@ -31524,25 +31524,25 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K433" t="n">
         <v>3000</v>
       </c>
       <c r="L433" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M433" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31596,25 +31596,25 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K434" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L434" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M434" t="n">
-        <v>2750</v>
+        <v>3500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44526</v>
+        <v>44449</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31680,13 +31680,13 @@
         <v>300</v>
       </c>
       <c r="K435" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L435" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M435" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44526</v>
+        <v>44449</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31752,13 +31752,13 @@
         <v>350</v>
       </c>
       <c r="K436" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L436" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M436" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44526</v>
+        <v>44449</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K437" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L437" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M437" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44271</v>
+        <v>44526</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K438" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="L438" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M438" t="n">
-        <v>6250</v>
+        <v>2900</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44271</v>
+        <v>44526</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K439" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L439" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="M439" t="n">
-        <v>5750</v>
+        <v>2650</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44271</v>
+        <v>44526</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K440" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L440" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M440" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44476</v>
+        <v>44271</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K441" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L441" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M441" t="n">
-        <v>2750</v>
+        <v>6250</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44476</v>
+        <v>44271</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32184,13 +32184,13 @@
         <v>300</v>
       </c>
       <c r="K442" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L442" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M442" t="n">
-        <v>2250</v>
+        <v>5750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44476</v>
+        <v>44271</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K443" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L443" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M443" t="n">
-        <v>1900</v>
+        <v>4750</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44218</v>
+        <v>44476</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32328,13 +32328,13 @@
         <v>270</v>
       </c>
       <c r="K444" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L444" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M444" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>417</v>
+        <v>153</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44218</v>
+        <v>44476</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32400,13 +32400,13 @@
         <v>300</v>
       </c>
       <c r="K445" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L445" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M445" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44218</v>
+        <v>44476</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K446" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L446" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M446" t="n">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>850</v>
+        <v>270</v>
       </c>
       <c r="K447" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L447" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M447" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>920</v>
+        <v>300</v>
       </c>
       <c r="K448" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L448" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M448" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="K449" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L449" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M449" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44447</v>
+        <v>44218</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="K450" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L450" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M450" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44447</v>
+        <v>44218</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>360</v>
+        <v>920</v>
       </c>
       <c r="K451" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L451" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M451" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44447</v>
+        <v>44218</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K452" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L452" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M452" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44167</v>
+        <v>44447</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K453" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L453" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M453" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44167</v>
+        <v>44447</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K454" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L454" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M454" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44167</v>
+        <v>44447</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K455" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L455" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M455" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44251</v>
+        <v>44167</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K456" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L456" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M456" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44251</v>
+        <v>44167</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K457" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L457" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M457" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44251</v>
+        <v>44167</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K458" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L458" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M458" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K459" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L459" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M459" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K460" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L460" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M460" t="n">
-        <v>2250</v>
+        <v>4250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K461" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L461" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M461" t="n">
-        <v>1750</v>
+        <v>3250</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K462" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L462" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M462" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K463" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L463" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M463" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K464" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L464" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M464" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33840,13 +33840,13 @@
         <v>400</v>
       </c>
       <c r="K465" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M465" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K466" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L466" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M466" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44491</v>
+        <v>44208</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33972,25 +33972,25 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K467" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L467" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M467" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34044,25 +34044,25 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K468" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L468" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M468" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34116,25 +34116,25 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K469" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L469" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M469" t="n">
-        <v>2250</v>
+        <v>6750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,7 +34197,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K470" t="n">
         <v>3000</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K471" t="n">
         <v>2500</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,7 +34341,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K472" t="n">
         <v>2000</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34416,13 +34416,13 @@
         <v>250</v>
       </c>
       <c r="K473" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L473" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M473" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K474" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L474" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M474" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="K475" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L475" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M475" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K476" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L476" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M476" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K477" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L477" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M477" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K478" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L478" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M478" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K479" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L479" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M479" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>375</v>
+        <v>217</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K480" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L480" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M480" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K481" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L481" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M481" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K482" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L482" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M482" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K483" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L483" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M483" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L484" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M484" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35277,7 +35277,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K485" t="n">
         <v>4500</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35349,7 +35349,7 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K486" t="n">
         <v>4000</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35421,7 +35421,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="K487" t="n">
         <v>3500</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K488" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L488" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M488" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K489" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L489" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M489" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K490" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L490" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M490" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K491" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L491" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M491" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L492" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M492" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35856,13 +35856,13 @@
         <v>500</v>
       </c>
       <c r="K493" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L493" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M493" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K494" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L494" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M494" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K495" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L495" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M495" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K496" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L496" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M496" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K497" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L497" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M497" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K498" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L498" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M498" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K499" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L499" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M499" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K500" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L500" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M500" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K501" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L501" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M501" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E502" t="n">
         <v>15</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K502" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L502" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M502" t="n">
-        <v>2250</v>
+        <v>4250</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K503" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L503" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M503" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K504" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L504" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M504" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K505" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L505" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M505" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E506" t="n">
         <v>15</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K506" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L506" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M506" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E507" t="n">
         <v>15</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K507" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L507" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M507" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E508" t="n">
         <v>15</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K508" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L508" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M508" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K509" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L509" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M509" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K510" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L510" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M510" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K511" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L511" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M511" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K512" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L512" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M512" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E513" t="n">
         <v>15</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K513" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L513" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M513" t="n">
-        <v>5750</v>
+        <v>6273</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44281</v>
+        <v>44321</v>
       </c>
       <c r="E514" t="n">
         <v>15</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K514" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L514" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M514" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K515" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L515" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M515" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K516" t="n">
         <v>5500</v>
       </c>
       <c r="L516" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M516" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,7 +37581,7 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K517" t="n">
         <v>4500</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E518" t="n">
         <v>15</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K518" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L518" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M518" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E519" t="n">
         <v>15</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K519" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L519" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M519" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K520" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L520" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M520" t="n">
-        <v>2325</v>
+        <v>4750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E521" t="n">
         <v>15</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37872,13 +37872,13 @@
         <v>250</v>
       </c>
       <c r="K521" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L521" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M521" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E522" t="n">
         <v>15</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="K522" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L522" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M522" t="n">
-        <v>4750</v>
+        <v>3000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E523" t="n">
         <v>15</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K523" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L523" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M523" t="n">
-        <v>4250</v>
+        <v>2325</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44257</v>
+        <v>44350</v>
       </c>
       <c r="E524" t="n">
         <v>15</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K524" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L524" t="n">
         <v>5500</v>
       </c>
-      <c r="L524" t="n">
-        <v>6000</v>
-      </c>
       <c r="M524" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44257</v>
+        <v>44350</v>
       </c>
       <c r="E525" t="n">
         <v>15</v>
@@ -38157,7 +38157,7 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K525" t="n">
         <v>4500</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44257</v>
+        <v>44350</v>
       </c>
       <c r="E526" t="n">
         <v>15</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E527" t="n">
         <v>15</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K527" t="n">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="L527" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M527" t="n">
-        <v>3400</v>
+        <v>5750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E528" t="n">
         <v>15</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K528" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L528" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="M528" t="n">
-        <v>3150</v>
+        <v>4750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E529" t="n">
         <v>15</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J529" t="n">
         <v>300</v>
       </c>
       <c r="K529" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L529" t="n">
         <v>4500</v>
       </c>
-      <c r="L529" t="n">
-        <v>5000</v>
-      </c>
       <c r="M529" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E530" t="n">
         <v>15</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K530" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="L530" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M530" t="n">
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E531" t="n">
         <v>15</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K531" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L531" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M531" t="n">
-        <v>3750</v>
+        <v>3150</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E532" t="n">
         <v>15</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K532" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L532" t="n">
         <v>5000</v>
       </c>
-      <c r="L532" t="n">
-        <v>5500</v>
-      </c>
       <c r="M532" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E533" t="n">
         <v>15</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K533" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L533" t="n">
         <v>4500</v>
       </c>
-      <c r="L533" t="n">
-        <v>5000</v>
-      </c>
       <c r="M533" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E534" t="n">
         <v>15</v>
@@ -38805,7 +38805,7 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="K534" t="n">
         <v>3500</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E535" t="n">
         <v>15</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K535" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L535" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M535" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E536" t="n">
         <v>15</v>
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K536" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L536" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M536" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E537" t="n">
         <v>15</v>
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
       <c r="K537" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L537" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M537" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E538" t="n">
         <v>15</v>
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K538" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L538" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M538" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E539" t="n">
         <v>15</v>
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K539" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L539" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M539" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E540" t="n">
         <v>15</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="K540" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L540" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M540" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E541" t="n">
         <v>15</v>
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K541" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L541" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M541" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E542" t="n">
         <v>15</v>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>350</v>
+        <v>760</v>
       </c>
       <c r="K542" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L542" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M542" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E543" t="n">
         <v>15</v>
@@ -39444,7 +39444,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>370</v>
+        <v>850</v>
       </c>
       <c r="K543" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L543" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M543" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -39528,13 +39528,13 @@
         <v>300</v>
       </c>
       <c r="K544" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L544" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M544" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39600,13 +39600,13 @@
         <v>350</v>
       </c>
       <c r="K545" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L545" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M545" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K546" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L546" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M546" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E547" t="n">
         <v>15</v>
@@ -39732,7 +39732,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K547" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L547" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M547" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E548" t="n">
         <v>15</v>
@@ -39804,7 +39804,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K548" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L548" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M548" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E549" t="n">
         <v>15</v>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="K549" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L549" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M549" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K550" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L550" t="n">
         <v>6000</v>
       </c>
-      <c r="L550" t="n">
-        <v>6500</v>
-      </c>
       <c r="M550" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40020,7 +40020,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>530</v>
+        <v>270</v>
       </c>
       <c r="K551" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L551" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M551" t="n">
-        <v>5764</v>
+        <v>4750</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="K552" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L552" t="n">
         <v>4500</v>
       </c>
-      <c r="L552" t="n">
-        <v>5000</v>
-      </c>
       <c r="M552" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E553" t="n">
         <v>15</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K553" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L553" t="n">
-        <v>3700</v>
+        <v>6500</v>
       </c>
       <c r="M553" t="n">
-        <v>3600</v>
+        <v>6250</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E554" t="n">
         <v>15</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="K554" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L554" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M554" t="n">
-        <v>3250</v>
+        <v>5764</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E555" t="n">
         <v>15</v>
@@ -40308,7 +40308,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="K555" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L555" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M555" t="n">
-        <v>2250</v>
+        <v>4750</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K556" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L556" t="n">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="M556" t="n">
-        <v>3250</v>
+        <v>3600</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="K557" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L557" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M557" t="n">
-        <v>2769</v>
+        <v>3250</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40524,7 +40524,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -40533,7 +40533,7 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K558" t="n">
         <v>2000</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E559" t="n">
         <v>15</v>
@@ -40596,7 +40596,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K559" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L559" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M559" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>417</v>
+        <v>181</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E560" t="n">
         <v>15</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="K560" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L560" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M560" t="n">
-        <v>6250</v>
+        <v>2769</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>347</v>
+        <v>154</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E561" t="n">
         <v>15</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K561" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L561" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M561" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K562" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L562" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M562" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K563" t="n">
         <v>5500</v>
       </c>
       <c r="L563" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M563" t="n">
-        <v>5778</v>
+        <v>6250</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,7 +40965,7 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K564" t="n">
         <v>4500</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E565" t="n">
         <v>15</v>
@@ -41028,7 +41028,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K565" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L565" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M565" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E566" t="n">
         <v>15</v>
@@ -41100,7 +41100,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K566" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L566" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M566" t="n">
-        <v>3250</v>
+        <v>5778</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E567" t="n">
         <v>15</v>
@@ -41172,7 +41172,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K567" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L567" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M567" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41244,7 +41244,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -41256,13 +41256,13 @@
         <v>300</v>
       </c>
       <c r="K568" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="L568" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M568" t="n">
-        <v>2400</v>
+        <v>3750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41328,13 +41328,13 @@
         <v>350</v>
       </c>
       <c r="K569" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L569" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M569" t="n">
-        <v>2150</v>
+        <v>3250</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="K570" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L570" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M570" t="n">
-        <v>1900</v>
+        <v>2750</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E571" t="n">
         <v>15</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K571" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L571" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M571" t="n">
-        <v>3750</v>
+        <v>2400</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E572" t="n">
         <v>15</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K572" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L572" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M572" t="n">
-        <v>3250</v>
+        <v>2150</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E573" t="n">
         <v>15</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="K573" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L573" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M573" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E574" t="n">
         <v>15</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K574" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L574" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M574" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E575" t="n">
         <v>15</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K575" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L575" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M575" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E576" t="n">
         <v>15</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K576" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L576" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M576" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E577" t="n">
         <v>15</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="K577" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L577" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M577" t="n">
-        <v>5722</v>
+        <v>2750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E578" t="n">
         <v>15</v>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K578" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L578" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M578" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42036,7 +42036,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K579" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L579" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M579" t="n">
-        <v>5900</v>
+        <v>6250</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="K580" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L580" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M580" t="n">
-        <v>5250</v>
+        <v>5722</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,7 +42189,7 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K581" t="n">
         <v>4500</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E582" t="n">
         <v>15</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K582" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L582" t="n">
         <v>6000</v>
       </c>
-      <c r="L582" t="n">
-        <v>7000</v>
-      </c>
       <c r="M582" t="n">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E583" t="n">
         <v>15</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K583" t="n">
         <v>5000</v>
       </c>
       <c r="L583" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M583" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E584" t="n">
         <v>15</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K584" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L584" t="n">
         <v>5000</v>
       </c>
       <c r="M584" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K585" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L585" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M585" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K586" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L586" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M586" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42612,7 +42612,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -42621,17 +42621,17 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K587" t="n">
         <v>4000</v>
       </c>
       <c r="L587" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M587" t="n">
         <v>4500</v>
       </c>
-      <c r="M587" t="n">
-        <v>4250</v>
-      </c>
       <c r="N587" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E588" t="n">
         <v>15</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K588" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L588" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M588" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E589" t="n">
         <v>15</v>
@@ -42765,7 +42765,7 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K589" t="n">
         <v>4500</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E590" t="n">
         <v>15</v>
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K590" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L590" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M590" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E591" t="n">
         <v>15</v>
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K591" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L591" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M591" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E592" t="n">
         <v>15</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K592" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L592" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M592" t="n">
-        <v>2250</v>
+        <v>4750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E593" t="n">
         <v>15</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K593" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L593" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M593" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E594" t="n">
         <v>15</v>
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K594" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L594" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M594" t="n">
-        <v>5333</v>
+        <v>2750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E595" t="n">
         <v>15</v>
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K595" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L595" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M595" t="n">
-        <v>4700</v>
+        <v>2250</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E596" t="n">
         <v>15</v>
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K596" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L596" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M596" t="n">
-        <v>3750</v>
+        <v>1750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E597" t="n">
         <v>15</v>
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K597" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L597" t="n">
         <v>5500</v>
       </c>
       <c r="M597" t="n">
-        <v>4781</v>
+        <v>5333</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E598" t="n">
         <v>15</v>
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K598" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L598" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M598" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E599" t="n">
         <v>15</v>
@@ -43476,25 +43476,25 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J599" t="n">
         <v>200</v>
       </c>
       <c r="K599" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L599" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M599" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E600" t="n">
         <v>15</v>
@@ -43548,25 +43548,25 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="K600" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L600" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M600" t="n">
-        <v>2727</v>
+        <v>4781</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E601" t="n">
         <v>15</v>
@@ -43620,25 +43620,25 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K601" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L601" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M601" t="n">
-        <v>2250</v>
+        <v>4000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K602" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L602" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M602" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K603" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L603" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M603" t="n">
-        <v>2400</v>
+        <v>2727</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K604" t="n">
         <v>2000</v>
       </c>
       <c r="L604" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M604" t="n">
-        <v>2150</v>
+        <v>2250</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E605" t="n">
         <v>15</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,7 +43917,7 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K605" t="n">
         <v>2500</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E606" t="n">
         <v>15</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K606" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L606" t="n">
         <v>2500</v>
       </c>
       <c r="M606" t="n">
-        <v>2250</v>
+        <v>2400</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E607" t="n">
         <v>15</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K607" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L607" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M607" t="n">
-        <v>1750</v>
+        <v>2150</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -44133,7 +44133,7 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K608" t="n">
         <v>2500</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44205,7 +44205,7 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K609" t="n">
         <v>2000</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,7 +44277,7 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K610" t="n">
         <v>1500</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E611" t="n">
         <v>15</v>
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K611" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L611" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M611" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E612" t="n">
         <v>15</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K612" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L612" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M612" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E613" t="n">
         <v>15</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K613" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L613" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M613" t="n">
-        <v>6250</v>
+        <v>1750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="K614" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L614" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M614" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44633,38 +44633,254 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J615" t="n">
+        <v>250</v>
+      </c>
+      <c r="K615" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L615" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M615" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P615" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>18</v>
+      </c>
+      <c r="R615" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>1</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D616" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E616" t="n">
+        <v>15</v>
+      </c>
+      <c r="F616" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J616" t="n">
+        <v>500</v>
+      </c>
+      <c r="K616" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L616" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M616" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P616" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>18</v>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>1</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E617" t="n">
+        <v>15</v>
+      </c>
+      <c r="F617" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J617" t="n">
+        <v>270</v>
+      </c>
+      <c r="K617" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L617" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M617" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N617" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P617" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>18</v>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>1</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E618" t="n">
+        <v>15</v>
+      </c>
+      <c r="F618" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J615" t="n">
+      <c r="J618" t="n">
         <v>300</v>
       </c>
-      <c r="K615" t="n">
+      <c r="K618" t="n">
         <v>4000</v>
       </c>
-      <c r="L615" t="n">
+      <c r="L618" t="n">
         <v>5000</v>
       </c>
-      <c r="M615" t="n">
+      <c r="M618" t="n">
         <v>4500</v>
       </c>
-      <c r="N615" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O615" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P615" t="n">
+      <c r="N618" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P618" t="n">
         <v>250</v>
       </c>
-      <c r="Q615" t="n">
-        <v>18</v>
-      </c>
-      <c r="R615" t="inlineStr">
+      <c r="Q618" t="n">
+        <v>18</v>
+      </c>
+      <c r="R618" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R621"/>
+  <dimension ref="A1:R627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E573" t="n">
         <v>15</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41616,13 +41616,13 @@
         <v>250</v>
       </c>
       <c r="K573" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L573" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M573" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E574" t="n">
         <v>15</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41688,13 +41688,13 @@
         <v>300</v>
       </c>
       <c r="K574" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L574" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M574" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E575" t="n">
         <v>15</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41760,13 +41760,13 @@
         <v>300</v>
       </c>
       <c r="K575" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L575" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M575" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44491</v>
+        <v>44578</v>
       </c>
       <c r="E576" t="n">
         <v>15</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K576" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L576" t="n">
         <v>3000</v>
       </c>
-      <c r="L576" t="n">
-        <v>3500</v>
-      </c>
       <c r="M576" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44491</v>
+        <v>44578</v>
       </c>
       <c r="E577" t="n">
         <v>15</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41904,13 +41904,13 @@
         <v>300</v>
       </c>
       <c r="K577" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L577" t="n">
         <v>2500</v>
       </c>
-      <c r="L577" t="n">
-        <v>3000</v>
-      </c>
       <c r="M577" t="n">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44491</v>
+        <v>44578</v>
       </c>
       <c r="E578" t="n">
         <v>15</v>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K578" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L578" t="n">
         <v>2000</v>
       </c>
-      <c r="L578" t="n">
-        <v>2500</v>
-      </c>
       <c r="M578" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E579" t="n">
         <v>15</v>
@@ -42048,13 +42048,13 @@
         <v>250</v>
       </c>
       <c r="K579" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L579" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M579" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E580" t="n">
         <v>15</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K580" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L580" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M580" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E581" t="n">
         <v>15</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K581" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L581" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M581" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E582" t="n">
         <v>15</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42264,13 +42264,13 @@
         <v>200</v>
       </c>
       <c r="K582" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L582" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M582" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>403</v>
+        <v>181</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E583" t="n">
         <v>15</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K583" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L583" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M583" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E584" t="n">
         <v>15</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K584" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L584" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M584" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44533</v>
+        <v>44491</v>
       </c>
       <c r="E585" t="n">
         <v>15</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,7 +42477,7 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K585" t="n">
         <v>3000</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44533</v>
+        <v>44491</v>
       </c>
       <c r="E586" t="n">
         <v>15</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42549,7 +42549,7 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="K586" t="n">
         <v>2500</v>
@@ -42558,7 +42558,7 @@
         <v>3000</v>
       </c>
       <c r="M586" t="n">
-        <v>2769</v>
+        <v>2750</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44533</v>
+        <v>44491</v>
       </c>
       <c r="E587" t="n">
         <v>15</v>
@@ -42612,7 +42612,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -42621,7 +42621,7 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K587" t="n">
         <v>2000</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44533</v>
+        <v>44293</v>
       </c>
       <c r="E588" t="n">
         <v>15</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K588" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L588" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M588" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44533</v>
+        <v>44293</v>
       </c>
       <c r="E589" t="n">
         <v>15</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K589" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L589" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M589" t="n">
-        <v>2750</v>
+        <v>6250</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44533</v>
+        <v>44293</v>
       </c>
       <c r="E590" t="n">
         <v>15</v>
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K590" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L590" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M590" t="n">
-        <v>2250</v>
+        <v>5250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E591" t="n">
         <v>15</v>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K591" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L591" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M591" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E592" t="n">
         <v>15</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="K592" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L592" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M592" t="n">
-        <v>6750</v>
+        <v>2769</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>375</v>
+        <v>154</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E593" t="n">
         <v>15</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J593" t="n">
         <v>250</v>
       </c>
       <c r="K593" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L593" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M593" t="n">
-        <v>2900</v>
+        <v>2250</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E594" t="n">
         <v>15</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K594" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L594" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M594" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E595" t="n">
         <v>15</v>
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J595" t="n">
         <v>300</v>
       </c>
       <c r="K595" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L595" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M595" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E596" t="n">
         <v>15</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="K596" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L596" t="n">
         <v>2500</v>
       </c>
-      <c r="L596" t="n">
-        <v>3000</v>
-      </c>
       <c r="M596" t="n">
-        <v>2735</v>
+        <v>2250</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E597" t="n">
         <v>15</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="K597" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L597" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M597" t="n">
-        <v>2231</v>
+        <v>6750</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>124</v>
+        <v>375</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E598" t="n">
         <v>15</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K598" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L598" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M598" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E599" t="n">
         <v>15</v>
@@ -43476,25 +43476,25 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="K599" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L599" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M599" t="n">
-        <v>2250</v>
+        <v>2900</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E600" t="n">
         <v>15</v>
@@ -43548,25 +43548,25 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K600" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L600" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M600" t="n">
-        <v>1750</v>
+        <v>2650</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44277</v>
+        <v>44494</v>
       </c>
       <c r="E601" t="n">
         <v>15</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K601" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L601" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M601" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44277</v>
+        <v>44494</v>
       </c>
       <c r="E602" t="n">
         <v>15</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="K602" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L602" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M602" t="n">
-        <v>5500</v>
+        <v>2735</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44277</v>
+        <v>44494</v>
       </c>
       <c r="E603" t="n">
         <v>15</v>
@@ -43764,25 +43764,25 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="K603" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L603" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M603" t="n">
-        <v>4500</v>
+        <v>2231</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E604" t="n">
         <v>15</v>
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K604" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L604" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M604" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E605" t="n">
         <v>15</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K605" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L605" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M605" t="n">
-        <v>5750</v>
+        <v>2250</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E606" t="n">
         <v>15</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K606" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="L606" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M606" t="n">
-        <v>4750</v>
+        <v>1750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E607" t="n">
         <v>15</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K607" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="L607" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M607" t="n">
-        <v>2900</v>
+        <v>6500</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E608" t="n">
         <v>15</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K608" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L608" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="M608" t="n">
-        <v>2650</v>
+        <v>5500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E609" t="n">
         <v>15</v>
@@ -44205,29 +44205,29 @@
         </is>
       </c>
       <c r="J609" t="n">
+        <v>200</v>
+      </c>
+      <c r="K609" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L609" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M609" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P609" t="n">
         <v>250</v>
-      </c>
-      <c r="K609" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L609" t="n">
-        <v>2500</v>
-      </c>
-      <c r="M609" t="n">
-        <v>2250</v>
-      </c>
-      <c r="N609" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O609" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P609" t="n">
-        <v>125</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E610" t="n">
         <v>15</v>
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K610" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L610" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E611" t="n">
         <v>15</v>
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L611" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M611" t="n">
-        <v>2250</v>
+        <v>5750</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E612" t="n">
         <v>15</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K612" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L612" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M612" t="n">
-        <v>1900</v>
+        <v>4750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E613" t="n">
         <v>15</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K613" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="L613" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M613" t="n">
-        <v>7250</v>
+        <v>2900</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>403</v>
+        <v>161</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E614" t="n">
         <v>15</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K614" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L614" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="M614" t="n">
-        <v>6250</v>
+        <v>2650</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E615" t="n">
         <v>15</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K615" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L615" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M615" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44312</v>
+        <v>44525</v>
       </c>
       <c r="E616" t="n">
         <v>15</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L616" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M616" t="n">
-        <v>7250</v>
+        <v>2750</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44312</v>
+        <v>44525</v>
       </c>
       <c r="E617" t="n">
         <v>15</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K617" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L617" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="M617" t="n">
-        <v>6250</v>
+        <v>2250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44312</v>
+        <v>44525</v>
       </c>
       <c r="E618" t="n">
         <v>15</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K618" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L618" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="M618" t="n">
-        <v>5250</v>
+        <v>1900</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44312</v>
+        <v>44327</v>
       </c>
       <c r="E619" t="n">
         <v>15</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K619" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L619" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M619" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44312</v>
+        <v>44327</v>
       </c>
       <c r="E620" t="n">
         <v>15</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K620" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L620" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M620" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44312</v>
+        <v>44327</v>
       </c>
       <c r="E621" t="n">
         <v>15</v>
@@ -45069,7 +45069,7 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K621" t="n">
         <v>5000</v>
@@ -45097,6 +45097,438 @@
         <v>18</v>
       </c>
       <c r="R621" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>1</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D622" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E622" t="n">
+        <v>15</v>
+      </c>
+      <c r="F622" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J622" t="n">
+        <v>300</v>
+      </c>
+      <c r="K622" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L622" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M622" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N622" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O622" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P622" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>18</v>
+      </c>
+      <c r="R622" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>1</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D623" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E623" t="n">
+        <v>15</v>
+      </c>
+      <c r="F623" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J623" t="n">
+        <v>450</v>
+      </c>
+      <c r="K623" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L623" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M623" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N623" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O623" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P623" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>18</v>
+      </c>
+      <c r="R623" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>1</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D624" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E624" t="n">
+        <v>15</v>
+      </c>
+      <c r="F624" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J624" t="n">
+        <v>450</v>
+      </c>
+      <c r="K624" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L624" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M624" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N624" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O624" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P624" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q624" t="n">
+        <v>18</v>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>1</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E625" t="n">
+        <v>15</v>
+      </c>
+      <c r="F625" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J625" t="n">
+        <v>400</v>
+      </c>
+      <c r="K625" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L625" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M625" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N625" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O625" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P625" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q625" t="n">
+        <v>18</v>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>1</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D626" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E626" t="n">
+        <v>15</v>
+      </c>
+      <c r="F626" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J626" t="n">
+        <v>450</v>
+      </c>
+      <c r="K626" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L626" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M626" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N626" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O626" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P626" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q626" t="n">
+        <v>18</v>
+      </c>
+      <c r="R626" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>1</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E627" t="n">
+        <v>15</v>
+      </c>
+      <c r="F627" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J627" t="n">
+        <v>500</v>
+      </c>
+      <c r="K627" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L627" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M627" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N627" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O627" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P627" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>18</v>
+      </c>
+      <c r="R627" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R633"/>
+  <dimension ref="A1:R636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44344</v>
+        <v>44588</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K446" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L446" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M446" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44344</v>
+        <v>44588</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K447" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L447" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M447" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44344</v>
+        <v>44588</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K448" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L448" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M448" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44536</v>
+        <v>44344</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32688,13 +32688,13 @@
         <v>250</v>
       </c>
       <c r="K449" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L449" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M449" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44536</v>
+        <v>44344</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K450" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L450" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M450" t="n">
-        <v>2750</v>
+        <v>4750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44536</v>
+        <v>44344</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K451" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L451" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M451" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K452" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L452" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M452" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K453" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L453" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M453" t="n">
-        <v>5727</v>
+        <v>2750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44447</v>
+        <v>44536</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J454" t="n">
         <v>300</v>
       </c>
       <c r="K454" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L454" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M454" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44447</v>
+        <v>44334</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K455" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L455" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M455" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44447</v>
+        <v>44334</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="K456" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L456" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>2750</v>
+        <v>5727</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44277</v>
+        <v>44447</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K457" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L457" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M457" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44277</v>
+        <v>44447</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K458" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L458" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M458" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44277</v>
+        <v>44447</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K459" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L459" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M459" t="n">
-        <v>4500</v>
+        <v>2750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K460" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L460" t="n">
         <v>7000</v>
       </c>
       <c r="M460" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K461" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L461" t="n">
         <v>6000</v>
       </c>
       <c r="M461" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K462" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L462" t="n">
         <v>5000</v>
       </c>
       <c r="M462" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44454</v>
+        <v>44277</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33696,13 +33696,13 @@
         <v>200</v>
       </c>
       <c r="K463" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L463" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M463" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44454</v>
+        <v>44277</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K464" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L464" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M464" t="n">
-        <v>2727</v>
+        <v>5750</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44454</v>
+        <v>44277</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K465" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L465" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M465" t="n">
-        <v>2250</v>
+        <v>4750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K466" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L466" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M466" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K467" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L467" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M467" t="n">
-        <v>2400</v>
+        <v>2727</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K468" t="n">
         <v>2000</v>
       </c>
       <c r="L468" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M468" t="n">
-        <v>2150</v>
+        <v>2250</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44202</v>
+        <v>44454</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K469" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L469" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M469" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44202</v>
+        <v>44454</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K470" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="L470" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M470" t="n">
-        <v>4250</v>
+        <v>2400</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44202</v>
+        <v>44454</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K471" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L471" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M471" t="n">
-        <v>3750</v>
+        <v>2150</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K472" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L472" t="n">
         <v>5000</v>
       </c>
-      <c r="L472" t="n">
-        <v>5500</v>
-      </c>
       <c r="M472" t="n">
-        <v>5333</v>
+        <v>4750</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34416,13 +34416,13 @@
         <v>250</v>
       </c>
       <c r="K473" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L473" t="n">
         <v>4500</v>
       </c>
-      <c r="L473" t="n">
-        <v>5000</v>
-      </c>
       <c r="M473" t="n">
-        <v>4700</v>
+        <v>4250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34485,7 +34485,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K474" t="n">
         <v>3500</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44249</v>
+        <v>44371</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>335</v>
+        <v>450</v>
       </c>
       <c r="K475" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L475" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M475" t="n">
-        <v>3948</v>
+        <v>5333</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44249</v>
+        <v>44371</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>385</v>
+        <v>250</v>
       </c>
       <c r="K476" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L476" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M476" t="n">
-        <v>3487</v>
+        <v>4700</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44225</v>
+        <v>44371</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34692,25 +34692,25 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K477" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L477" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M477" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E478" t="n">
         <v>15</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="K478" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L478" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M478" t="n">
-        <v>5250</v>
+        <v>3948</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34836,25 +34836,25 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="K479" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L479" t="n">
         <v>4000</v>
       </c>
-      <c r="L479" t="n">
-        <v>4500</v>
-      </c>
       <c r="M479" t="n">
-        <v>4250</v>
+        <v>3487</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>870</v>
+        <v>300</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L480" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M480" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>920</v>
+        <v>350</v>
       </c>
       <c r="K481" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L481" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M481" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,7 +35061,7 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="K482" t="n">
         <v>4000</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44330</v>
+        <v>44225</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>300</v>
+        <v>870</v>
       </c>
       <c r="K483" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L483" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M483" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44330</v>
+        <v>44225</v>
       </c>
       <c r="E484" t="n">
         <v>15</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>400</v>
+        <v>920</v>
       </c>
       <c r="K484" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L484" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M484" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44330</v>
+        <v>44225</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>470</v>
+        <v>850</v>
       </c>
       <c r="K485" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L485" t="n">
         <v>4500</v>
       </c>
-      <c r="L485" t="n">
-        <v>5000</v>
-      </c>
       <c r="M485" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K486" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L486" t="n">
         <v>7000</v>
       </c>
-      <c r="L486" t="n">
-        <v>7500</v>
-      </c>
       <c r="M486" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K487" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L487" t="n">
         <v>6000</v>
       </c>
-      <c r="L487" t="n">
-        <v>6500</v>
-      </c>
       <c r="M487" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>700</v>
+        <v>470</v>
       </c>
       <c r="K488" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L488" t="n">
         <v>5000</v>
       </c>
-      <c r="L488" t="n">
-        <v>5500</v>
-      </c>
       <c r="M488" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44396</v>
+        <v>44330</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K489" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M489" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44396</v>
+        <v>44330</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="K490" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L490" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M490" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44396</v>
+        <v>44330</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K491" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L491" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M491" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K492" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L492" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M492" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K493" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L493" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M493" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K494" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L494" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M494" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44494</v>
+        <v>44396</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K495" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L495" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M495" t="n">
-        <v>2900</v>
+        <v>4750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44494</v>
+        <v>44396</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K496" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L496" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="M496" t="n">
-        <v>2650</v>
+        <v>4250</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44494</v>
+        <v>44396</v>
       </c>
       <c r="E497" t="n">
         <v>15</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K497" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L497" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M497" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="K498" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L498" t="n">
         <v>3000</v>
       </c>
       <c r="M498" t="n">
-        <v>2735</v>
+        <v>2900</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="K499" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L499" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M499" t="n">
-        <v>2231</v>
+        <v>2650</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44526</v>
+        <v>44494</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36348,25 +36348,25 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J500" t="n">
         <v>300</v>
       </c>
       <c r="K500" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L500" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M500" t="n">
-        <v>2900</v>
+        <v>2250</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44526</v>
+        <v>44494</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="K501" t="n">
         <v>2500</v>
       </c>
       <c r="L501" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M501" t="n">
-        <v>2650</v>
+        <v>2735</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44526</v>
+        <v>44494</v>
       </c>
       <c r="E502" t="n">
         <v>15</v>
@@ -36497,11 +36497,11 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="K502" t="n">
         <v>2000</v>
@@ -36510,7 +36510,7 @@
         <v>2500</v>
       </c>
       <c r="M502" t="n">
-        <v>2250</v>
+        <v>2231</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44264</v>
+        <v>44526</v>
       </c>
       <c r="E503" t="n">
         <v>15</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K503" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L503" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M503" t="n">
-        <v>6750</v>
+        <v>2900</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>375</v>
+        <v>161</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44264</v>
+        <v>44526</v>
       </c>
       <c r="E504" t="n">
         <v>15</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K504" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L504" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="M504" t="n">
-        <v>6750</v>
+        <v>2650</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36663,11 +36663,11 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E505" t="n">
         <v>15</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K505" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L505" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M505" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44533</v>
+        <v>44264</v>
       </c>
       <c r="E506" t="n">
         <v>15</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="K506" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L506" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M506" t="n">
-        <v>2769</v>
+        <v>6750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>154</v>
+        <v>375</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44533</v>
+        <v>44264</v>
       </c>
       <c r="E507" t="n">
         <v>15</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K507" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L507" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M507" t="n">
-        <v>2250</v>
+        <v>6750</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,7 +36933,7 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K508" t="n">
         <v>3000</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,7 +37005,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="K509" t="n">
         <v>2500</v>
@@ -37014,7 +37014,7 @@
         <v>3000</v>
       </c>
       <c r="M509" t="n">
-        <v>2750</v>
+        <v>2769</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,7 +37077,7 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K510" t="n">
         <v>2000</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E511" t="n">
         <v>15</v>
@@ -37149,7 +37149,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K511" t="n">
         <v>3000</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37221,7 +37221,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K512" t="n">
         <v>2500</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E513" t="n">
         <v>15</v>
@@ -37293,7 +37293,7 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K513" t="n">
         <v>2000</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44221</v>
+        <v>44489</v>
       </c>
       <c r="E514" t="n">
         <v>15</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K514" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L514" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M514" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>417</v>
+        <v>181</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44221</v>
+        <v>44489</v>
       </c>
       <c r="E515" t="n">
         <v>15</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K515" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L515" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M515" t="n">
-        <v>6500</v>
+        <v>2750</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>361</v>
+        <v>153</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44221</v>
+        <v>44489</v>
       </c>
       <c r="E516" t="n">
         <v>15</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K516" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L516" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M516" t="n">
-        <v>5500</v>
+        <v>2250</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>960</v>
+        <v>250</v>
       </c>
       <c r="K517" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M517" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="K518" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L518" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M518" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>1050</v>
+        <v>270</v>
       </c>
       <c r="K519" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="L519" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M519" t="n">
-        <v>2450</v>
+        <v>5500</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44382</v>
+        <v>44221</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="K520" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L520" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M520" t="n">
-        <v>6312</v>
+        <v>5250</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44382</v>
+        <v>44221</v>
       </c>
       <c r="E521" t="n">
         <v>15</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="K521" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L521" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M521" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44382</v>
+        <v>44221</v>
       </c>
       <c r="E522" t="n">
         <v>15</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="K522" t="n">
+        <v>400</v>
+      </c>
+      <c r="L522" t="n">
         <v>4500</v>
       </c>
-      <c r="L522" t="n">
-        <v>5000</v>
-      </c>
       <c r="M522" t="n">
-        <v>4750</v>
+        <v>2450</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K523" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L523" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M523" t="n">
-        <v>4800</v>
+        <v>6312</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K524" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L524" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M524" t="n">
-        <v>4222</v>
+        <v>5750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K525" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L525" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M525" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K526" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L526" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M526" t="n">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K527" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L527" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M527" t="n">
-        <v>3833</v>
+        <v>4222</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44441</v>
+        <v>44382</v>
       </c>
       <c r="E528" t="n">
         <v>15</v>
@@ -38369,11 +38369,11 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K528" t="n">
         <v>3500</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44441</v>
+        <v>44382</v>
       </c>
       <c r="E529" t="n">
         <v>15</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K529" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L529" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M529" t="n">
-        <v>3250</v>
+        <v>4400</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44441</v>
+        <v>44382</v>
       </c>
       <c r="E530" t="n">
         <v>15</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K530" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L530" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M530" t="n">
-        <v>2750</v>
+        <v>3833</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44167</v>
+        <v>44441</v>
       </c>
       <c r="E531" t="n">
         <v>15</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K531" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L531" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M531" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44167</v>
+        <v>44441</v>
       </c>
       <c r="E532" t="n">
         <v>15</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K532" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L532" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M532" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44167</v>
+        <v>44441</v>
       </c>
       <c r="E533" t="n">
         <v>15</v>
@@ -38736,13 +38736,13 @@
         <v>300</v>
       </c>
       <c r="K533" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L533" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M533" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44372</v>
+        <v>44167</v>
       </c>
       <c r="E534" t="n">
         <v>15</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K534" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L534" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M534" t="n">
-        <v>6900</v>
+        <v>5250</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>383</v>
+        <v>292</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44372</v>
+        <v>44167</v>
       </c>
       <c r="E535" t="n">
         <v>15</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K535" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L535" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M535" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44372</v>
+        <v>44167</v>
       </c>
       <c r="E536" t="n">
         <v>15</v>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K536" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L536" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M536" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K537" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L537" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M537" t="n">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K538" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L538" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M538" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="K539" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L539" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M539" t="n">
-        <v>3737</v>
+        <v>5500</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39228,25 +39228,25 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="K540" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L540" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M540" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39300,25 +39300,25 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="K541" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L541" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M541" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44335</v>
+        <v>44372</v>
       </c>
       <c r="E542" t="n">
         <v>15</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="K542" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L542" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M542" t="n">
-        <v>6750</v>
+        <v>3737</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44335</v>
+        <v>44372</v>
       </c>
       <c r="E543" t="n">
         <v>15</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K543" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L543" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M543" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44335</v>
+        <v>44372</v>
       </c>
       <c r="E544" t="n">
         <v>15</v>
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="K544" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L544" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M544" t="n">
-        <v>5750</v>
+        <v>2800</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44316</v>
+        <v>44335</v>
       </c>
       <c r="E545" t="n">
         <v>15</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39597,7 +39597,7 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K545" t="n">
         <v>6500</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44316</v>
+        <v>44335</v>
       </c>
       <c r="E546" t="n">
         <v>15</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K546" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L546" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M546" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44316</v>
+        <v>44335</v>
       </c>
       <c r="E547" t="n">
         <v>15</v>
@@ -39732,7 +39732,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K547" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L547" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M547" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39804,7 +39804,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -39816,13 +39816,13 @@
         <v>250</v>
       </c>
       <c r="K548" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L548" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M548" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39888,13 +39888,13 @@
         <v>300</v>
       </c>
       <c r="K549" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L549" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M549" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K550" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L550" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M550" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44176</v>
+        <v>44316</v>
       </c>
       <c r="E551" t="n">
         <v>15</v>
@@ -40020,7 +40020,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K551" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L551" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M551" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44176</v>
+        <v>44316</v>
       </c>
       <c r="E552" t="n">
         <v>15</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K552" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L552" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M552" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44176</v>
+        <v>44316</v>
       </c>
       <c r="E553" t="n">
         <v>15</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K553" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L553" t="n">
         <v>4500</v>
       </c>
-      <c r="L553" t="n">
-        <v>5000</v>
-      </c>
       <c r="M553" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K554" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L554" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M554" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40308,7 +40308,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K555" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L555" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M555" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K556" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L556" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M556" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44438</v>
+        <v>44176</v>
       </c>
       <c r="E557" t="n">
         <v>15</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K557" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L557" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M557" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44438</v>
+        <v>44176</v>
       </c>
       <c r="E558" t="n">
         <v>15</v>
@@ -40524,7 +40524,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K558" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L558" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M558" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44438</v>
+        <v>44176</v>
       </c>
       <c r="E559" t="n">
         <v>15</v>
@@ -40596,7 +40596,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K559" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L559" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M559" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40680,13 +40680,13 @@
         <v>300</v>
       </c>
       <c r="K560" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L560" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M560" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K561" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L561" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M561" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K562" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L562" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M562" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E563" t="n">
         <v>15</v>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -40896,13 +40896,13 @@
         <v>300</v>
       </c>
       <c r="K563" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L563" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M563" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>403</v>
+        <v>181</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E564" t="n">
         <v>15</v>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="K564" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L564" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M564" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E565" t="n">
         <v>15</v>
@@ -41028,7 +41028,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K565" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L565" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M565" t="n">
-        <v>5250</v>
+        <v>2250</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41100,7 +41100,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K566" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L566" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M566" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41172,7 +41172,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -41184,13 +41184,13 @@
         <v>450</v>
       </c>
       <c r="K567" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L567" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M567" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41244,7 +41244,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -41253,7 +41253,7 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K568" t="n">
         <v>5000</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44260</v>
+        <v>44312</v>
       </c>
       <c r="E569" t="n">
         <v>15</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K569" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L569" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M569" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44260</v>
+        <v>44312</v>
       </c>
       <c r="E570" t="n">
         <v>15</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="K570" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L570" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M570" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44260</v>
+        <v>44312</v>
       </c>
       <c r="E571" t="n">
         <v>15</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K571" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L571" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M571" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44449</v>
+        <v>44260</v>
       </c>
       <c r="E572" t="n">
         <v>15</v>
@@ -41532,7 +41532,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K572" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L572" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M572" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44449</v>
+        <v>44260</v>
       </c>
       <c r="E573" t="n">
         <v>15</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K573" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L573" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M573" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44449</v>
+        <v>44260</v>
       </c>
       <c r="E574" t="n">
         <v>15</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K574" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L574" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M574" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K575" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L575" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M575" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41820,12 +41820,12 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J576" t="n">
@@ -41892,25 +41892,25 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K577" t="n">
         <v>3000</v>
       </c>
       <c r="L577" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M577" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K578" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L578" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M578" t="n">
-        <v>2750</v>
+        <v>3500</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44468</v>
+        <v>44449</v>
       </c>
       <c r="E579" t="n">
         <v>15</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K579" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L579" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M579" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44468</v>
+        <v>44449</v>
       </c>
       <c r="E580" t="n">
         <v>15</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K580" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L580" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M580" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44468</v>
+        <v>44449</v>
       </c>
       <c r="E581" t="n">
         <v>15</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K581" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L581" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M581" t="n">
-        <v>2250</v>
+        <v>2750</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44474</v>
+        <v>44468</v>
       </c>
       <c r="E582" t="n">
         <v>15</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42264,13 +42264,13 @@
         <v>250</v>
       </c>
       <c r="K582" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L582" t="n">
         <v>3000</v>
       </c>
-      <c r="L582" t="n">
-        <v>3500</v>
-      </c>
       <c r="M582" t="n">
-        <v>3250</v>
+        <v>2900</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44474</v>
+        <v>44468</v>
       </c>
       <c r="E583" t="n">
         <v>15</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K583" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L583" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M583" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44474</v>
+        <v>44468</v>
       </c>
       <c r="E584" t="n">
         <v>15</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,7 +42405,7 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K584" t="n">
         <v>2000</v>
@@ -42414,7 +42414,7 @@
         <v>2500</v>
       </c>
       <c r="M584" t="n">
-        <v>2325</v>
+        <v>2250</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44272</v>
+        <v>44474</v>
       </c>
       <c r="E585" t="n">
         <v>15</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K585" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L585" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M585" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44272</v>
+        <v>44474</v>
       </c>
       <c r="E586" t="n">
         <v>15</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K586" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L586" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M586" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>361</v>
+        <v>167</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44272</v>
+        <v>44474</v>
       </c>
       <c r="E587" t="n">
         <v>15</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J587" t="n">
         <v>500</v>
       </c>
       <c r="K587" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L587" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="M587" t="n">
-        <v>6250</v>
+        <v>2325</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="K588" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L588" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M588" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K589" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L589" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M589" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E590" t="n">
         <v>15</v>
@@ -42828,25 +42828,25 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K590" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L590" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M590" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E591" t="n">
         <v>15</v>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="K591" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L591" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M591" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E592" t="n">
         <v>15</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K592" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L592" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M592" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E593" t="n">
         <v>15</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K593" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L593" t="n">
         <v>6000</v>
       </c>
-      <c r="L593" t="n">
-        <v>6500</v>
-      </c>
       <c r="M593" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E594" t="n">
         <v>15</v>
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K594" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L594" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M594" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E595" t="n">
         <v>15</v>
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K595" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L595" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M595" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K596" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L596" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M596" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K597" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L597" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M597" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K598" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L598" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M598" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E599" t="n">
         <v>15</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K599" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L599" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M599" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E600" t="n">
         <v>15</v>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -43557,16 +43557,16 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K600" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L600" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M600" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E601" t="n">
         <v>15</v>
@@ -43620,7 +43620,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K601" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L601" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M601" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K602" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L602" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M602" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K603" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L603" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M603" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K604" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L604" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M604" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44428</v>
+        <v>44323</v>
       </c>
       <c r="E605" t="n">
         <v>15</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K605" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L605" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M605" t="n">
-        <v>4250</v>
+        <v>8250</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>236</v>
+        <v>458</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44428</v>
+        <v>44323</v>
       </c>
       <c r="E606" t="n">
         <v>15</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K606" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L606" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M606" t="n">
-        <v>3750</v>
+        <v>7250</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>208</v>
+        <v>403</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44428</v>
+        <v>44323</v>
       </c>
       <c r="E607" t="n">
         <v>15</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K607" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L607" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M607" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -44136,13 +44136,13 @@
         <v>300</v>
       </c>
       <c r="K608" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L608" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M608" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44208,13 +44208,13 @@
         <v>350</v>
       </c>
       <c r="K609" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L609" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M609" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K610" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L610" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M610" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E611" t="n">
         <v>15</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K611" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L611" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M611" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E612" t="n">
         <v>15</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K612" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L612" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M612" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E613" t="n">
         <v>15</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K613" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L613" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M613" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K614" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L614" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M614" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K615" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L615" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M615" t="n">
-        <v>6273</v>
+        <v>4750</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L616" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M616" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E617" t="n">
         <v>15</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K617" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L617" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M617" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E618" t="n">
         <v>15</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="K618" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L618" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M618" t="n">
-        <v>5722</v>
+        <v>6273</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E619" t="n">
         <v>15</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K619" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L619" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M619" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K620" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L620" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M620" t="n">
-        <v>5900</v>
+        <v>6250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="K621" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L621" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M621" t="n">
-        <v>5250</v>
+        <v>5722</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45141,7 +45141,7 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K622" t="n">
         <v>4500</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E623" t="n">
         <v>15</v>
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K623" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="L623" t="n">
         <v>6000</v>
       </c>
       <c r="M623" t="n">
-        <v>5750</v>
+        <v>5900</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E624" t="n">
         <v>15</v>
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>570</v>
+        <v>450</v>
       </c>
       <c r="K624" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L624" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M624" t="n">
-        <v>4487</v>
+        <v>5250</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44274</v>
+        <v>44302</v>
       </c>
       <c r="E625" t="n">
         <v>15</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (cosecha)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K625" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L625" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M625" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>361</v>
+        <v>264</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E626" t="n">
         <v>15</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K626" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L626" t="n">
         <v>6000</v>
       </c>
       <c r="M626" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E627" t="n">
         <v>15</v>
@@ -45497,11 +45497,11 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>3a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="K627" t="n">
         <v>4000</v>
@@ -45510,7 +45510,7 @@
         <v>5000</v>
       </c>
       <c r="M627" t="n">
-        <v>4500</v>
+        <v>4487</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E628" t="n">
         <v>15</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K628" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L628" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M628" t="n">
-        <v>2750</v>
+        <v>6500</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>153</v>
+        <v>361</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E629" t="n">
         <v>15</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>285</v>
+        <v>500</v>
       </c>
       <c r="K629" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L629" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M629" t="n">
-        <v>2237</v>
+        <v>5500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E630" t="n">
         <v>15</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,29 +45717,29 @@
         </is>
       </c>
       <c r="J630" t="n">
+        <v>560</v>
+      </c>
+      <c r="K630" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L630" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M630" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P630" t="n">
         <v>250</v>
-      </c>
-      <c r="K630" t="n">
-        <v>1500</v>
-      </c>
-      <c r="L630" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M630" t="n">
-        <v>1750</v>
-      </c>
-      <c r="N630" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O630" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P630" t="n">
-        <v>97</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K631" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L631" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M631" t="n">
-        <v>2400</v>
+        <v>2750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="K632" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L632" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M632" t="n">
-        <v>1750</v>
+        <v>2237</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45924,43 +45924,259 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>3a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J633" t="n">
+        <v>250</v>
+      </c>
+      <c r="K633" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L633" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M633" t="n">
+        <v>1750</v>
+      </c>
+      <c r="N633" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P633" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q633" t="n">
+        <v>18</v>
+      </c>
+      <c r="R633" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E634" t="n">
+        <v>15</v>
+      </c>
+      <c r="F634" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I633" t="inlineStr">
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J634" t="n">
+        <v>270</v>
+      </c>
+      <c r="K634" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L634" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M634" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P634" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>18</v>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>1</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E635" t="n">
+        <v>15</v>
+      </c>
+      <c r="F635" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J635" t="n">
+        <v>300</v>
+      </c>
+      <c r="K635" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L635" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M635" t="n">
+        <v>1750</v>
+      </c>
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P635" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q635" t="n">
+        <v>18</v>
+      </c>
+      <c r="R635" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>1</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D636" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E636" t="n">
+        <v>15</v>
+      </c>
+      <c r="F636" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
         <is>
           <t>3a (cosecha)</t>
         </is>
       </c>
-      <c r="J633" t="n">
+      <c r="J636" t="n">
         <v>300</v>
       </c>
-      <c r="K633" t="n">
+      <c r="K636" t="n">
         <v>1000</v>
       </c>
-      <c r="L633" t="n">
+      <c r="L636" t="n">
         <v>1500</v>
       </c>
-      <c r="M633" t="n">
+      <c r="M636" t="n">
         <v>1250</v>
       </c>
-      <c r="N633" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O633" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P633" t="n">
+      <c r="N636" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P636" t="n">
         <v>69</v>
       </c>
-      <c r="Q633" t="n">
-        <v>18</v>
-      </c>
-      <c r="R633" t="inlineStr">
+      <c r="Q636" t="n">
+        <v>18</v>
+      </c>
+      <c r="R636" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R674"/>
+  <dimension ref="A1:R680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E633" t="n">
         <v>15</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K633" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L633" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M633" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E634" t="n">
         <v>15</v>
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K634" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L634" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M634" t="n">
-        <v>6250</v>
+        <v>4500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E635" t="n">
         <v>15</v>
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K635" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L635" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M635" t="n">
-        <v>5250</v>
+        <v>3500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E636" t="n">
         <v>15</v>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K636" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L636" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M636" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E637" t="n">
         <v>15</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K637" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L637" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M637" t="n">
-        <v>5750</v>
+        <v>2250</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E638" t="n">
         <v>15</v>
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K638" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L638" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="M638" t="n">
-        <v>5250</v>
+        <v>1750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E639" t="n">
         <v>15</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
    